--- a/Docs/Clasificación.xlsx
+++ b/Docs/Clasificación.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansanchez/Desktop/Tesis/Documentos/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansanchez/Desktop/ssanchez59_Blockchain/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0D5322-7ABB-634A-8A36-9D7202345781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED941B-78B8-F349-B1AC-5589A47FCF0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="3" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="70">
   <si>
     <t>Throughput</t>
   </si>
@@ -257,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -982,6 +982,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,22 +997,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,12 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22002,7 +22002,7 @@
       <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -22010,27 +22010,27 @@
     <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:26">
-      <c r="B3" s="125" t="s">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B3" s="127" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:26">
-      <c r="B4" s="125"/>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B4" s="127"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:26" ht="17" thickBot="1">
-      <c r="B5" s="125"/>
+    <row r="5" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="127"/>
       <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
@@ -22063,21 +22063,21 @@
       <c r="E6" s="36">
         <v>397</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="125" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="76"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="125" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="76"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
-      <c r="V6" s="123" t="s">
+      <c r="V6" s="125" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="76"/>
@@ -22085,7 +22085,7 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
         <v>2</v>
       </c>
@@ -22098,23 +22098,23 @@
       <c r="E7" s="36">
         <v>74</v>
       </c>
-      <c r="J7" s="124"/>
+      <c r="J7" s="126"/>
       <c r="K7" s="76"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
-      <c r="P7" s="124"/>
+      <c r="P7" s="126"/>
       <c r="Q7" s="76"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
-      <c r="V7" s="124"/>
+      <c r="V7" s="126"/>
       <c r="W7" s="76"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
     </row>
-    <row r="8" spans="2:26" ht="17" thickBot="1">
+    <row r="8" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
@@ -22127,7 +22127,7 @@
       <c r="E8" s="36">
         <v>9099</v>
       </c>
-      <c r="J8" s="124"/>
+      <c r="J8" s="126"/>
       <c r="K8" s="76" t="s">
         <v>46</v>
       </c>
@@ -22140,7 +22140,7 @@
       <c r="N8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="124"/>
+      <c r="P8" s="126"/>
       <c r="Q8" s="76" t="s">
         <v>46</v>
       </c>
@@ -22153,7 +22153,7 @@
       <c r="T8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="124"/>
+      <c r="V8" s="126"/>
       <c r="W8" s="76" t="s">
         <v>46</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>8954</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J10" s="20"/>
       <c r="K10" s="93">
         <v>2</v>
@@ -22267,7 +22267,7 @@
         <v>8839</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J11" s="20"/>
       <c r="K11" s="93">
         <v>3</v>
@@ -22308,7 +22308,7 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J12" s="20"/>
       <c r="K12" s="93">
         <v>4</v>
@@ -22349,7 +22349,7 @@
         <v>8946</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="17" thickBot="1">
+    <row r="13" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="21"/>
       <c r="K13" s="94">
         <v>5</v>
@@ -22390,7 +22390,7 @@
         <v>8627</v>
       </c>
     </row>
-    <row r="14" spans="2:26">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>41</v>
       </c>
@@ -22437,7 +22437,7 @@
         <v>8798.7999999999993</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>48</v>
       </c>
@@ -22484,18 +22484,18 @@
         <v>162.83335039235666</v>
       </c>
     </row>
-    <row r="16" spans="2:26">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="X16" s="77"/>
       <c r="Y16" s="77"/>
       <c r="Z16" s="77"/>
     </row>
-    <row r="18" spans="19:26" ht="17" thickBot="1">
+    <row r="18" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="V18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="19:26">
-      <c r="V19" s="123" t="s">
+    <row r="19" spans="19:26" x14ac:dyDescent="0.2">
+      <c r="V19" s="125" t="s">
         <v>15</v>
       </c>
       <c r="W19" s="76"/>
@@ -22503,15 +22503,15 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
     </row>
-    <row r="20" spans="19:26">
-      <c r="V20" s="124"/>
+    <row r="20" spans="19:26" x14ac:dyDescent="0.2">
+      <c r="V20" s="126"/>
       <c r="W20" s="76"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
     </row>
-    <row r="21" spans="19:26" ht="17" thickBot="1">
-      <c r="V21" s="124"/>
+    <row r="21" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="126"/>
       <c r="W21" s="76" t="s">
         <v>46</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="19:26">
+    <row r="22" spans="19:26" x14ac:dyDescent="0.2">
       <c r="V22" s="20" t="s">
         <v>60</v>
       </c>
@@ -22542,7 +22542,7 @@
         <v>5524</v>
       </c>
     </row>
-    <row r="23" spans="19:26">
+    <row r="23" spans="19:26" x14ac:dyDescent="0.2">
       <c r="V23" s="20"/>
       <c r="W23" s="93">
         <v>2</v>
@@ -22557,7 +22557,7 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="24" spans="19:26">
+    <row r="24" spans="19:26" x14ac:dyDescent="0.2">
       <c r="V24" s="20"/>
       <c r="W24" s="93">
         <v>3</v>
@@ -22572,7 +22572,7 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="25" spans="19:26">
+    <row r="25" spans="19:26" x14ac:dyDescent="0.2">
       <c r="V25" s="20"/>
       <c r="W25" s="93">
         <v>4</v>
@@ -22587,7 +22587,7 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="26" spans="19:26" ht="17" thickBot="1">
+    <row r="26" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="V26" s="21"/>
       <c r="W26" s="94">
         <v>5</v>
@@ -22602,7 +22602,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="27" spans="19:26">
+    <row r="27" spans="19:26" x14ac:dyDescent="0.2">
       <c r="W27" t="s">
         <v>41</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>5683.2</v>
       </c>
     </row>
-    <row r="28" spans="19:26">
+    <row r="28" spans="19:26" x14ac:dyDescent="0.2">
       <c r="W28" t="s">
         <v>48</v>
       </c>
@@ -22636,7 +22636,7 @@
         <v>167.52522198164669</v>
       </c>
     </row>
-    <row r="31" spans="19:26" ht="17" thickBot="1">
+    <row r="31" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="S31">
         <f>Y27/X27</f>
         <v>0.96630862632597236</v>
@@ -22649,7 +22649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="19:26">
+    <row r="32" spans="19:26" x14ac:dyDescent="0.2">
       <c r="S32">
         <f>434/454</f>
         <v>0.95594713656387664</v>
@@ -22658,7 +22658,7 @@
         <f>398/434</f>
         <v>0.91705069124423966</v>
       </c>
-      <c r="V32" s="123" t="s">
+      <c r="V32" s="125" t="s">
         <v>15</v>
       </c>
       <c r="W32" s="76"/>
@@ -22666,7 +22666,7 @@
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
     </row>
-    <row r="33" spans="19:26">
+    <row r="33" spans="19:26" x14ac:dyDescent="0.2">
       <c r="S33">
         <f>Y40/X40</f>
         <v>0.66852203523017484</v>
@@ -22675,14 +22675,14 @@
         <f>Z40/Y40</f>
         <v>0.947350377118229</v>
       </c>
-      <c r="V33" s="124"/>
+      <c r="V33" s="126"/>
       <c r="W33" s="76"/>
       <c r="X33" s="23"/>
       <c r="Y33" s="23"/>
       <c r="Z33" s="23"/>
     </row>
-    <row r="34" spans="19:26" ht="17" thickBot="1">
-      <c r="V34" s="124"/>
+    <row r="34" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V34" s="126"/>
       <c r="W34" s="76" t="s">
         <v>46</v>
       </c>
@@ -22696,7 +22696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="19:26">
+    <row r="35" spans="19:26" x14ac:dyDescent="0.2">
       <c r="V35" s="20" t="s">
         <v>58</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="36" spans="19:26">
+    <row r="36" spans="19:26" x14ac:dyDescent="0.2">
       <c r="V36" s="20"/>
       <c r="W36" s="93">
         <v>2</v>
@@ -22728,7 +22728,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="37" spans="19:26">
+    <row r="37" spans="19:26" x14ac:dyDescent="0.2">
       <c r="V37" s="20"/>
       <c r="W37" s="93">
         <v>3</v>
@@ -22743,7 +22743,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="38" spans="19:26">
+    <row r="38" spans="19:26" x14ac:dyDescent="0.2">
       <c r="V38" s="20"/>
       <c r="W38" s="93">
         <v>4</v>
@@ -22758,7 +22758,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="39" spans="19:26" ht="17" thickBot="1">
+    <row r="39" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="V39" s="21"/>
       <c r="W39" s="94">
         <v>5</v>
@@ -22773,7 +22773,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="40" spans="19:26">
+    <row r="40" spans="19:26" x14ac:dyDescent="0.2">
       <c r="W40" t="s">
         <v>41</v>
       </c>
@@ -22790,7 +22790,7 @@
         <v>3868.6</v>
       </c>
     </row>
-    <row r="41" spans="19:26">
+    <row r="41" spans="19:26" x14ac:dyDescent="0.2">
       <c r="W41" t="s">
         <v>48</v>
       </c>
@@ -22829,7 +22829,7 @@
       <selection activeCell="X114" sqref="X114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -22854,7 +22854,7 @@
     <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
@@ -22880,7 +22880,7 @@
       </c>
       <c r="W2" s="16"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1">
+    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
@@ -22890,61 +22890,61 @@
       </c>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="2:28" ht="17" thickBot="1">
-      <c r="B5" s="123" t="s">
+    <row r="5" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="125" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="90"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="54"/>
       <c r="J5" s="27"/>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="125" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="90"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="127"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="130"/>
       <c r="V5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="124"/>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="126"/>
       <c r="C6" s="91"/>
       <c r="D6" s="131"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="129"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="133"/>
       <c r="I6" s="54"/>
       <c r="J6" s="27"/>
-      <c r="L6" s="124"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="91"/>
       <c r="N6" s="131"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="129"/>
-      <c r="V6" s="132" t="s">
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="133"/>
+      <c r="V6" s="134" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="90"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="127"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="130"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="124"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="126"/>
       <c r="C7" s="91"/>
       <c r="D7" s="96" t="s">
         <v>49</v>
@@ -22963,7 +22963,7 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="124"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="91" t="s">
         <v>39</v>
       </c>
@@ -22982,15 +22982,15 @@
       <c r="R7" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="133"/>
+      <c r="V7" s="135"/>
       <c r="W7" s="91"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="129"/>
+      <c r="X7" s="132"/>
+      <c r="Y7" s="132"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="132"/>
+      <c r="AB7" s="133"/>
     </row>
-    <row r="8" spans="2:28" ht="17" thickBot="1">
+    <row r="8" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="65" t="s">
         <v>1</v>
       </c>
@@ -23035,7 +23035,7 @@
       <c r="R8" s="101">
         <v>13.65</v>
       </c>
-      <c r="V8" s="133"/>
+      <c r="V8" s="135"/>
       <c r="W8" s="108"/>
       <c r="X8" s="22" t="s">
         <v>49</v>
@@ -23053,7 +23053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:28">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="8" t="s">
         <v>34</v>
@@ -23116,7 +23116,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17" thickBot="1">
+    <row r="10" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="9" t="s">
         <v>35</v>
@@ -23179,7 +23179,7 @@
         <v>85.634</v>
       </c>
     </row>
-    <row r="11" spans="2:28">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="75" t="s">
         <v>41</v>
@@ -23239,7 +23239,7 @@
       <c r="AA11" s="89"/>
       <c r="AB11" s="102"/>
     </row>
-    <row r="12" spans="2:28">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="75" t="s">
         <v>48</v>
@@ -23307,7 +23307,7 @@
         <v>137.136</v>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="17" thickBot="1">
+    <row r="13" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="70"/>
@@ -23358,7 +23358,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="17" thickBot="1">
+    <row r="14" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
@@ -23383,16 +23383,16 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
-      <c r="B15" s="123" t="s">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="125" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="90"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
       <c r="M15" s="75" t="s">
         <v>41</v>
       </c>
@@ -23417,14 +23417,14 @@
         <v>22.612857142857141</v>
       </c>
     </row>
-    <row r="16" spans="2:28">
-      <c r="B16" s="124"/>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="126"/>
       <c r="C16" s="91"/>
       <c r="D16" s="131"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="129"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
       <c r="M16" s="75" t="s">
         <v>48</v>
       </c>
@@ -23449,8 +23449,8 @@
         <v>5.1490086886885864</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="17" thickBot="1">
-      <c r="B17" s="124"/>
+    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="126"/>
       <c r="C17" s="91"/>
       <c r="D17" s="96" t="s">
         <v>23</v>
@@ -23468,7 +23468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1">
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="65" t="s">
         <v>32</v>
       </c>
@@ -23495,7 +23495,7 @@
       </c>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="8" t="s">
         <v>34</v>
@@ -23515,17 +23515,17 @@
       <c r="H19" s="102">
         <v>86.363</v>
       </c>
-      <c r="L19" s="123" t="s">
+      <c r="L19" s="125" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="90"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="127"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="130"/>
     </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
         <v>35</v>
@@ -23545,15 +23545,15 @@
       <c r="H20" s="103">
         <v>83.039000000000001</v>
       </c>
-      <c r="L20" s="124"/>
+      <c r="L20" s="126"/>
       <c r="M20" s="91"/>
       <c r="N20" s="131"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="129"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="133"/>
     </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1">
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
       <c r="C21" s="75" t="s">
         <v>41</v>
@@ -23578,7 +23578,7 @@
         <f>AVERAGE(H18:H20)</f>
         <v>81.62266666666666</v>
       </c>
-      <c r="L21" s="124"/>
+      <c r="L21" s="126"/>
       <c r="M21" s="91" t="s">
         <v>39</v>
       </c>
@@ -23598,7 +23598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="75" t="s">
         <v>48</v>
@@ -23645,7 +23645,7 @@
         <v>78.78</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L23" s="8"/>
       <c r="M23" s="25" t="s">
         <v>34</v>
@@ -23666,7 +23666,7 @@
         <v>76.841999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="17" thickBot="1">
+    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
@@ -23691,8 +23691,8 @@
         <v>76.376000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="123" t="s">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="125" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="71"/>
@@ -23717,8 +23717,8 @@
         <v>78.47</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="124"/>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="126"/>
       <c r="C26" s="72"/>
       <c r="D26" s="79"/>
       <c r="L26" s="8"/>
@@ -23741,8 +23741,8 @@
         <v>74.08</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="17" thickBot="1">
-      <c r="B27" s="124"/>
+    <row r="27" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="126"/>
       <c r="C27" s="72"/>
       <c r="D27" s="80" t="s">
         <v>23</v>
@@ -23767,7 +23767,7 @@
         <v>98.539000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="17" thickBot="1">
+    <row r="28" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="65" t="s">
         <v>2</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>74.396000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
         <v>34</v>
@@ -23829,7 +23829,7 @@
         <v>79.640428571428558</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="17" thickBot="1">
+    <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
       <c r="C30" s="21" t="s">
         <v>35</v>
@@ -23861,7 +23861,7 @@
         <v>8.5261982121213293</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="25"/>
       <c r="C31" s="75" t="s">
         <v>41</v>
@@ -23871,7 +23871,7 @@
         <v>3.6173333333333333</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="17" thickBot="1">
+    <row r="32" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
       <c r="C32" s="75" t="s">
         <v>48</v>
@@ -23885,33 +23885,33 @@
       </c>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="2:18">
-      <c r="L33" s="123" t="s">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L33" s="125" t="s">
         <v>15</v>
       </c>
       <c r="M33" s="74"/>
       <c r="N33" s="78"/>
     </row>
-    <row r="34" spans="2:18" ht="17" thickBot="1">
+    <row r="34" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="L34" s="124"/>
+      <c r="L34" s="126"/>
       <c r="M34" s="73"/>
       <c r="N34" s="79"/>
     </row>
-    <row r="35" spans="2:18" ht="17" thickBot="1">
-      <c r="B35" s="123" t="s">
+    <row r="35" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="125" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="106"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="127"/>
-      <c r="L35" s="124"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="130"/>
+      <c r="L35" s="126"/>
       <c r="M35" s="73" t="s">
         <v>39</v>
       </c>
@@ -23919,14 +23919,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="124"/>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="126"/>
       <c r="C36" s="107"/>
       <c r="D36" s="131"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="129"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="133"/>
       <c r="L36" s="68" t="s">
         <v>2</v>
       </c>
@@ -23937,8 +23937,8 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="17" thickBot="1">
-      <c r="B37" s="124"/>
+    <row r="37" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="126"/>
       <c r="C37" s="107"/>
       <c r="D37" s="96" t="s">
         <v>23</v>
@@ -23963,7 +23963,7 @@
         <v>4.859</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="65" t="s">
         <v>61</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>4.5979999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="20"/>
       <c r="C39" s="8" t="s">
         <v>34</v>
@@ -24021,7 +24021,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="17" thickBot="1">
+    <row r="40" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
         <v>35</v>
@@ -24049,7 +24049,7 @@
         <v>4.4950000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="75" t="s">
         <v>41</v>
@@ -24082,7 +24082,7 @@
         <v>4.4210000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="17" thickBot="1">
+    <row r="42" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="25"/>
       <c r="C42" s="75" t="s">
         <v>48</v>
@@ -24115,7 +24115,7 @@
         <v>4.5679999999999996</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M43" s="75" t="s">
         <v>41</v>
       </c>
@@ -24124,7 +24124,7 @@
         <v>4.6044285714285715</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M44" s="75" t="s">
         <v>48</v>
       </c>
@@ -24133,39 +24133,39 @@
         <v>0.14349083262570828</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="17" thickBot="1">
+    <row r="45" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="16"/>
       <c r="N45" s="100"/>
     </row>
-    <row r="46" spans="2:18">
-      <c r="B46" s="123" t="s">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="125" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="113"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="127"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="130"/>
     </row>
-    <row r="47" spans="2:18" ht="17" thickBot="1">
-      <c r="B47" s="124"/>
+    <row r="47" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="126"/>
       <c r="C47" s="114"/>
       <c r="D47" s="131"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="133"/>
       <c r="L47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="16"/>
     </row>
-    <row r="48" spans="2:18" ht="17" thickBot="1">
-      <c r="B48" s="124"/>
+    <row r="48" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="126"/>
       <c r="C48" s="114"/>
       <c r="D48" s="96" t="s">
         <v>23</v>
@@ -24182,17 +24182,17 @@
       <c r="H48" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="123" t="s">
+      <c r="L48" s="125" t="s">
         <v>15</v>
       </c>
       <c r="M48" s="106"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="126"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="127"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="130"/>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="65" t="s">
         <v>62</v>
       </c>
@@ -24214,15 +24214,15 @@
       <c r="H49" s="101">
         <v>263.2</v>
       </c>
-      <c r="L49" s="124"/>
+      <c r="L49" s="126"/>
       <c r="M49" s="107"/>
       <c r="N49" s="131"/>
-      <c r="O49" s="128"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="128"/>
-      <c r="R49" s="129"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="132"/>
+      <c r="R49" s="133"/>
     </row>
-    <row r="50" spans="2:18" ht="17" thickBot="1">
+    <row r="50" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="8" t="s">
         <v>34</v>
@@ -24242,7 +24242,7 @@
       <c r="H50" s="102">
         <v>279.2</v>
       </c>
-      <c r="L50" s="124"/>
+      <c r="L50" s="126"/>
       <c r="M50" s="107" t="s">
         <v>39</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="17" thickBot="1">
+    <row r="51" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
         <v>35</v>
@@ -24304,7 +24304,7 @@
         <v>110.124</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="25"/>
       <c r="C52" s="75" t="s">
         <v>41</v>
@@ -24349,7 +24349,7 @@
         <v>120.90900000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="25"/>
       <c r="C53" s="75" t="s">
         <v>48</v>
@@ -24394,7 +24394,7 @@
         <v>112.61499999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L54" s="8"/>
       <c r="M54" s="25" t="s">
         <v>36</v>
@@ -24415,7 +24415,7 @@
         <v>214.214</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L55" s="8"/>
       <c r="M55" s="25" t="s">
         <v>37</v>
@@ -24436,7 +24436,7 @@
         <v>165.518</v>
       </c>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L56" s="8"/>
       <c r="M56" s="25" t="s">
         <v>38</v>
@@ -24457,7 +24457,7 @@
         <v>135.69999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="17" thickBot="1">
+    <row r="57" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L57" s="9"/>
       <c r="M57" s="64" t="s">
         <v>40</v>
@@ -24478,7 +24478,7 @@
         <v>128.99700000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M58" s="75" t="s">
         <v>41</v>
       </c>
@@ -24503,7 +24503,7 @@
         <v>141.15385714285716</v>
       </c>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M59" s="75" t="s">
         <v>48</v>
       </c>
@@ -24528,34 +24528,34 @@
         <v>37.184455324900426</v>
       </c>
     </row>
-    <row r="62" spans="2:18" ht="17" thickBot="1">
+    <row r="62" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L62" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="2:18">
-      <c r="L63" s="123" t="s">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L63" s="125" t="s">
         <v>15</v>
       </c>
       <c r="M63" s="113"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="126"/>
-      <c r="P63" s="126"/>
-      <c r="Q63" s="126"/>
-      <c r="R63" s="127"/>
+      <c r="N63" s="128"/>
+      <c r="O63" s="129"/>
+      <c r="P63" s="129"/>
+      <c r="Q63" s="129"/>
+      <c r="R63" s="130"/>
     </row>
-    <row r="64" spans="2:18">
-      <c r="L64" s="124"/>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L64" s="126"/>
       <c r="M64" s="114"/>
       <c r="N64" s="131"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="128"/>
-      <c r="R64" s="129"/>
+      <c r="O64" s="132"/>
+      <c r="P64" s="132"/>
+      <c r="Q64" s="132"/>
+      <c r="R64" s="133"/>
     </row>
-    <row r="65" spans="12:18" ht="17" thickBot="1">
-      <c r="L65" s="124"/>
+    <row r="65" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="126"/>
       <c r="M65" s="114" t="s">
         <v>39</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="12:18">
+    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="68" t="s">
         <v>62</v>
       </c>
@@ -24598,7 +24598,7 @@
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="67" spans="12:18">
+    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L67" s="8"/>
       <c r="M67" s="25" t="s">
         <v>34</v>
@@ -24619,7 +24619,7 @@
         <v>150.1</v>
       </c>
     </row>
-    <row r="68" spans="12:18">
+    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L68" s="8"/>
       <c r="M68" s="25" t="s">
         <v>35</v>
@@ -24640,7 +24640,7 @@
         <v>264.60000000000002</v>
       </c>
     </row>
-    <row r="69" spans="12:18">
+    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L69" s="8"/>
       <c r="M69" s="25" t="s">
         <v>36</v>
@@ -24661,7 +24661,7 @@
         <v>192.9</v>
       </c>
     </row>
-    <row r="70" spans="12:18">
+    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L70" s="8"/>
       <c r="M70" s="25" t="s">
         <v>37</v>
@@ -24682,7 +24682,7 @@
         <v>279.7</v>
       </c>
     </row>
-    <row r="71" spans="12:18">
+    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L71" s="8"/>
       <c r="M71" s="25" t="s">
         <v>38</v>
@@ -24703,7 +24703,7 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="72" spans="12:18" ht="17" thickBot="1">
+    <row r="72" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L72" s="9"/>
       <c r="M72" s="64" t="s">
         <v>40</v>
@@ -24724,7 +24724,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="73" spans="12:18">
+    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M73" s="75" t="s">
         <v>41</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>188.15714285714284</v>
       </c>
     </row>
-    <row r="74" spans="12:18">
+    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M74" s="75" t="s">
         <v>48</v>
       </c>
@@ -24774,17 +24774,21 @@
         <v>60.569542872713981</v>
       </c>
     </row>
-    <row r="96" spans="14:14" ht="18">
+    <row r="96" spans="14:14" ht="18" x14ac:dyDescent="0.25">
       <c r="N96" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D47:H47"/>
@@ -24798,16 +24802,12 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24822,7 +24822,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -24833,7 +24833,7 @@
     <col min="12" max="12" width="10.83203125" style="118"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" s="16" t="s">
         <v>63</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -24882,7 +24882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
@@ -24909,7 +24909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="75" t="s">
         <v>32</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="75"/>
       <c r="C6" s="77"/>
       <c r="H6" s="75" t="s">
@@ -24946,7 +24946,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H7" s="75" t="s">
         <v>66</v>
       </c>
@@ -24964,13 +24964,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F427D7-3FD9-9E4A-9706-090642B62667}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -24981,73 +24981,73 @@
     <col min="9" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="134" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
-      <c r="I2" s="134" t="s">
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="138"/>
+      <c r="I2" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="138"/>
     </row>
-    <row r="3" spans="2:11" ht="17" thickBot="1">
-      <c r="B3" s="137" t="s">
+    <row r="3" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="I3" s="137" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="141"/>
+      <c r="I3" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="141"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="132" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="136"/>
-      <c r="I4" s="132" t="s">
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="138"/>
+      <c r="I4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="134" t="s">
+      <c r="J4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="136"/>
+      <c r="K4" s="138"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="133"/>
-      <c r="C5" s="141" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="135"/>
+      <c r="C5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="143"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="141" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="143"/>
+      <c r="K5" s="145"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1">
-      <c r="B6" s="140"/>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="142"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
@@ -25063,7 +25063,7 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="142"/>
       <c r="J6" s="122" t="s">
         <v>0</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -25096,11 +25096,11 @@
       <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="147" t="s">
+      <c r="K7" s="123" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
@@ -25125,11 +25125,11 @@
       <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="147" t="s">
+      <c r="K8" s="123" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1">
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
@@ -25154,73 +25154,12 @@
       <c r="J9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="148" t="s">
+      <c r="K9" s="124" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1"/>
-    <row r="11" spans="2:11">
-      <c r="I11" s="134" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-    </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1">
-      <c r="I12" s="137" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="138"/>
-      <c r="K12" s="139"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="I13" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="134" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="136"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="I14" s="133"/>
-      <c r="J14" s="141" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="143"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
-      <c r="I15" s="140"/>
-      <c r="J15" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="I16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="147"/>
-    </row>
-    <row r="17" spans="9:11">
-      <c r="I17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="147"/>
-    </row>
-    <row r="18" spans="9:11" ht="17" thickBot="1">
-      <c r="I18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="10">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:B6"/>
@@ -25231,11 +25170,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25250,7 +25184,7 @@
       <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -25276,46 +25210,46 @@
     <col min="27" max="28" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="17" thickBot="1"/>
-    <row r="2" spans="2:28" ht="17" thickBot="1">
-      <c r="B2" s="145" t="s">
+    <row r="1" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
       <c r="I2" s="54"/>
       <c r="J2" s="27"/>
-      <c r="L2" s="145" t="s">
+      <c r="L2" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="54"/>
       <c r="T2" s="27"/>
-      <c r="V2" s="145" t="s">
+      <c r="V2" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
     </row>
-    <row r="3" spans="2:28">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" s="16"/>
       <c r="L3" s="16"/>
       <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1">
+    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
@@ -25326,87 +25260,87 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:28">
-      <c r="B5" s="123" t="s">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="23"/>
       <c r="J5" s="28"/>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="130" t="s">
+      <c r="M5" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
       <c r="S5" s="23"/>
       <c r="T5" s="28"/>
-      <c r="V5" s="123" t="s">
+      <c r="V5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="130" t="s">
+      <c r="W5" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
     </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="124"/>
-      <c r="C6" s="133" t="s">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="126"/>
+      <c r="C6" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
       <c r="I6" s="23"/>
       <c r="J6" s="28"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="133" t="s">
+      <c r="L6" s="126"/>
+      <c r="M6" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="128" t="s">
+      <c r="N6" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
       <c r="S6" s="23"/>
       <c r="T6" s="28"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="133" t="s">
+      <c r="V6" s="126"/>
+      <c r="W6" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="128" t="s">
+      <c r="X6" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="124"/>
-      <c r="C7" s="144"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="126"/>
+      <c r="C7" s="146"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25424,8 +25358,8 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="144"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="146"/>
       <c r="N7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25443,8 +25377,8 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="29"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="144"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="146"/>
       <c r="X7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25461,7 +25395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:28">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
@@ -25530,7 +25464,7 @@
         <v>51.689</v>
       </c>
     </row>
-    <row r="9" spans="2:28">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
@@ -25599,7 +25533,7 @@
         <v>42.41</v>
       </c>
     </row>
-    <row r="10" spans="2:28">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
@@ -25668,7 +25602,7 @@
         <v>28.091000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1">
+    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -25719,7 +25653,7 @@
       <c r="AA11" s="48"/>
       <c r="AB11" s="48"/>
     </row>
-    <row r="14" spans="2:28" ht="17" thickBot="1">
+    <row r="14" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
@@ -25730,79 +25664,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
-      <c r="B15" s="123" t="s">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="L15" s="123" t="s">
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="L15" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="130" t="s">
+      <c r="M15" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="V15" s="123" t="s">
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="V15" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="130" t="s">
+      <c r="W15" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="126"/>
-      <c r="Z15" s="126"/>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="129"/>
     </row>
-    <row r="16" spans="2:28">
-      <c r="B16" s="124"/>
-      <c r="C16" s="133" t="s">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="126"/>
+      <c r="C16" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="133" t="s">
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="128" t="s">
+      <c r="N16" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="133" t="s">
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="128" t="s">
+      <c r="X16" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
     </row>
-    <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="124"/>
-      <c r="C17" s="144"/>
+    <row r="17" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="126"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
@@ -25818,8 +25752,8 @@
       <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="124"/>
-      <c r="M17" s="144"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="146"/>
       <c r="N17" s="32" t="s">
         <v>22</v>
       </c>
@@ -25835,8 +25769,8 @@
       <c r="R17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="124"/>
-      <c r="W17" s="144"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="146"/>
       <c r="X17" s="50" t="s">
         <v>22</v>
       </c>
@@ -25853,7 +25787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
@@ -25918,7 +25852,7 @@
         <v>47.664000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
@@ -25983,7 +25917,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="17">
+    <row r="20" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
@@ -26048,7 +25982,7 @@
         <v>56.512</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="17" thickBot="1">
+    <row r="21" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
         <v>2</v>
       </c>
@@ -26097,17 +26031,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="B15:B17"/>
@@ -26124,6 +26047,17 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:R16"/>
     <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26138,7 +26072,7 @@
       <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -26162,7 +26096,7 @@
     <col min="28" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
@@ -26195,7 +26129,7 @@
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1">
+    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
@@ -26206,60 +26140,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:28">
-      <c r="B5" s="123" t="s">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="L5" s="123" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="L5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="130"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="127"/>
-      <c r="V5" s="123" t="s">
+      <c r="M5" s="128"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="130"/>
+      <c r="V5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="130"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="127"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="130"/>
     </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="124"/>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="126"/>
       <c r="C6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
-      <c r="L6" s="124"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="133"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="129"/>
-      <c r="V6" s="124"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="133"/>
+      <c r="V6" s="126"/>
       <c r="W6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="129"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="133"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="124"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="126"/>
       <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
@@ -26275,7 +26209,7 @@
       <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="124"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26291,7 +26225,7 @@
       <c r="Q7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="124"/>
+      <c r="V7" s="126"/>
       <c r="W7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26308,7 +26242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:28">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
@@ -26364,7 +26298,7 @@
         <v>12.997</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="17">
+    <row r="9" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
@@ -26420,7 +26354,7 @@
         <v>47.183999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17">
+    <row r="10" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
@@ -26476,7 +26410,7 @@
         <v>53.204000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1">
+    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>2</v>
       </c>

--- a/Docs/Clasificación.xlsx
+++ b/Docs/Clasificación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansanchez/Desktop/ssanchez59_Blockchain/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED941B-78B8-F349-B1AC-5589A47FCF0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD164992-96CE-FC4A-B745-634E74231E4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="3" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
   </bookViews>
   <sheets>
     <sheet name="Throughput" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="71">
   <si>
     <t>Throughput</t>
   </si>
@@ -212,9 +212,6 @@
     <t>(⊕: Less favorable, ⊕⊕: Neutral, ⊕⊕⊕: More favorable)</t>
   </si>
   <si>
-    <t>Block-lattice (elegida)</t>
-  </si>
-  <si>
     <t>Node 1</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t>BL (Strings)</t>
-  </si>
-  <si>
-    <t>BL (Cubos)</t>
   </si>
   <si>
     <t>Size of message (bytes)</t>
@@ -247,17 +241,25 @@
   <si>
     <t>Block-Lattice</t>
   </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>BL (Original)</t>
+  </si>
+  <si>
+    <t>Block-la (Original</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -658,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,9 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,9 +924,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,9 +947,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,6 +981,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,22 +993,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1056,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1158,7 +1192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Throughput!$P$9</c:f>
+              <c:f>Throughput!$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1256,7 +1290,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Throughput!$R$15:$T$15</c:f>
+                <c:f>Throughput!$L$19:$N$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1274,7 +1308,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Throughput!$R$15:$T$15</c:f>
+                <c:f>Throughput!$L$19:$N$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1306,18 +1340,18 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Throughput!$R$14:$T$14</c:f>
+              <c:f>Throughput!$L$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>454.2</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>434</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398.4</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,7 +1368,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Throughput!$J$9</c:f>
+              <c:f>Throughput!$J$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1432,7 +1466,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Throughput!$L$15:$N$15</c:f>
+                <c:f>Throughput!$L$33:$N$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1450,7 +1484,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Throughput!$L$15:$N$15</c:f>
+                <c:f>Throughput!$L$33:$N$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1482,7 +1516,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Throughput!$L$8:$N$8</c:f>
+              <c:f>Throughput!$L$25:$N$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1499,18 +1533,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Throughput!$L$14:$N$14</c:f>
+              <c:f>Throughput!$L$32:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>74.400000000000006</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.400000000000006</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.8</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,7 +1659,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Throughput!$X$41:$Z$41</c:f>
+                <c:f>Throughput!$L$47:$N$47</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1643,7 +1677,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Throughput!$X$41:$Z$41</c:f>
+                <c:f>Throughput!$L$47:$N$47</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1675,18 +1709,18 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Throughput!$X$40:$Z$40</c:f>
+              <c:f>Throughput!$L$46:$N$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6108.4</c:v>
+                  <c:v>6071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4083.6</c:v>
+                  <c:v>4109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3868.6</c:v>
+                  <c:v>3892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6817,6 +6851,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="l"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -6851,7 +6886,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Latency - Average'!$D$12:$H$12</c:f>
+                <c:f>'Latency - Average'!$D$13:$H$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -6875,7 +6910,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Latency - Average'!$D$12:$H$12</c:f>
+                <c:f>'Latency - Average'!$D$13:$H$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -6936,24 +6971,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latency - Average'!$D$11:$H$11</c:f>
+              <c:f>'Latency - Average'!$D$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.057666666666668</c:v>
+                  <c:v>14.417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.126666666666666</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.75</c:v>
+                  <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0266666666666655</c:v>
+                  <c:v>9.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.763333333333335</c:v>
+                  <c:v>16.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6982,7 +7017,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7033,6 +7068,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="l"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -7067,7 +7103,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Latency - Average'!$D$32</c:f>
+                <c:f>'Latency - Average'!$D$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -7079,7 +7115,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Latency - Average'!$D$32</c:f>
+                <c:f>'Latency - Average'!$D$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -7128,12 +7164,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latency - Average'!$D$31</c:f>
+              <c:f>'Latency - Average'!$D$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.6173333333333333</c:v>
+                  <c:v>3.6059999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7154,7 +7190,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Block-lattice</c:v>
+                  <c:v>BL (Original)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7248,7 +7284,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Latency - Average'!$D$53:$H$53</c:f>
+                <c:f>'Latency - Average'!$D$54:$H$54</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -7272,7 +7308,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Latency - Average'!$D$53:$H$53</c:f>
+                <c:f>'Latency - Average'!$D$54:$H$54</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -7333,24 +7369,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latency - Average'!$D$52:$H$52</c:f>
+              <c:f>'Latency - Average'!$D$53:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>63.833333333333336</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.666666666666664</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.633333333333326</c:v>
+                  <c:v>65.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.16666666666666</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>298.59999999999997</c:v>
+                  <c:v>279.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7906,7 +7942,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Latency - Average'!$V$11</c:f>
+              <c:f>'Latency - Average'!$V$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8022,10 +8058,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latency - Average'!$X$11:$AA$11</c:f>
+              <c:f>'Latency - Average'!$X$10:$AB$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.6619999999999999</c:v>
                 </c:pt>
@@ -8044,11 +8080,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Latency - Average'!$V$10</c:f>
+              <c:f>'Latency - Average'!$V$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Block-lattice</c:v>
+                  <c:v>Block-la (Original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8160,7 +8196,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latency - Average'!$X$13:$AB$13</c:f>
+              <c:f>'Latency - Average'!$X$11:$AB$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8686,7 +8722,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Latency - Average'!$N$16:$R$16</c:f>
+                <c:f>'Latency - Average'!$N$17:$R$17</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -8710,7 +8746,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Latency - Average'!$N$16:$R$16</c:f>
+                <c:f>'Latency - Average'!$N$17:$R$17</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -8771,24 +8807,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latency - Average'!$N$15:$R$15</c:f>
+              <c:f>'Latency - Average'!$N$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.6111428571428572</c:v>
+                  <c:v>5.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.765714285714286</c:v>
+                  <c:v>4.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0842857142857136</c:v>
+                  <c:v>6.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9271428571428562</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.612857142857141</c:v>
+                  <c:v>22.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8817,7 +8853,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8903,7 +8939,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Latency - Average'!$N$44</c:f>
+                <c:f>'Latency - Average'!$N$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -8915,7 +8951,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Latency - Average'!$N$44</c:f>
+                <c:f>'Latency - Average'!$N$45</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -8964,12 +9000,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latency - Average'!$N$43</c:f>
+              <c:f>'Latency - Average'!$N$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.6044285714285715</c:v>
+                  <c:v>4.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8990,7 +9026,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Block-lattice</c:v>
+                  <c:v>BL (Original)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9084,7 +9120,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Latency - Average'!$N$74:$R$74</c:f>
+                <c:f>'Latency - Average'!$N$75:$R$75</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -9108,7 +9144,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Latency - Average'!$N$74:$R$74</c:f>
+                <c:f>'Latency - Average'!$N$75:$R$75</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -9169,24 +9205,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Latency - Average'!$N$73:$R$73</c:f>
+              <c:f>'Latency - Average'!$N$74:$R$74</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>56.98571428571428</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.757142857142867</c:v>
+                  <c:v>42.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.085714285714289</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134.54285714285714</c:v>
+                  <c:v>132.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188.15714285714284</c:v>
+                  <c:v>150.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20791,16 +20827,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>329594</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4234</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>363461</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>626534</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294795</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>74660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20868,16 +20904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>627213</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>13752</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57902</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>79442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>156791</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>141110</xdr:rowOff>
+      <xdr:colOff>419549</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9731</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21053,15 +21089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>118812</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
+      <xdr:colOff>380376</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>607391</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>182629</xdr:rowOff>
+      <xdr:colOff>868955</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21076,8 +21112,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="20659682" y="12506739"/>
-          <a:ext cx="1022347" cy="3744151"/>
+          <a:off x="21069831" y="5291955"/>
+          <a:ext cx="1100488" cy="3785451"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -21996,13 +22032,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DA798-74D2-DF47-B94E-DCEC5261F551}">
-  <dimension ref="B2:Z41"/>
+  <dimension ref="B2:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="66" workbookViewId="0">
-      <selection activeCell="Y40" sqref="Y40"/>
+    <sheetView topLeftCell="A24" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -22010,27 +22046,27 @@
     <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26">
       <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="127" t="s">
+    <row r="3" spans="2:26">
+      <c r="B3" s="125" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="127"/>
+    <row r="4" spans="2:26">
+      <c r="B4" s="125"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="127"/>
+    <row r="5" spans="2:26" ht="17" thickBot="1">
+      <c r="B5" s="125"/>
       <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
@@ -22040,17 +22076,11 @@
       <c r="E5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="V5" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26">
       <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
@@ -22063,29 +22093,15 @@
       <c r="E6" s="36">
         <v>397</v>
       </c>
-      <c r="J6" s="125" t="s">
+      <c r="V6" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="P6" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="V6" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6" s="76"/>
+      <c r="W6" s="75"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:26">
       <c r="B7" s="25" t="s">
         <v>2</v>
       </c>
@@ -22098,23 +22114,13 @@
       <c r="E7" s="36">
         <v>74</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="76"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="75"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
     </row>
-    <row r="8" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" ht="17" thickBot="1">
       <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
@@ -22127,34 +22133,15 @@
       <c r="E8" s="36">
         <v>9099</v>
       </c>
-      <c r="J8" s="126"/>
-      <c r="K8" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="126"/>
-      <c r="W8" s="76" t="s">
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="75" t="s">
         <v>46</v>
       </c>
       <c r="X8" s="23" t="s">
@@ -22167,7 +22154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -22180,40 +22167,19 @@
       <c r="E9" s="36">
         <v>9558</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="92">
-        <v>1</v>
-      </c>
-      <c r="L9" s="34">
-        <v>72</v>
-      </c>
-      <c r="M9" s="34">
-        <v>78</v>
-      </c>
-      <c r="N9" s="81">
-        <v>74</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="92">
-        <v>1</v>
-      </c>
-      <c r="R9" s="34">
-        <v>456</v>
-      </c>
-      <c r="S9" s="34">
-        <v>418</v>
-      </c>
-      <c r="T9" s="81">
-        <v>405</v>
-      </c>
+      <c r="I9" s="155"/>
+      <c r="J9" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="158"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="155"/>
       <c r="V9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="92">
+      <c r="W9" s="91">
         <v>1</v>
       </c>
       <c r="X9" s="34">
@@ -22222,39 +22188,20 @@
       <c r="Y9" s="34">
         <v>8488</v>
       </c>
-      <c r="Z9" s="81">
+      <c r="Z9" s="80">
         <v>8954</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="J10" s="20"/>
-      <c r="K10" s="93">
-        <v>2</v>
-      </c>
-      <c r="L10" s="36">
-        <v>65</v>
-      </c>
-      <c r="M10" s="36">
-        <v>80</v>
-      </c>
-      <c r="N10" s="37">
-        <v>72</v>
-      </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="93">
-        <v>2</v>
-      </c>
-      <c r="R10" s="36">
-        <v>455</v>
-      </c>
-      <c r="S10" s="36">
-        <v>440</v>
-      </c>
-      <c r="T10" s="37">
-        <v>396</v>
-      </c>
+    <row r="10" spans="2:26">
+      <c r="I10" s="155"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="155"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="93">
+      <c r="W10" s="92">
         <v>2</v>
       </c>
       <c r="X10" s="36">
@@ -22267,35 +22214,24 @@
         <v>8839</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="J11" s="20"/>
-      <c r="K11" s="93">
-        <v>3</v>
-      </c>
-      <c r="L11" s="36">
-        <v>80</v>
-      </c>
-      <c r="M11" s="36">
-        <v>73</v>
-      </c>
-      <c r="N11" s="37">
-        <v>76</v>
-      </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="93">
-        <v>3</v>
-      </c>
-      <c r="R11" s="36">
-        <v>453</v>
-      </c>
-      <c r="S11" s="36">
-        <v>440</v>
-      </c>
-      <c r="T11" s="37">
-        <v>403</v>
-      </c>
+    <row r="11" spans="2:26" ht="17" thickBot="1">
+      <c r="I11" s="155"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="159" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="155"/>
       <c r="V11" s="20"/>
-      <c r="W11" s="93">
+      <c r="W11" s="92">
         <v>3</v>
       </c>
       <c r="X11" s="36">
@@ -22308,35 +22244,26 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="J12" s="20"/>
-      <c r="K12" s="93">
-        <v>4</v>
-      </c>
-      <c r="L12" s="36">
-        <v>73</v>
-      </c>
-      <c r="M12" s="36">
-        <v>68</v>
-      </c>
-      <c r="N12" s="37">
-        <v>60</v>
-      </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="93">
-        <v>4</v>
-      </c>
-      <c r="R12" s="36">
-        <v>450</v>
-      </c>
-      <c r="S12" s="36">
-        <v>435</v>
-      </c>
-      <c r="T12" s="37">
-        <v>394</v>
-      </c>
+    <row r="12" spans="2:26">
+      <c r="I12" s="155"/>
+      <c r="J12" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="147">
+        <v>1</v>
+      </c>
+      <c r="L12" s="148">
+        <v>456</v>
+      </c>
+      <c r="M12" s="148">
+        <v>418</v>
+      </c>
+      <c r="N12" s="149">
+        <v>405</v>
+      </c>
+      <c r="O12" s="155"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="93">
+      <c r="W12" s="92">
         <v>4</v>
       </c>
       <c r="X12" s="36">
@@ -22349,35 +22276,24 @@
         <v>8946</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="21"/>
-      <c r="K13" s="94">
-        <v>5</v>
-      </c>
-      <c r="L13" s="40">
-        <v>82</v>
-      </c>
-      <c r="M13" s="40">
-        <v>73</v>
-      </c>
-      <c r="N13" s="41">
-        <v>82</v>
-      </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="94">
-        <v>5</v>
-      </c>
-      <c r="R13" s="40">
-        <v>457</v>
-      </c>
-      <c r="S13" s="40">
-        <v>437</v>
-      </c>
-      <c r="T13" s="41">
-        <v>394</v>
-      </c>
+    <row r="13" spans="2:26" ht="17" thickBot="1">
+      <c r="I13" s="155"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="150">
+        <v>2</v>
+      </c>
+      <c r="L13" s="76">
+        <v>455</v>
+      </c>
+      <c r="M13" s="76">
+        <v>440</v>
+      </c>
+      <c r="N13" s="151">
+        <v>396</v>
+      </c>
+      <c r="O13" s="155"/>
       <c r="V13" s="21"/>
-      <c r="W13" s="94">
+      <c r="W13" s="93">
         <v>5</v>
       </c>
       <c r="X13" s="40">
@@ -22390,129 +22306,189 @@
         <v>8627</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="104">
-        <f>AVERAGE(L9:L13)</f>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="M14" s="104">
-        <f t="shared" ref="M14:N14" si="0">AVERAGE(M9:M13)</f>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="N14" s="104">
-        <f t="shared" si="0"/>
-        <v>72.8</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14" s="104">
-        <f>AVERAGE(R9:R13)</f>
-        <v>454.2</v>
-      </c>
-      <c r="S14" s="104">
-        <f t="shared" ref="S14" si="1">AVERAGE(S9:S13)</f>
-        <v>434</v>
-      </c>
-      <c r="T14" s="104">
-        <f t="shared" ref="T14" si="2">AVERAGE(T9:T13)</f>
-        <v>398.4</v>
-      </c>
+    <row r="14" spans="2:26">
+      <c r="I14" s="155"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="150">
+        <v>3</v>
+      </c>
+      <c r="L14" s="76">
+        <v>453</v>
+      </c>
+      <c r="M14" s="76">
+        <v>440</v>
+      </c>
+      <c r="N14" s="151">
+        <v>403</v>
+      </c>
+      <c r="O14" s="155"/>
       <c r="W14" t="s">
         <v>41</v>
       </c>
-      <c r="X14" s="104">
+      <c r="X14" s="102">
         <f>AVERAGE(X9:X13)</f>
         <v>8128.8</v>
       </c>
-      <c r="Y14" s="104">
-        <f t="shared" ref="Y14" si="3">AVERAGE(Y9:Y13)</f>
+      <c r="Y14" s="102">
+        <f t="shared" ref="Y14" si="0">AVERAGE(Y9:Y13)</f>
         <v>8624.7999999999993</v>
       </c>
-      <c r="Z14" s="104">
-        <f t="shared" ref="Z14" si="4">AVERAGE(Z9:Z13)</f>
+      <c r="Z14" s="102">
+        <f t="shared" ref="Z14" si="1">AVERAGE(Z9:Z13)</f>
         <v>8798.7999999999993</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="105">
-        <f>STDEV(L9:L13)</f>
-        <v>6.8044103344816005</v>
-      </c>
-      <c r="M15" s="105">
-        <f t="shared" ref="M15:N15" si="5">STDEV(M9:M13)</f>
-        <v>4.7222875812470377</v>
-      </c>
-      <c r="N15" s="105">
-        <f t="shared" si="5"/>
-        <v>8.0746516952745395</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" s="105">
-        <f>STDEV(R9:R13)</f>
-        <v>2.7748873851023217</v>
-      </c>
-      <c r="S15" s="105">
-        <f t="shared" ref="S15:T15" si="6">STDEV(S9:S13)</f>
-        <v>9.1923881554251174</v>
-      </c>
-      <c r="T15" s="105">
-        <f t="shared" si="6"/>
-        <v>5.2249401910452526</v>
-      </c>
+    <row r="15" spans="2:26">
+      <c r="I15" s="155"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="150">
+        <v>4</v>
+      </c>
+      <c r="L15" s="76">
+        <v>450</v>
+      </c>
+      <c r="M15" s="76">
+        <v>435</v>
+      </c>
+      <c r="N15" s="151">
+        <v>394</v>
+      </c>
+      <c r="O15" s="155"/>
       <c r="W15" t="s">
         <v>48</v>
       </c>
-      <c r="X15" s="105">
+      <c r="X15" s="103">
         <f>STDEV(X9:X13)</f>
         <v>181.24899999724136</v>
       </c>
-      <c r="Y15" s="105">
-        <f t="shared" ref="Y15:Z15" si="7">STDEV(Y9:Y13)</f>
+      <c r="Y15" s="103">
+        <f t="shared" ref="Y15:Z15" si="2">STDEV(Y9:Y13)</f>
         <v>208.43632121105955</v>
       </c>
-      <c r="Z15" s="105">
-        <f t="shared" si="7"/>
+      <c r="Z15" s="103">
+        <f t="shared" si="2"/>
         <v>162.83335039235666</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
+    <row r="16" spans="2:26" ht="17" thickBot="1">
+      <c r="I16" s="155"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="152">
+        <v>5</v>
+      </c>
+      <c r="L16" s="153">
+        <v>457</v>
+      </c>
+      <c r="M16" s="153">
+        <v>437</v>
+      </c>
+      <c r="N16" s="154">
+        <v>394</v>
+      </c>
+      <c r="O16" s="155"/>
+      <c r="W16" t="s">
+        <v>68</v>
+      </c>
+      <c r="X16" s="117">
+        <f>MEDIAN(X9:X13)</f>
+        <v>8103</v>
+      </c>
+      <c r="Y16" s="117">
+        <f t="shared" ref="Y16:Z16" si="3">MEDIAN(Y9:Y13)</f>
+        <v>8566</v>
+      </c>
+      <c r="Z16" s="117">
+        <f t="shared" si="3"/>
+        <v>8839</v>
+      </c>
     </row>
-    <row r="18" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:26">
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="163">
+        <f>AVERAGE(L12:L16)</f>
+        <v>454.2</v>
+      </c>
+      <c r="M17" s="163">
+        <f>AVERAGE(M12:M16)</f>
+        <v>434</v>
+      </c>
+      <c r="N17" s="163">
+        <f>AVERAGE(N12:N16)</f>
+        <v>398.4</v>
+      </c>
+      <c r="O17" s="155"/>
+    </row>
+    <row r="18" spans="9:26" ht="17" thickBot="1">
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="163">
+        <f>MEDIAN(L12:L16)</f>
+        <v>455</v>
+      </c>
+      <c r="M18" s="163">
+        <f>MEDIAN(M12:M16)</f>
+        <v>437</v>
+      </c>
+      <c r="N18" s="163">
+        <f>MEDIAN(N12:N16)</f>
+        <v>396</v>
+      </c>
+      <c r="O18" s="155"/>
       <c r="V18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="V19" s="125" t="s">
+    <row r="19" spans="9:26">
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="164">
+        <f>STDEV(L12:L16)</f>
+        <v>2.7748873851023217</v>
+      </c>
+      <c r="M19" s="164">
+        <f>STDEV(M12:M16)</f>
+        <v>9.1923881554251174</v>
+      </c>
+      <c r="N19" s="164">
+        <f>STDEV(N12:N16)</f>
+        <v>5.2249401910452526</v>
+      </c>
+      <c r="O19" s="155"/>
+      <c r="V19" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="W19" s="76"/>
+      <c r="W19" s="75"/>
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
     </row>
-    <row r="20" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="V20" s="126"/>
-      <c r="W20" s="76"/>
+    <row r="20" spans="9:26">
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="75"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
     </row>
-    <row r="21" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="V21" s="126"/>
-      <c r="W21" s="76" t="s">
+    <row r="21" spans="9:26" ht="17" thickBot="1">
+      <c r="V21" s="124"/>
+      <c r="W21" s="75" t="s">
         <v>46</v>
       </c>
       <c r="X21" s="23" t="s">
@@ -22525,11 +22501,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:26" ht="17" thickBot="1">
+      <c r="J22" s="16"/>
       <c r="V22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" s="92">
+        <v>59</v>
+      </c>
+      <c r="W22" s="91">
         <v>1</v>
       </c>
       <c r="X22" s="34">
@@ -22538,13 +22515,20 @@
       <c r="Y22" s="34">
         <v>5781</v>
       </c>
-      <c r="Z22" s="81">
+      <c r="Z22" s="80">
         <v>5524</v>
       </c>
     </row>
-    <row r="23" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:26">
+      <c r="J23" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="75"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
       <c r="V23" s="20"/>
-      <c r="W23" s="93">
+      <c r="W23" s="92">
         <v>2</v>
       </c>
       <c r="X23" s="36">
@@ -22557,9 +22541,14 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="24" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:26">
+      <c r="J24" s="124"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
       <c r="V24" s="20"/>
-      <c r="W24" s="93">
+      <c r="W24" s="92">
         <v>3</v>
       </c>
       <c r="X24" s="36">
@@ -22572,9 +22561,22 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="25" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:26" ht="17" thickBot="1">
+      <c r="J25" s="124"/>
+      <c r="K25" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="V25" s="20"/>
-      <c r="W25" s="93">
+      <c r="W25" s="92">
         <v>4</v>
       </c>
       <c r="X25" s="36">
@@ -22587,9 +22589,24 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="26" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:26" ht="17" thickBot="1">
+      <c r="J26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="91">
+        <v>1</v>
+      </c>
+      <c r="L26" s="34">
+        <v>72</v>
+      </c>
+      <c r="M26" s="34">
+        <v>78</v>
+      </c>
+      <c r="N26" s="80">
+        <v>74</v>
+      </c>
       <c r="V26" s="21"/>
-      <c r="W26" s="94">
+      <c r="W26" s="93">
         <v>5</v>
       </c>
       <c r="X26" s="40">
@@ -22602,41 +22619,127 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="27" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:26">
+      <c r="J27" s="20"/>
+      <c r="K27" s="92">
+        <v>2</v>
+      </c>
+      <c r="L27" s="36">
+        <v>65</v>
+      </c>
+      <c r="M27" s="36">
+        <v>80</v>
+      </c>
+      <c r="N27" s="37">
+        <v>72</v>
+      </c>
       <c r="W27" t="s">
         <v>41</v>
       </c>
-      <c r="X27" s="104">
+      <c r="X27" s="102">
         <f>AVERAGE(X22:X26)</f>
         <v>5995.6</v>
       </c>
-      <c r="Y27" s="104">
-        <f t="shared" ref="Y27:Z27" si="8">AVERAGE(Y22:Y26)</f>
+      <c r="Y27" s="102">
+        <f t="shared" ref="Y27:Z27" si="4">AVERAGE(Y22:Y26)</f>
         <v>5793.6</v>
       </c>
-      <c r="Z27" s="104">
-        <f t="shared" si="8"/>
+      <c r="Z27" s="102">
+        <f t="shared" si="4"/>
         <v>5683.2</v>
       </c>
     </row>
-    <row r="28" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:26">
+      <c r="J28" s="20"/>
+      <c r="K28" s="92">
+        <v>3</v>
+      </c>
+      <c r="L28" s="36">
+        <v>80</v>
+      </c>
+      <c r="M28" s="36">
+        <v>73</v>
+      </c>
+      <c r="N28" s="37">
+        <v>76</v>
+      </c>
       <c r="W28" t="s">
         <v>48</v>
       </c>
-      <c r="X28" s="105">
+      <c r="X28" s="103">
         <f>STDEV(X22:X26)</f>
         <v>246.69677744145747</v>
       </c>
-      <c r="Y28" s="105">
-        <f t="shared" ref="Y28:Z28" si="9">STDEV(Y22:Y26)</f>
+      <c r="Y28" s="103">
+        <f t="shared" ref="Y28:Z28" si="5">STDEV(Y22:Y26)</f>
         <v>216.47240008832534</v>
       </c>
-      <c r="Z28" s="105">
-        <f t="shared" si="9"/>
+      <c r="Z28" s="103">
+        <f t="shared" si="5"/>
         <v>167.52522198164669</v>
       </c>
     </row>
-    <row r="31" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:26">
+      <c r="J29" s="20"/>
+      <c r="K29" s="92">
+        <v>4</v>
+      </c>
+      <c r="L29" s="36">
+        <v>73</v>
+      </c>
+      <c r="M29" s="36">
+        <v>68</v>
+      </c>
+      <c r="N29" s="37">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>68</v>
+      </c>
+      <c r="X29" s="102">
+        <f>MEDIAN(X22:X26)</f>
+        <v>5901</v>
+      </c>
+      <c r="Y29" s="102">
+        <f t="shared" ref="Y29:Z29" si="6">MEDIAN(Y22:Y26)</f>
+        <v>5781</v>
+      </c>
+      <c r="Z29" s="102">
+        <f t="shared" si="6"/>
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="30" spans="9:26" ht="17" thickBot="1">
+      <c r="J30" s="21"/>
+      <c r="K30" s="93">
+        <v>5</v>
+      </c>
+      <c r="L30" s="40">
+        <v>82</v>
+      </c>
+      <c r="M30" s="40">
+        <v>73</v>
+      </c>
+      <c r="N30" s="41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="9:26">
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="102">
+        <f>AVERAGE(L26:L30)</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="M31" s="102">
+        <f>AVERAGE(M26:M30)</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="N31" s="102">
+        <f>AVERAGE(N26:N30)</f>
+        <v>72.8</v>
+      </c>
       <c r="S31">
         <f>Y27/X27</f>
         <v>0.96630862632597236</v>
@@ -22645,11 +22748,23 @@
         <f>Z27/Y27</f>
         <v>0.98094449047224519</v>
       </c>
-      <c r="V31" s="16" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="32" spans="19:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:26">
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="102">
+        <f>MEDIAN(L26:L30)</f>
+        <v>73</v>
+      </c>
+      <c r="M32" s="102">
+        <f>MEDIAN(M26:M30)</f>
+        <v>73</v>
+      </c>
+      <c r="N32" s="102">
+        <f>MEDIAN(N26:N30)</f>
+        <v>74</v>
+      </c>
       <c r="S32">
         <f>434/454</f>
         <v>0.95594713656387664</v>
@@ -22658,161 +22773,200 @@
         <f>398/434</f>
         <v>0.91705069124423966</v>
       </c>
-      <c r="V32" s="125" t="s">
+    </row>
+    <row r="33" spans="10:20">
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="103">
+        <f>STDEV(L26:L30)</f>
+        <v>6.8044103344816005</v>
+      </c>
+      <c r="M33" s="103">
+        <f>STDEV(M26:M30)</f>
+        <v>4.7222875812470377</v>
+      </c>
+      <c r="N33" s="103">
+        <f>STDEV(N26:N30)</f>
+        <v>8.0746516952745395</v>
+      </c>
+      <c r="S33">
+        <f>M45/L45</f>
+        <v>0.66852203523017484</v>
+      </c>
+      <c r="T33">
+        <f>N45/M45</f>
+        <v>0.947350377118229</v>
+      </c>
+    </row>
+    <row r="36" spans="10:20" ht="17" thickBot="1">
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="10:20">
+      <c r="J37" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="W32" s="76"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
     </row>
-    <row r="33" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="S33">
-        <f>Y40/X40</f>
-        <v>0.66852203523017484</v>
-      </c>
-      <c r="T33">
-        <f>Z40/Y40</f>
-        <v>0.947350377118229</v>
-      </c>
-      <c r="V33" s="126"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
+    <row r="38" spans="10:20">
+      <c r="J38" s="124"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
     </row>
-    <row r="34" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="V34" s="126"/>
-      <c r="W34" s="76" t="s">
+    <row r="39" spans="10:20" ht="17" thickBot="1">
+      <c r="J39" s="124"/>
+      <c r="K39" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="X34" s="23" t="s">
+      <c r="L39" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Y34" s="23" t="s">
+      <c r="M39" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Z34" s="23" t="s">
+      <c r="N39" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="V35" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="W35" s="92">
+    <row r="40" spans="10:20">
+      <c r="J40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="91">
         <v>1</v>
       </c>
-      <c r="X35" s="34">
+      <c r="L40" s="34">
         <v>6197</v>
       </c>
-      <c r="Y35" s="34">
+      <c r="M40" s="34">
         <v>4216</v>
       </c>
-      <c r="Z35" s="81">
+      <c r="N40" s="80">
         <v>3933</v>
       </c>
     </row>
-    <row r="36" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="V36" s="20"/>
-      <c r="W36" s="93">
+    <row r="41" spans="10:20">
+      <c r="J41" s="20"/>
+      <c r="K41" s="92">
         <v>2</v>
       </c>
-      <c r="X36" s="36">
+      <c r="L41" s="36">
         <v>6061</v>
       </c>
-      <c r="Y36" s="36">
+      <c r="M41" s="36">
         <v>4109</v>
       </c>
-      <c r="Z36" s="37">
+      <c r="N41" s="37">
         <v>3920</v>
       </c>
     </row>
-    <row r="37" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="V37" s="20"/>
-      <c r="W37" s="93">
+    <row r="42" spans="10:20">
+      <c r="J42" s="20"/>
+      <c r="K42" s="92">
         <v>3</v>
       </c>
-      <c r="X37" s="36">
+      <c r="L42" s="36">
         <v>6208</v>
       </c>
-      <c r="Y37" s="36">
+      <c r="M42" s="36">
         <v>3603</v>
       </c>
-      <c r="Z37" s="37">
+      <c r="N42" s="37">
         <v>3788</v>
       </c>
     </row>
-    <row r="38" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="V38" s="20"/>
-      <c r="W38" s="93">
+    <row r="43" spans="10:20">
+      <c r="J43" s="20"/>
+      <c r="K43" s="92">
         <v>4</v>
       </c>
-      <c r="X38" s="36">
+      <c r="L43" s="36">
         <v>6071</v>
       </c>
-      <c r="Y38" s="36">
+      <c r="M43" s="36">
         <v>4020</v>
       </c>
-      <c r="Z38" s="37">
+      <c r="N43" s="37">
         <v>3810</v>
       </c>
     </row>
-    <row r="39" spans="19:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="V39" s="21"/>
-      <c r="W39" s="94">
+    <row r="44" spans="10:20" ht="17" thickBot="1">
+      <c r="J44" s="21"/>
+      <c r="K44" s="93">
         <v>5</v>
       </c>
-      <c r="X39" s="40">
+      <c r="L44" s="40">
         <v>6005</v>
       </c>
-      <c r="Y39" s="40">
+      <c r="M44" s="40">
         <v>4470</v>
       </c>
-      <c r="Z39" s="41">
+      <c r="N44" s="41">
         <v>3892</v>
       </c>
     </row>
-    <row r="40" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="W40" t="s">
+    <row r="45" spans="10:20">
+      <c r="K45" t="s">
         <v>41</v>
       </c>
-      <c r="X40" s="104">
-        <f>AVERAGE(X35:X39)</f>
+      <c r="L45" s="102">
+        <f>AVERAGE(L40:L44)</f>
         <v>6108.4</v>
       </c>
-      <c r="Y40" s="104">
-        <f t="shared" ref="Y40:Z40" si="10">AVERAGE(Y35:Y39)</f>
+      <c r="M45" s="102">
+        <f t="shared" ref="M45:N45" si="7">AVERAGE(M40:M44)</f>
         <v>4083.6</v>
       </c>
-      <c r="Z40" s="104">
-        <f t="shared" si="10"/>
+      <c r="N45" s="102">
+        <f t="shared" si="7"/>
         <v>3868.6</v>
       </c>
     </row>
-    <row r="41" spans="19:26" x14ac:dyDescent="0.2">
-      <c r="W41" t="s">
+    <row r="46" spans="10:20">
+      <c r="K46" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" s="102">
+        <f>MEDIAN(L40:L44)</f>
+        <v>6071</v>
+      </c>
+      <c r="M46" s="102">
+        <f>MEDIAN(M40:M44)</f>
+        <v>4109</v>
+      </c>
+      <c r="N46" s="102">
+        <f>MEDIAN(N40:N44)</f>
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="47" spans="10:20">
+      <c r="K47" t="s">
         <v>48</v>
       </c>
-      <c r="X41" s="105">
-        <f>STDEV(X35:X39)</f>
+      <c r="L47" s="103">
+        <f>STDEV(L40:L44)</f>
         <v>89.592410392845224</v>
       </c>
-      <c r="Y41" s="105">
-        <f t="shared" ref="Y41:Z41" si="11">STDEV(Y35:Y39)</f>
+      <c r="M47" s="103">
+        <f>STDEV(M40:M44)</f>
         <v>317.21491137712928</v>
       </c>
-      <c r="Z41" s="105">
-        <f t="shared" si="11"/>
+      <c r="N47" s="103">
+        <f>STDEV(N40:N44)</f>
         <v>65.702359166166929</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="J37:J39"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J9:J11"/>
     <mergeCell ref="V6:V8"/>
     <mergeCell ref="V19:V21"/>
   </mergeCells>
@@ -22825,14 +22979,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6207EF-BB85-DB42-AA3B-E98535938494}">
   <dimension ref="B2:AB96"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X114" sqref="X114"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63:R75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
@@ -22840,21 +22994,21 @@
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="3" style="26" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.1640625" customWidth="1"/>
     <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.5" style="26" customWidth="1"/>
     <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.1640625" customWidth="1"/>
     <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:28">
       <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
@@ -22880,7 +23034,7 @@
       </c>
       <c r="W2" s="16"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="17" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
@@ -22890,63 +23044,63 @@
       </c>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
+    <row r="5" spans="2:28" ht="17" thickBot="1">
+      <c r="B5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="54"/>
       <c r="J5" s="27"/>
-      <c r="L5" s="125" t="s">
+      <c r="L5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="130"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="127"/>
       <c r="V5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="126"/>
-      <c r="C6" s="91"/>
+    <row r="6" spans="2:28">
+      <c r="B6" s="124"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="133"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="129"/>
       <c r="I6" s="54"/>
       <c r="J6" s="27"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="91"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="90"/>
       <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="133"/>
-      <c r="V6" s="134" t="s">
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="129"/>
+      <c r="V6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="90"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="130"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="127"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="126"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="96" t="s">
+    <row r="7" spans="2:28" ht="17" thickBot="1">
+      <c r="B7" s="124"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="95" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="67" t="s">
@@ -22958,58 +23112,58 @@
       <c r="G7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="94" t="s">
         <v>53</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="91" t="s">
+      <c r="L7" s="124"/>
+      <c r="M7" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="96" t="s">
-        <v>23</v>
+      <c r="N7" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="135"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="132"/>
-      <c r="Y7" s="132"/>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="133"/>
+        <v>50</v>
+      </c>
+      <c r="P7" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="133"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="129"/>
     </row>
-    <row r="8" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" ht="17" thickBot="1">
       <c r="B8" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="96">
         <v>14.417</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="81">
         <v>6.63</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="81">
         <v>7.66</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="81">
         <v>8.4600000000000009</v>
       </c>
-      <c r="H8" s="101">
+      <c r="H8" s="99">
         <v>9.31</v>
       </c>
       <c r="I8" s="45"/>
@@ -23020,23 +23174,23 @@
       <c r="M8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="97">
+      <c r="N8" s="96">
         <v>6.3810000000000002</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="81">
         <v>4.1100000000000003</v>
       </c>
-      <c r="P8" s="82">
+      <c r="P8" s="81">
         <v>4.46</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="81">
         <v>8.9</v>
       </c>
-      <c r="R8" s="101">
+      <c r="R8" s="99">
         <v>13.65</v>
       </c>
-      <c r="V8" s="135"/>
-      <c r="W8" s="108"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="106"/>
       <c r="X8" s="22" t="s">
         <v>49</v>
       </c>
@@ -23049,11 +23203,11 @@
       <c r="AA8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="95" t="s">
+      <c r="AB8" s="94" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28">
       <c r="B9" s="20"/>
       <c r="C9" s="8" t="s">
         <v>34</v>
@@ -23070,7 +23224,7 @@
       <c r="G9" s="45">
         <v>9.36</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="100">
         <v>16.07</v>
       </c>
       <c r="I9" s="45"/>
@@ -23091,7 +23245,7 @@
       <c r="Q9" s="45">
         <v>8.31</v>
       </c>
-      <c r="R9" s="102">
+      <c r="R9" s="100">
         <v>21.6</v>
       </c>
       <c r="V9" s="68" t="s">
@@ -23112,11 +23266,11 @@
       <c r="AA9" s="34">
         <v>13.364000000000001</v>
       </c>
-      <c r="AB9" s="101">
+      <c r="AB9" s="99">
         <v>11.8</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="17" thickBot="1">
       <c r="B10" s="21"/>
       <c r="C10" s="9" t="s">
         <v>35</v>
@@ -23133,7 +23287,7 @@
       <c r="G10" s="47">
         <v>9.26</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="101">
         <v>18.91</v>
       </c>
       <c r="I10" s="45"/>
@@ -23154,34 +23308,26 @@
       <c r="Q10" s="45">
         <v>8.3699999999999992</v>
       </c>
-      <c r="R10" s="102">
+      <c r="R10" s="100">
         <v>21.25</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="W10" s="25" t="s">
         <v>33</v>
       </c>
       <c r="X10" s="36">
-        <v>38.976999999999997</v>
-      </c>
-      <c r="Y10" s="36">
-        <v>32.965000000000003</v>
-      </c>
-      <c r="Z10" s="55">
-        <v>21.265999999999998</v>
-      </c>
-      <c r="AA10" s="36">
-        <v>47.673000000000002</v>
-      </c>
-      <c r="AB10" s="102">
-        <v>85.634</v>
-      </c>
+        <v>7.6619999999999999</v>
+      </c>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="100"/>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:28" ht="17" thickBot="1">
       <c r="B11" s="25"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="74" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="45">
@@ -23222,47 +23368,55 @@
       <c r="Q11" s="45">
         <v>9.5</v>
       </c>
-      <c r="R11" s="102">
+      <c r="R11" s="100">
         <v>22.85</v>
       </c>
-      <c r="V11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="W11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="36">
-        <v>7.6619999999999999</v>
-      </c>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="102"/>
+      <c r="V11" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="X11" s="114">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="114">
+        <v>35.9</v>
+      </c>
+      <c r="Z11" s="114">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AA11" s="114">
+        <v>109.9</v>
+      </c>
+      <c r="AB11" s="101">
+        <v>242.5</v>
+      </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28">
       <c r="B12" s="25"/>
-      <c r="C12" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="45">
-        <f>STDEV(D8:D10)</f>
-        <v>1.2436274897787249</v>
-      </c>
-      <c r="E12" s="45">
-        <f t="shared" ref="E12:H12" si="1">STDEV(E8:E10)</f>
-        <v>1.3548554658462038</v>
-      </c>
-      <c r="F12" s="45">
+      <c r="C12" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="98">
+        <f>MEDIAN(D8:D10)</f>
+        <v>14.417</v>
+      </c>
+      <c r="E12" s="98">
+        <f t="shared" ref="E12:H12" si="1">MEDIAN(E8:E10)</f>
+        <v>4.75</v>
+      </c>
+      <c r="F12" s="98">
         <f t="shared" si="1"/>
-        <v>2.0165068807222051</v>
-      </c>
-      <c r="G12" s="45">
+        <v>7.66</v>
+      </c>
+      <c r="G12" s="98">
         <f t="shared" si="1"/>
-        <v>0.49328828623162402</v>
-      </c>
-      <c r="H12" s="45">
+        <v>9.26</v>
+      </c>
+      <c r="H12" s="98">
         <f t="shared" si="1"/>
-        <v>4.9315852758857606</v>
+        <v>16.07</v>
       </c>
       <c r="I12" s="45"/>
       <c r="J12" s="66"/>
@@ -23282,39 +23436,35 @@
       <c r="Q12" s="45">
         <v>9.65</v>
       </c>
-      <c r="R12" s="102">
+      <c r="R12" s="100">
         <v>24.09</v>
       </c>
-      <c r="V12" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="W12" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="X12" s="36">
-        <v>17.378</v>
-      </c>
-      <c r="Y12" s="89">
-        <v>26.495626999999999</v>
-      </c>
-      <c r="Z12" s="89">
-        <v>61.569000000000003</v>
-      </c>
-      <c r="AA12" s="89">
-        <v>83.432000000000002</v>
-      </c>
-      <c r="AB12" s="116">
-        <v>137.136</v>
-      </c>
     </row>
-    <row r="13" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28">
       <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="C13" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="45">
+        <f>STDEV(D8:D10)</f>
+        <v>1.2436274897787249</v>
+      </c>
+      <c r="E13" s="45">
+        <f>STDEV(E8:E10)</f>
+        <v>1.3548554658462038</v>
+      </c>
+      <c r="F13" s="45">
+        <f>STDEV(F8:F10)</f>
+        <v>2.0165068807222051</v>
+      </c>
+      <c r="G13" s="45">
+        <f>STDEV(G8:G10)</f>
+        <v>0.49328828623162402</v>
+      </c>
+      <c r="H13" s="45">
+        <f>STDEV(H8:H10)</f>
+        <v>4.9315852758857606</v>
+      </c>
       <c r="I13" s="45"/>
       <c r="J13" s="66"/>
       <c r="L13" s="8"/>
@@ -23333,32 +23483,11 @@
       <c r="Q13" s="45">
         <v>11.79</v>
       </c>
-      <c r="R13" s="102">
+      <c r="R13" s="100">
         <v>23.73</v>
       </c>
-      <c r="V13" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="W13" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="X13" s="117">
-        <v>64</v>
-      </c>
-      <c r="Y13" s="117">
-        <v>35.9</v>
-      </c>
-      <c r="Z13" s="117">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="AA13" s="117">
-        <v>109.9</v>
-      </c>
-      <c r="AB13" s="103">
-        <v>242.5</v>
-      </c>
     </row>
-    <row r="14" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" ht="17" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
@@ -23367,127 +23496,192 @@
       <c r="M14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="98">
+      <c r="N14" s="97">
         <v>5.79</v>
       </c>
-      <c r="O14" s="86">
+      <c r="O14" s="85">
         <v>5.5</v>
       </c>
-      <c r="P14" s="87">
+      <c r="P14" s="86">
         <v>6.51</v>
       </c>
       <c r="Q14" s="47">
         <v>5.97</v>
       </c>
-      <c r="R14" s="103">
+      <c r="R14" s="101">
         <v>31.12</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="125" t="s">
+    <row r="15" spans="2:28">
+      <c r="B15" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
-      <c r="M15" s="75" t="s">
+      <c r="C15" s="89"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="M15" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="99">
+      <c r="N15" s="98">
         <f>AVERAGE(N8:N14)</f>
         <v>5.6111428571428572</v>
       </c>
-      <c r="O15" s="99">
+      <c r="O15" s="98">
         <f t="shared" ref="O15" si="2">AVERAGE(O8:O14)</f>
         <v>4.765714285714286</v>
       </c>
-      <c r="P15" s="99">
+      <c r="P15" s="98">
         <f>AVERAGE(P8:P14)</f>
         <v>6.0842857142857136</v>
       </c>
-      <c r="Q15" s="99">
+      <c r="Q15" s="98">
         <f>AVERAGE(Q8:Q14)</f>
         <v>8.9271428571428562</v>
       </c>
-      <c r="R15" s="99">
+      <c r="R15" s="98">
         <f>AVERAGE(R8:R14)</f>
         <v>22.612857142857141</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="126"/>
-      <c r="C16" s="91"/>
+    <row r="16" spans="2:28">
+      <c r="B16" s="124"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="133"/>
-      <c r="M16" s="75" t="s">
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
+      <c r="M16" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="98">
+        <f>MEDIAN(N8:N14)</f>
+        <v>5.79</v>
+      </c>
+      <c r="O16" s="98">
+        <f t="shared" ref="O16:R16" si="3">MEDIAN(O8:O14)</f>
+        <v>4.88</v>
+      </c>
+      <c r="P16" s="98">
+        <f t="shared" si="3"/>
+        <v>6.39</v>
+      </c>
+      <c r="Q16" s="98">
+        <f t="shared" si="3"/>
+        <v>8.9</v>
+      </c>
+      <c r="R16" s="98">
+        <f t="shared" si="3"/>
+        <v>22.85</v>
+      </c>
+      <c r="V16" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="X16" s="36">
+        <v>17.378</v>
+      </c>
+      <c r="Y16" s="88">
+        <v>26.495626999999999</v>
+      </c>
+      <c r="Z16" s="88">
+        <v>61.569000000000003</v>
+      </c>
+      <c r="AA16" s="88">
+        <v>83.432000000000002</v>
+      </c>
+      <c r="AB16" s="113">
+        <v>137.136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="17" thickBot="1">
+      <c r="B17" s="124"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N17" s="98">
         <f>STDEV(N8:N14)</f>
         <v>1.4561131399003591</v>
       </c>
-      <c r="O16" s="99">
-        <f t="shared" ref="O16:R16" si="3">STDEV(O8:O14)</f>
+      <c r="O17" s="98">
+        <f>STDEV(O8:O14)</f>
         <v>0.53996472547927676</v>
       </c>
-      <c r="P16" s="99">
-        <f t="shared" si="3"/>
+      <c r="P17" s="98">
+        <f>STDEV(P8:P14)</f>
         <v>0.80099640329731792</v>
       </c>
-      <c r="Q16" s="99">
-        <f t="shared" si="3"/>
+      <c r="Q17" s="98">
+        <f>STDEV(Q8:Q14)</f>
         <v>1.7551516011037724</v>
       </c>
-      <c r="R16" s="99">
-        <f t="shared" si="3"/>
+      <c r="R17" s="98">
+        <f>STDEV(R8:R14)</f>
         <v>5.1490086886885864</v>
       </c>
+      <c r="V17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" s="36">
+        <v>38.976999999999997</v>
+      </c>
+      <c r="Y17" s="36">
+        <v>32.965000000000003</v>
+      </c>
+      <c r="Z17" s="55">
+        <v>21.265999999999998</v>
+      </c>
+      <c r="AA17" s="36">
+        <v>47.673000000000002</v>
+      </c>
+      <c r="AB17" s="100">
+        <v>85.634</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="126"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="95" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" ht="17" thickBot="1">
       <c r="B18" s="65" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="96">
         <v>25.187999999999999</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="81">
         <v>20.289000000000001</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="81">
         <v>27.094999999999999</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G18" s="81">
         <v>37.091999999999999</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="99">
         <v>75.465999999999994</v>
       </c>
       <c r="L18" s="16" t="s">
@@ -23495,7 +23689,7 @@
       </c>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28">
       <c r="B19" s="20"/>
       <c r="C19" s="8" t="s">
         <v>34</v>
@@ -23512,20 +23706,20 @@
       <c r="G19" s="45">
         <v>46.658000000000001</v>
       </c>
-      <c r="H19" s="102">
+      <c r="H19" s="100">
         <v>86.363</v>
       </c>
-      <c r="L19" s="125" t="s">
+      <c r="L19" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="90"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="130"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="127"/>
     </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" ht="17" thickBot="1">
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
         <v>35</v>
@@ -23542,20 +23736,20 @@
       <c r="G20" s="47">
         <v>38.689</v>
       </c>
-      <c r="H20" s="103">
+      <c r="H20" s="101">
         <v>83.039000000000001</v>
       </c>
-      <c r="L20" s="126"/>
-      <c r="M20" s="91"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="131"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="133"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="129"/>
     </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" ht="17" thickBot="1">
       <c r="B21" s="25"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="45">
@@ -23578,11 +23772,11 @@
         <f>AVERAGE(H18:H20)</f>
         <v>81.62266666666666</v>
       </c>
-      <c r="L21" s="126"/>
-      <c r="M21" s="91" t="s">
+      <c r="L21" s="124"/>
+      <c r="M21" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="96" t="s">
+      <c r="N21" s="95" t="s">
         <v>49</v>
       </c>
       <c r="O21" s="67" t="s">
@@ -23594,13 +23788,13 @@
       <c r="Q21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="95" t="s">
+      <c r="R21" s="94" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28">
       <c r="B22" s="25"/>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="74" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="45">
@@ -23623,29 +23817,29 @@
         <f t="shared" si="5"/>
         <v>5.5848592044324068</v>
       </c>
-      <c r="L22" s="68" t="s">
-        <v>32</v>
+      <c r="L22" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="M22" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="97">
+      <c r="N22" s="96">
         <v>42.615000000000002</v>
       </c>
-      <c r="O22" s="82">
+      <c r="O22" s="81">
         <v>16.533011999999999</v>
       </c>
-      <c r="P22" s="82">
+      <c r="P22" s="81">
         <v>19.641098</v>
       </c>
-      <c r="Q22" s="82">
+      <c r="Q22" s="81">
         <v>42.171048999999996</v>
       </c>
-      <c r="R22" s="101">
+      <c r="R22" s="99">
         <v>78.78</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28">
       <c r="L23" s="8"/>
       <c r="M23" s="25" t="s">
         <v>34</v>
@@ -23662,11 +23856,11 @@
       <c r="Q23" s="45">
         <v>47.249867000000002</v>
       </c>
-      <c r="R23" s="102">
+      <c r="R23" s="100">
         <v>76.841999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28" ht="17" thickBot="1">
       <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
@@ -23687,16 +23881,16 @@
       <c r="Q24" s="45">
         <v>36.594388000000002</v>
       </c>
-      <c r="R24" s="102">
+      <c r="R24" s="100">
         <v>76.376000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="125" t="s">
+    <row r="25" spans="2:28">
+      <c r="B25" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="78"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="77"/>
       <c r="L25" s="8"/>
       <c r="M25" s="25" t="s">
         <v>36</v>
@@ -23713,14 +23907,14 @@
       <c r="Q25" s="45">
         <v>44.952913000000002</v>
       </c>
-      <c r="R25" s="102">
+      <c r="R25" s="100">
         <v>78.47</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="126"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="79"/>
+    <row r="26" spans="2:28">
+      <c r="B26" s="124"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="78"/>
       <c r="L26" s="8"/>
       <c r="M26" s="25" t="s">
         <v>37</v>
@@ -23737,15 +23931,15 @@
       <c r="Q26" s="45">
         <v>51.909419</v>
       </c>
-      <c r="R26" s="102">
+      <c r="R26" s="100">
         <v>74.08</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="126"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="80" t="s">
-        <v>23</v>
+    <row r="27" spans="2:28" ht="17" thickBot="1">
+      <c r="B27" s="124"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="79" t="s">
+        <v>49</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="25" t="s">
@@ -23763,107 +23957,107 @@
       <c r="Q27" s="45">
         <v>34.942934000000001</v>
       </c>
-      <c r="R27" s="102">
+      <c r="R27" s="100">
         <v>98.539000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:28" ht="17" thickBot="1">
       <c r="B28" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="82">
         <v>3.4590000000000001</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="98">
+      <c r="N28" s="97">
         <v>42.396000000000001</v>
       </c>
-      <c r="O28" s="86">
+      <c r="O28" s="85">
         <v>14.684063</v>
       </c>
-      <c r="P28" s="87">
+      <c r="P28" s="86">
         <v>20.2498</v>
       </c>
       <c r="Q28" s="47">
         <v>43.770479999999999</v>
       </c>
-      <c r="R28" s="103">
+      <c r="R28" s="101">
         <v>74.396000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28">
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="83">
         <v>3.6059999999999999</v>
       </c>
-      <c r="M29" s="75" t="s">
+      <c r="M29" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="99">
+      <c r="N29" s="98">
         <f>AVERAGE(N22:N28)</f>
         <v>41.849285714285713</v>
       </c>
-      <c r="O29" s="99">
+      <c r="O29" s="98">
         <f t="shared" ref="O29:P29" si="6">AVERAGE(O22:O28)</f>
         <v>14.184308999999999</v>
       </c>
-      <c r="P29" s="99">
+      <c r="P29" s="98">
         <f t="shared" si="6"/>
         <v>20.703462714285713</v>
       </c>
-      <c r="Q29" s="99">
+      <c r="Q29" s="98">
         <f>AVERAGE(Q22:Q28)</f>
         <v>43.084435714285711</v>
       </c>
-      <c r="R29" s="99">
+      <c r="R29" s="98">
         <f>AVERAGE(R22:R28)</f>
         <v>79.640428571428558</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" ht="17" thickBot="1">
       <c r="B30" s="21"/>
       <c r="C30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="84">
         <v>3.7869999999999999</v>
       </c>
-      <c r="M30" s="75" t="s">
+      <c r="M30" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N30" s="99">
+      <c r="N30" s="98">
         <f>STDEV(N22:N28)</f>
         <v>0.58910432417518777</v>
       </c>
-      <c r="O30" s="99">
+      <c r="O30" s="98">
         <f t="shared" ref="O30:R30" si="7">STDEV(O22:O28)</f>
         <v>2.2872797945274939</v>
       </c>
-      <c r="P30" s="99">
+      <c r="P30" s="98">
         <f t="shared" si="7"/>
         <v>1.8869742062776684</v>
       </c>
-      <c r="Q30" s="99">
+      <c r="Q30" s="98">
         <f t="shared" si="7"/>
         <v>5.8939525038465073</v>
       </c>
-      <c r="R30" s="99">
+      <c r="R30" s="98">
         <f t="shared" si="7"/>
         <v>8.5261982121213293</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28">
       <c r="B31" s="25"/>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="74" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="45">
@@ -23871,76 +24065,83 @@
         <v>3.6173333333333333</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" ht="17" thickBot="1">
       <c r="B32" s="25"/>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="98">
+        <f>MEDIAN(D28:D30)</f>
+        <v>3.6059999999999999</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="C33" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D33" s="45">
         <f>STDEV(D28:D30)</f>
         <v>0.16429343667150342</v>
       </c>
-      <c r="L32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="16"/>
+      <c r="L33" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="73"/>
+      <c r="N33" s="77"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L33" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="74"/>
-      <c r="N33" s="78"/>
-    </row>
-    <row r="34" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="17" thickBot="1">
       <c r="B34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="79"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="78"/>
     </row>
-    <row r="35" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="125" t="s">
+    <row r="35" spans="2:18" ht="17" thickBot="1">
+      <c r="B35" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="130"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="73" t="s">
+      <c r="C35" s="104"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="127"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="N35" s="80" t="s">
-        <v>23</v>
+      <c r="N35" s="95" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="126"/>
-      <c r="C36" s="107"/>
+    <row r="36" spans="2:18">
+      <c r="B36" s="124"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="131"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="133"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="129"/>
       <c r="L36" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M36" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N36" s="83">
+      <c r="N36" s="82">
         <v>4.58</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="126"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="96" t="s">
+    <row r="37" spans="2:18" ht="17" thickBot="1">
+      <c r="B37" s="124"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="95" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="67" t="s">
@@ -23952,48 +24153,48 @@
       <c r="G37" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="95" t="s">
+      <c r="H37" s="94" t="s">
         <v>47</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="84">
+      <c r="N37" s="83">
         <v>4.859</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18">
       <c r="B38" s="65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="97">
+        <v>58</v>
+      </c>
+      <c r="D38" s="96">
         <v>19.303889000000002</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="81">
         <v>37.367761999999999</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="81">
         <v>64.585999999999999</v>
       </c>
-      <c r="G38" s="82">
+      <c r="G38" s="81">
         <v>75.789000000000001</v>
       </c>
-      <c r="H38" s="101">
+      <c r="H38" s="99">
         <v>132.91499999999999</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N38" s="84">
+      <c r="N38" s="83">
         <v>4.5979999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18">
       <c r="B39" s="20"/>
       <c r="C39" s="8" t="s">
         <v>34</v>
@@ -24010,18 +24211,18 @@
       <c r="G39" s="45">
         <v>102.56399999999999</v>
       </c>
-      <c r="H39" s="102">
+      <c r="H39" s="100">
         <v>180.43299999999999</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N39" s="84">
+      <c r="N39" s="83">
         <v>4.71</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" ht="17" thickBot="1">
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
         <v>35</v>
@@ -24038,20 +24239,20 @@
       <c r="G40" s="47">
         <v>83.712999999999994</v>
       </c>
-      <c r="H40" s="103">
+      <c r="H40" s="101">
         <v>155.619</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N40" s="84">
+      <c r="N40" s="83">
         <v>4.4950000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18">
       <c r="B41" s="25"/>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="74" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="45">
@@ -24078,13 +24279,13 @@
       <c r="M41" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N41" s="84">
+      <c r="N41" s="83">
         <v>4.4210000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" ht="17" thickBot="1">
       <c r="B42" s="25"/>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="74" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="45">
@@ -24111,118 +24312,124 @@
       <c r="M42" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N42" s="88">
+      <c r="N42" s="87">
         <v>4.5679999999999996</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M43" s="75" t="s">
+    <row r="43" spans="2:18">
+      <c r="M43" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N43" s="99">
+      <c r="N43" s="98">
         <f>AVERAGE(N36:N42)</f>
         <v>4.6044285714285715</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M44" s="75" t="s">
+    <row r="44" spans="2:18">
+      <c r="M44" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="N44" s="98">
+        <f>MEDIAN(N36:N42)</f>
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="17" thickBot="1">
+      <c r="B45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="M45" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="99">
+      <c r="N45" s="98">
         <f>STDEV(N36:N42)</f>
         <v>0.14349083262570828</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="N45" s="100"/>
+    <row r="46" spans="2:18">
+      <c r="B46" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="110"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="130"/>
-    </row>
-    <row r="47" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="126"/>
-      <c r="C47" s="114"/>
+    <row r="47" spans="2:18" ht="17" thickBot="1">
+      <c r="B47" s="124"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="131"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="133"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
       <c r="L47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="16"/>
     </row>
-    <row r="48" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="126"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="96" t="s">
-        <v>23</v>
+    <row r="48" spans="2:18" ht="17" thickBot="1">
+      <c r="B48" s="124"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="106"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="129"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="130"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="126"/>
+      <c r="P48" s="126"/>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="127"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18">
       <c r="B49" s="65" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="97">
+        <v>58</v>
+      </c>
+      <c r="D49" s="96">
         <v>64.5</v>
       </c>
-      <c r="E49" s="82">
+      <c r="E49" s="81">
         <v>45.6</v>
       </c>
-      <c r="F49" s="82">
+      <c r="F49" s="81">
         <v>66.599999999999994</v>
       </c>
-      <c r="G49" s="82">
+      <c r="G49" s="81">
         <v>124</v>
       </c>
-      <c r="H49" s="101">
+      <c r="H49" s="99">
         <v>263.2</v>
       </c>
-      <c r="L49" s="126"/>
-      <c r="M49" s="107"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="105"/>
       <c r="N49" s="131"/>
-      <c r="O49" s="132"/>
-      <c r="P49" s="132"/>
-      <c r="Q49" s="132"/>
-      <c r="R49" s="133"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="128"/>
+      <c r="R49" s="129"/>
     </row>
-    <row r="50" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" ht="17" thickBot="1">
       <c r="B50" s="20"/>
       <c r="C50" s="8" t="s">
         <v>34</v>
@@ -24239,30 +24446,30 @@
       <c r="G50" s="45">
         <v>147.5</v>
       </c>
-      <c r="H50" s="102">
+      <c r="H50" s="100">
         <v>279.2</v>
       </c>
-      <c r="L50" s="126"/>
-      <c r="M50" s="107" t="s">
+      <c r="L50" s="124"/>
+      <c r="M50" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="96" t="s">
-        <v>23</v>
+      <c r="N50" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="O50" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="P50" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q50" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" s="95" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="P50" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q50" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="R50" s="94" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" ht="17" thickBot="1">
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
         <v>35</v>
@@ -24279,34 +24486,34 @@
       <c r="G51" s="47">
         <v>182</v>
       </c>
-      <c r="H51" s="103">
+      <c r="H51" s="101">
         <v>353.4</v>
       </c>
       <c r="L51" s="68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M51" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="N51" s="97">
+        <v>58</v>
+      </c>
+      <c r="N51" s="96">
         <v>17.650673000000001</v>
       </c>
-      <c r="O51" s="82">
+      <c r="O51" s="81">
         <v>27.422999999999998</v>
       </c>
-      <c r="P51" s="82">
+      <c r="P51" s="81">
         <v>50.039000000000001</v>
       </c>
-      <c r="Q51" s="82">
+      <c r="Q51" s="81">
         <v>83.334999999999994</v>
       </c>
-      <c r="R51" s="101">
+      <c r="R51" s="99">
         <v>110.124</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18">
       <c r="B52" s="25"/>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="74" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="45">
@@ -24345,34 +24552,34 @@
       <c r="Q52" s="45">
         <v>90.1</v>
       </c>
-      <c r="R52" s="102">
+      <c r="R52" s="100">
         <v>120.90900000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:18">
       <c r="B53" s="25"/>
-      <c r="C53" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="45">
-        <f>STDEV(D49:D51)</f>
-        <v>0.76376261582597338</v>
-      </c>
-      <c r="E53" s="45">
-        <f t="shared" ref="E53:H53" si="11">STDEV(E49:E51)</f>
-        <v>0.80829037686547522</v>
-      </c>
-      <c r="F53" s="45">
+      <c r="C53" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="98">
+        <f>MEDIAN(D49:D51)</f>
+        <v>64</v>
+      </c>
+      <c r="E53" s="98">
+        <f t="shared" ref="E53:H53" si="11">MEDIAN(E49:E51)</f>
+        <v>44.2</v>
+      </c>
+      <c r="F53" s="98">
         <f t="shared" si="11"/>
-        <v>0.85049005481153561</v>
-      </c>
-      <c r="G53" s="45">
+        <v>65.3</v>
+      </c>
+      <c r="G53" s="98">
         <f t="shared" si="11"/>
-        <v>29.173332571602714</v>
-      </c>
-      <c r="H53" s="45">
+        <v>147.5</v>
+      </c>
+      <c r="H53" s="98">
         <f t="shared" si="11"/>
-        <v>48.127746674865506</v>
+        <v>279.2</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="25" t="s">
@@ -24390,11 +24597,34 @@
       <c r="Q53" s="45">
         <v>84.347999999999999</v>
       </c>
-      <c r="R53" s="102">
+      <c r="R53" s="100">
         <v>112.61499999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:18">
+      <c r="C54" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="45">
+        <f>STDEV(D49:D51)</f>
+        <v>0.76376261582597338</v>
+      </c>
+      <c r="E54" s="45">
+        <f>STDEV(E49:E51)</f>
+        <v>0.80829037686547522</v>
+      </c>
+      <c r="F54" s="45">
+        <f>STDEV(F49:F51)</f>
+        <v>0.85049005481153561</v>
+      </c>
+      <c r="G54" s="45">
+        <f>STDEV(G49:G51)</f>
+        <v>29.173332571602714</v>
+      </c>
+      <c r="H54" s="45">
+        <f>STDEV(H49:H51)</f>
+        <v>48.127746674865506</v>
+      </c>
       <c r="L54" s="8"/>
       <c r="M54" s="25" t="s">
         <v>36</v>
@@ -24411,11 +24641,11 @@
       <c r="Q54" s="45">
         <v>85.944000000000003</v>
       </c>
-      <c r="R54" s="102">
+      <c r="R54" s="100">
         <v>214.214</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18">
       <c r="L55" s="8"/>
       <c r="M55" s="25" t="s">
         <v>37</v>
@@ -24432,11 +24662,11 @@
       <c r="Q55" s="45">
         <v>99.033000000000001</v>
       </c>
-      <c r="R55" s="102">
+      <c r="R55" s="100">
         <v>165.518</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18">
       <c r="L56" s="8"/>
       <c r="M56" s="25" t="s">
         <v>38</v>
@@ -24453,152 +24683,152 @@
       <c r="Q56" s="45">
         <v>84.320999999999998</v>
       </c>
-      <c r="R56" s="102">
+      <c r="R56" s="100">
         <v>135.69999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" ht="17" thickBot="1">
       <c r="L57" s="9"/>
       <c r="M57" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N57" s="98">
+      <c r="N57" s="97">
         <v>17.010323</v>
       </c>
-      <c r="O57" s="86">
+      <c r="O57" s="85">
         <v>22.979990999999998</v>
       </c>
-      <c r="P57" s="87">
+      <c r="P57" s="86">
         <v>42.622</v>
       </c>
       <c r="Q57" s="47">
         <v>89.733999999999995</v>
       </c>
-      <c r="R57" s="103">
+      <c r="R57" s="101">
         <v>128.99700000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M58" s="75" t="s">
+    <row r="58" spans="2:18">
+      <c r="M58" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N58" s="99">
+      <c r="N58" s="98">
         <f>AVERAGE(N51:N57)</f>
         <v>19.541167428571431</v>
       </c>
-      <c r="O58" s="99">
+      <c r="O58" s="98">
         <f t="shared" ref="O58:P58" si="12">AVERAGE(O51:O57)</f>
         <v>28.592677142857148</v>
       </c>
-      <c r="P58" s="99">
+      <c r="P58" s="98">
         <f t="shared" si="12"/>
         <v>47.905285714285718</v>
       </c>
-      <c r="Q58" s="99">
+      <c r="Q58" s="98">
         <f>AVERAGE(Q51:Q57)</f>
         <v>88.116428571428585</v>
       </c>
-      <c r="R58" s="99">
+      <c r="R58" s="98">
         <f>AVERAGE(R51:R57)</f>
         <v>141.15385714285716</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M59" s="75" t="s">
+    <row r="59" spans="2:18">
+      <c r="M59" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="99">
+      <c r="N59" s="98">
         <f>STDEV(N51:N57)</f>
         <v>3.3505988206607205</v>
       </c>
-      <c r="O59" s="99">
+      <c r="O59" s="98">
         <f t="shared" ref="O59:R59" si="13">STDEV(O51:O57)</f>
         <v>5.1414570709205272</v>
       </c>
-      <c r="P59" s="99">
+      <c r="P59" s="98">
         <f t="shared" si="13"/>
         <v>3.8711372882864672</v>
       </c>
-      <c r="Q59" s="99">
+      <c r="Q59" s="98">
         <f t="shared" si="13"/>
         <v>5.5062156047247459</v>
       </c>
-      <c r="R59" s="99">
+      <c r="R59" s="98">
         <f t="shared" si="13"/>
         <v>37.184455324900426</v>
       </c>
     </row>
-    <row r="62" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" ht="17" thickBot="1">
       <c r="L62" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L63" s="125" t="s">
+    <row r="63" spans="2:18">
+      <c r="L63" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="113"/>
-      <c r="N63" s="128"/>
-      <c r="O63" s="129"/>
-      <c r="P63" s="129"/>
-      <c r="Q63" s="129"/>
-      <c r="R63" s="130"/>
+      <c r="M63" s="110"/>
+      <c r="N63" s="130"/>
+      <c r="O63" s="126"/>
+      <c r="P63" s="126"/>
+      <c r="Q63" s="126"/>
+      <c r="R63" s="127"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L64" s="126"/>
-      <c r="M64" s="114"/>
+    <row r="64" spans="2:18">
+      <c r="L64" s="124"/>
+      <c r="M64" s="111"/>
       <c r="N64" s="131"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="132"/>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="133"/>
+      <c r="O64" s="128"/>
+      <c r="P64" s="128"/>
+      <c r="Q64" s="128"/>
+      <c r="R64" s="129"/>
     </row>
-    <row r="65" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L65" s="126"/>
-      <c r="M65" s="114" t="s">
+    <row r="65" spans="12:18" ht="17" thickBot="1">
+      <c r="L65" s="124"/>
+      <c r="M65" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="N65" s="96" t="s">
-        <v>23</v>
+      <c r="N65" s="95" t="s">
+        <v>49</v>
       </c>
       <c r="O65" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="P65" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q65" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="R65" s="95" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="P65" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q65" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="R65" s="94" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="12:18">
       <c r="L66" s="68" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M66" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="N66" s="97">
+        <v>58</v>
+      </c>
+      <c r="N66" s="96">
         <v>56.5</v>
       </c>
-      <c r="O66" s="82">
+      <c r="O66" s="81">
         <v>42.3</v>
       </c>
-      <c r="P66" s="82">
+      <c r="P66" s="81">
         <v>69.2</v>
       </c>
-      <c r="Q66" s="82">
+      <c r="Q66" s="81">
         <v>107.1</v>
       </c>
-      <c r="R66" s="101">
+      <c r="R66" s="99">
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="12:18">
       <c r="L67" s="8"/>
       <c r="M67" s="25" t="s">
         <v>34</v>
@@ -24615,11 +24845,11 @@
       <c r="Q67" s="45">
         <v>128</v>
       </c>
-      <c r="R67" s="102">
+      <c r="R67" s="100">
         <v>150.1</v>
       </c>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="12:18">
       <c r="L68" s="8"/>
       <c r="M68" s="25" t="s">
         <v>35</v>
@@ -24636,11 +24866,11 @@
       <c r="Q68" s="45">
         <v>155.1</v>
       </c>
-      <c r="R68" s="102">
+      <c r="R68" s="100">
         <v>264.60000000000002</v>
       </c>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="12:18">
       <c r="L69" s="8"/>
       <c r="M69" s="25" t="s">
         <v>36</v>
@@ -24657,11 +24887,11 @@
       <c r="Q69" s="45">
         <v>132.80000000000001</v>
       </c>
-      <c r="R69" s="102">
+      <c r="R69" s="100">
         <v>192.9</v>
       </c>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="12:18">
       <c r="L70" s="8"/>
       <c r="M70" s="25" t="s">
         <v>37</v>
@@ -24678,11 +24908,11 @@
       <c r="Q70" s="45">
         <v>119.7</v>
       </c>
-      <c r="R70" s="102">
+      <c r="R70" s="100">
         <v>279.7</v>
       </c>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="12:18">
       <c r="L71" s="8"/>
       <c r="M71" s="25" t="s">
         <v>38</v>
@@ -24699,96 +24929,117 @@
       <c r="Q71" s="45">
         <v>151.69999999999999</v>
       </c>
-      <c r="R71" s="102">
+      <c r="R71" s="100">
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="72" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:18" ht="17" thickBot="1">
       <c r="L72" s="9"/>
       <c r="M72" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N72" s="98">
+      <c r="N72" s="97">
         <v>55.9</v>
       </c>
-      <c r="O72" s="86">
+      <c r="O72" s="85">
         <v>41.6</v>
       </c>
-      <c r="P72" s="87">
+      <c r="P72" s="86">
         <v>66</v>
       </c>
       <c r="Q72" s="47">
         <v>147.4</v>
       </c>
-      <c r="R72" s="103">
+      <c r="R72" s="101">
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="M73" s="75" t="s">
+    <row r="73" spans="12:18">
+      <c r="M73" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N73" s="99">
+      <c r="N73" s="98">
         <f>AVERAGE(N66:N72)</f>
         <v>56.98571428571428</v>
       </c>
-      <c r="O73" s="99">
+      <c r="O73" s="98">
         <f t="shared" ref="O73:P73" si="14">AVERAGE(O66:O72)</f>
         <v>42.757142857142867</v>
       </c>
-      <c r="P73" s="99">
+      <c r="P73" s="98">
         <f t="shared" si="14"/>
         <v>67.085714285714289</v>
       </c>
-      <c r="Q73" s="99">
+      <c r="Q73" s="98">
         <f>AVERAGE(Q66:Q72)</f>
         <v>134.54285714285714</v>
       </c>
-      <c r="R73" s="99">
+      <c r="R73" s="98">
         <f>AVERAGE(R66:R72)</f>
         <v>188.15714285714284</v>
       </c>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="M74" s="75" t="s">
+    <row r="74" spans="12:18">
+      <c r="M74" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="N74" s="98">
+        <f>MEDIAN(N66:N72)</f>
+        <v>56.5</v>
+      </c>
+      <c r="O74" s="98">
+        <f t="shared" ref="O74:R74" si="15">MEDIAN(O66:O72)</f>
+        <v>42.3</v>
+      </c>
+      <c r="P74" s="98">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="Q74" s="98">
+        <f t="shared" si="15"/>
+        <v>132.80000000000001</v>
+      </c>
+      <c r="R74" s="98">
+        <f t="shared" si="15"/>
+        <v>150.19999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="12:18">
+      <c r="M75" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N74" s="99">
+      <c r="N75" s="98">
         <f>STDEV(N66:N72)</f>
         <v>1.8206487593058416</v>
       </c>
-      <c r="O74" s="99">
-        <f t="shared" ref="O74:R74" si="15">STDEV(O66:O72)</f>
+      <c r="O75" s="98">
+        <f>STDEV(O66:O72)</f>
         <v>1.8581865199320402</v>
       </c>
-      <c r="P74" s="99">
-        <f t="shared" si="15"/>
+      <c r="P75" s="98">
+        <f>STDEV(P66:P72)</f>
         <v>3.67170649309399</v>
       </c>
-      <c r="Q74" s="99">
-        <f t="shared" si="15"/>
+      <c r="Q75" s="98">
+        <f>STDEV(Q66:Q72)</f>
         <v>17.802327295689569</v>
       </c>
-      <c r="R74" s="99">
-        <f t="shared" si="15"/>
+      <c r="R75" s="98">
+        <f>STDEV(R66:R72)</f>
         <v>60.569542872713981</v>
       </c>
     </row>
-    <row r="96" spans="14:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="N96" s="109"/>
+    <row r="96" spans="14:14" ht="18">
+      <c r="N96" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D47:H47"/>
@@ -24802,12 +25053,16 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24822,41 +25077,41 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="118"/>
+    <col min="6" max="6" width="10.83203125" style="115"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="118"/>
+    <col min="9" max="9" width="10.83203125" style="115"/>
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="118"/>
+    <col min="12" max="12" width="10.83203125" style="115"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12">
       <c r="C2" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="118" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="118" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="118" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -24866,23 +25121,23 @@
       <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="119">
+      <c r="F3" s="116">
         <v>40</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="119">
+      <c r="I3" s="116">
         <v>96</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="120">
+      <c r="L3" s="117">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
@@ -24892,65 +25147,65 @@
       <c r="E4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="116">
         <v>24</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="117">
         <v>24</v>
       </c>
       <c r="J4" s="45"/>
       <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="118">
+        <v>66</v>
+      </c>
+      <c r="L4" s="115">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="75" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="76">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="118">
+        <v>62</v>
+      </c>
+      <c r="F5" s="115">
         <v>112</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="120">
+      <c r="I5" s="117">
         <v>24</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="118">
+        <v>65</v>
+      </c>
+      <c r="L5" s="115">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="75"/>
-      <c r="C6" s="77"/>
-      <c r="H6" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="118">
+    <row r="6" spans="2:12">
+      <c r="B6" s="74"/>
+      <c r="C6" s="76"/>
+      <c r="H6" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="115">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H7" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="118">
+    <row r="7" spans="2:12">
+      <c r="H7" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="115">
         <v>16</v>
       </c>
     </row>
@@ -24966,11 +25221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F427D7-3FD9-9E4A-9706-090642B62667}">
   <dimension ref="B1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -24981,73 +25236,73 @@
     <col min="9" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="136" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="I2" s="136" t="s">
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="136"/>
+      <c r="I2" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="137"/>
-      <c r="K2" s="138"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
-    <row r="3" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="139" t="s">
+    <row r="3" spans="2:11" ht="17" thickBot="1">
+      <c r="B3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141"/>
-      <c r="I3" s="139" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="I3" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="140"/>
-      <c r="K3" s="141"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="134" t="s">
+    <row r="4" spans="2:11">
+      <c r="B4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="138"/>
-      <c r="I4" s="134" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="136"/>
+      <c r="I4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="138"/>
+      <c r="K4" s="136"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="135"/>
-      <c r="C5" s="143" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" s="133"/>
+      <c r="C5" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="145"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="143" t="s">
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="143"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="145"/>
+      <c r="K5" s="143"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="142"/>
+    <row r="6" spans="2:11" ht="17" thickBot="1">
+      <c r="B6" s="140"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
@@ -25063,15 +25318,15 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="142"/>
-      <c r="J6" s="122" t="s">
+      <c r="I6" s="140"/>
+      <c r="J6" s="119" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -25096,11 +25351,11 @@
       <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="123" t="s">
+      <c r="K7" s="120" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
@@ -25125,11 +25380,11 @@
       <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="123" t="s">
+      <c r="K8" s="120" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
@@ -25154,7 +25409,7 @@
       <c r="J9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="124" t="s">
+      <c r="K9" s="121" t="s">
         <v>56</v>
       </c>
     </row>
@@ -25184,7 +25439,7 @@
       <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -25210,46 +25465,46 @@
     <col min="27" max="28" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="147" t="s">
+    <row r="1" spans="2:28" ht="17" thickBot="1"/>
+    <row r="2" spans="2:28" ht="17" thickBot="1">
+      <c r="B2" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="54"/>
       <c r="J2" s="27"/>
-      <c r="L2" s="147" t="s">
+      <c r="L2" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
       <c r="S2" s="54"/>
       <c r="T2" s="27"/>
-      <c r="V2" s="147" t="s">
+      <c r="V2" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28">
       <c r="B3" s="16"/>
       <c r="L3" s="16"/>
       <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="17" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
@@ -25260,87 +25515,87 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="125" t="s">
+    <row r="5" spans="2:28">
+      <c r="B5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="23"/>
       <c r="J5" s="28"/>
-      <c r="L5" s="125" t="s">
+      <c r="L5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="128" t="s">
+      <c r="M5" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
       <c r="S5" s="23"/>
       <c r="T5" s="28"/>
-      <c r="V5" s="125" t="s">
+      <c r="V5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="128" t="s">
+      <c r="W5" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="126"/>
-      <c r="C6" s="135" t="s">
+    <row r="6" spans="2:28">
+      <c r="B6" s="124"/>
+      <c r="C6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
       <c r="I6" s="23"/>
       <c r="J6" s="28"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="135" t="s">
+      <c r="L6" s="124"/>
+      <c r="M6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="132" t="s">
+      <c r="N6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
       <c r="S6" s="23"/>
       <c r="T6" s="28"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="135" t="s">
+      <c r="V6" s="124"/>
+      <c r="W6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="132" t="s">
+      <c r="X6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="126"/>
-      <c r="C7" s="146"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1">
+      <c r="B7" s="124"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25358,8 +25613,8 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="146"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="144"/>
       <c r="N7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25377,8 +25632,8 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="29"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="146"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="144"/>
       <c r="X7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25395,7 +25650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28">
       <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
@@ -25464,7 +25719,7 @@
         <v>51.689</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
@@ -25533,7 +25788,7 @@
         <v>42.41</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28">
       <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
@@ -25602,7 +25857,7 @@
         <v>28.091000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="17" thickBot="1">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -25653,7 +25908,7 @@
       <c r="AA11" s="48"/>
       <c r="AB11" s="48"/>
     </row>
-    <row r="14" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" ht="17" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
@@ -25664,79 +25919,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="125" t="s">
+    <row r="15" spans="2:28">
+      <c r="B15" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="L15" s="125" t="s">
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="L15" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="128" t="s">
+      <c r="M15" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="V15" s="125" t="s">
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="V15" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="128" t="s">
+      <c r="W15" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
-      <c r="Z15" s="129"/>
-      <c r="AA15" s="129"/>
-      <c r="AB15" s="129"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="126"/>
+      <c r="Z15" s="126"/>
+      <c r="AA15" s="126"/>
+      <c r="AB15" s="126"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="126"/>
-      <c r="C16" s="135" t="s">
+    <row r="16" spans="2:28">
+      <c r="B16" s="124"/>
+      <c r="C16" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="132" t="s">
+      <c r="D16" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="135" t="s">
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="132" t="s">
+      <c r="N16" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="135" t="s">
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="132" t="s">
+      <c r="X16" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
     </row>
-    <row r="17" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="126"/>
-      <c r="C17" s="146"/>
+    <row r="17" spans="2:28" ht="17" thickBot="1">
+      <c r="B17" s="124"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
@@ -25752,8 +26007,8 @@
       <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="146"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="144"/>
       <c r="N17" s="32" t="s">
         <v>22</v>
       </c>
@@ -25769,8 +26024,8 @@
       <c r="R17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="126"/>
-      <c r="W17" s="146"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="144"/>
       <c r="X17" s="50" t="s">
         <v>22</v>
       </c>
@@ -25787,7 +26042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28">
       <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
@@ -25852,7 +26107,7 @@
         <v>47.664000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28">
       <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
@@ -25917,7 +26172,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" ht="17">
       <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
@@ -25982,7 +26237,7 @@
         <v>56.512</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" ht="17" thickBot="1">
       <c r="B21" s="21" t="s">
         <v>2</v>
       </c>
@@ -26031,6 +26286,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="B15:B17"/>
@@ -26047,17 +26313,6 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:R16"/>
     <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26072,7 +26327,7 @@
       <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -26096,7 +26351,7 @@
     <col min="28" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:28">
       <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
@@ -26129,7 +26384,7 @@
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="17" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
@@ -26140,60 +26395,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="125" t="s">
+    <row r="5" spans="2:28">
+      <c r="B5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
-      <c r="L5" s="125" t="s">
+      <c r="C5" s="130"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
+      <c r="L5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="128"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="130"/>
-      <c r="V5" s="125" t="s">
+      <c r="M5" s="130"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="127"/>
+      <c r="V5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="128"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="127"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="126"/>
+    <row r="6" spans="2:28">
+      <c r="B6" s="124"/>
       <c r="C6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="133"/>
-      <c r="L6" s="126"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
+      <c r="L6" s="124"/>
       <c r="M6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="133"/>
-      <c r="V6" s="126"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="129"/>
+      <c r="V6" s="124"/>
       <c r="W6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="133"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="129"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="126"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1">
+      <c r="B7" s="124"/>
       <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
@@ -26209,7 +26464,7 @@
       <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="126"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26225,7 +26480,7 @@
       <c r="Q7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="126"/>
+      <c r="V7" s="124"/>
       <c r="W7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26242,7 +26497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28">
       <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
@@ -26298,7 +26553,7 @@
         <v>12.997</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="17">
       <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
@@ -26354,7 +26609,7 @@
         <v>47.183999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28" ht="17">
       <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
@@ -26410,7 +26665,7 @@
         <v>53.204000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="17" thickBot="1">
       <c r="B11" s="21" t="s">
         <v>2</v>
       </c>

--- a/Docs/Clasificación.xlsx
+++ b/Docs/Clasificación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansanchez/Desktop/ssanchez59_Blockchain/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD164992-96CE-FC4A-B745-634E74231E4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F985B77D-FEB7-C042-8D9A-D2070899022F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
   </bookViews>
   <sheets>
     <sheet name="Throughput" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="79">
   <si>
     <t>Throughput</t>
   </si>
@@ -249,6 +249,30 @@
   </si>
   <si>
     <t>Block-la (Original</t>
+  </si>
+  <si>
+    <t>Node #</t>
+  </si>
+  <si>
+    <t>Transaction #</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>Run 5</t>
+  </si>
+  <si>
+    <t>Number of Nodes</t>
   </si>
 </sst>
 </file>
@@ -660,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,9 +888,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,7 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,6 +1004,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,22 +1049,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,44 +1118,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -22034,8 +22114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DA798-74D2-DF47-B94E-DCEC5261F551}">
   <dimension ref="B2:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:N47"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22052,7 +22132,7 @@
       </c>
     </row>
     <row r="3" spans="2:26">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="139" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="23"/>
@@ -22060,13 +22140,13 @@
       <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:26">
-      <c r="B4" s="125"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:26" ht="17" thickBot="1">
-      <c r="B5" s="125"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
@@ -22093,7 +22173,7 @@
       <c r="E6" s="36">
         <v>397</v>
       </c>
-      <c r="V6" s="123" t="s">
+      <c r="V6" s="137" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="75"/>
@@ -22114,7 +22194,7 @@
       <c r="E7" s="36">
         <v>74</v>
       </c>
-      <c r="V7" s="124"/>
+      <c r="V7" s="138"/>
       <c r="W7" s="75"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
@@ -22133,14 +22213,14 @@
       <c r="E8" s="36">
         <v>9099</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="V8" s="124"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="V8" s="138"/>
       <c r="W8" s="75" t="s">
         <v>46</v>
       </c>
@@ -22167,19 +22247,19 @@
       <c r="E9" s="36">
         <v>9558</v>
       </c>
-      <c r="I9" s="155"/>
-      <c r="J9" s="157" t="s">
+      <c r="I9" s="131"/>
+      <c r="J9" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="158"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="155"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="131"/>
       <c r="V9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="91">
+      <c r="W9" s="90">
         <v>1</v>
       </c>
       <c r="X9" s="34">
@@ -22188,20 +22268,22 @@
       <c r="Y9" s="34">
         <v>8488</v>
       </c>
-      <c r="Z9" s="80">
+      <c r="Z9" s="79">
         <v>8954</v>
       </c>
     </row>
     <row r="10" spans="2:26">
-      <c r="I10" s="155"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="155"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="173"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="131"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="92">
+      <c r="W10" s="91">
         <v>2</v>
       </c>
       <c r="X10" s="36">
@@ -22215,23 +22297,23 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="17" thickBot="1">
-      <c r="I11" s="155"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="158" t="s">
+      <c r="I11" s="131"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="159" t="s">
+      <c r="L11" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="159" t="s">
+      <c r="M11" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="159" t="s">
+      <c r="N11" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="155"/>
+      <c r="O11" s="131"/>
       <c r="V11" s="20"/>
-      <c r="W11" s="92">
+      <c r="W11" s="91">
         <v>3</v>
       </c>
       <c r="X11" s="36">
@@ -22245,25 +22327,25 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="I12" s="155"/>
-      <c r="J12" s="161" t="s">
+      <c r="I12" s="131"/>
+      <c r="J12" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="147">
-        <v>1</v>
-      </c>
-      <c r="L12" s="148">
+      <c r="K12" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="124">
         <v>456</v>
       </c>
-      <c r="M12" s="148">
+      <c r="M12" s="124">
         <v>418</v>
       </c>
-      <c r="N12" s="149">
+      <c r="N12" s="125">
         <v>405</v>
       </c>
-      <c r="O12" s="155"/>
+      <c r="O12" s="131"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="92">
+      <c r="W12" s="91">
         <v>4</v>
       </c>
       <c r="X12" s="36">
@@ -22277,10 +22359,10 @@
       </c>
     </row>
     <row r="13" spans="2:26" ht="17" thickBot="1">
-      <c r="I13" s="155"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="150">
-        <v>2</v>
+      <c r="I13" s="131"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="126" t="s">
+        <v>74</v>
       </c>
       <c r="L13" s="76">
         <v>455</v>
@@ -22288,12 +22370,12 @@
       <c r="M13" s="76">
         <v>440</v>
       </c>
-      <c r="N13" s="151">
+      <c r="N13" s="127">
         <v>396</v>
       </c>
-      <c r="O13" s="155"/>
+      <c r="O13" s="131"/>
       <c r="V13" s="21"/>
-      <c r="W13" s="93">
+      <c r="W13" s="92">
         <v>5</v>
       </c>
       <c r="X13" s="40">
@@ -22307,10 +22389,10 @@
       </c>
     </row>
     <row r="14" spans="2:26">
-      <c r="I14" s="155"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="150">
-        <v>3</v>
+      <c r="I14" s="131"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="126" t="s">
+        <v>75</v>
       </c>
       <c r="L14" s="76">
         <v>453</v>
@@ -22318,31 +22400,31 @@
       <c r="M14" s="76">
         <v>440</v>
       </c>
-      <c r="N14" s="151">
+      <c r="N14" s="127">
         <v>403</v>
       </c>
-      <c r="O14" s="155"/>
+      <c r="O14" s="131"/>
       <c r="W14" t="s">
         <v>41</v>
       </c>
-      <c r="X14" s="102">
+      <c r="X14" s="101">
         <f>AVERAGE(X9:X13)</f>
         <v>8128.8</v>
       </c>
-      <c r="Y14" s="102">
+      <c r="Y14" s="101">
         <f t="shared" ref="Y14" si="0">AVERAGE(Y9:Y13)</f>
         <v>8624.7999999999993</v>
       </c>
-      <c r="Z14" s="102">
+      <c r="Z14" s="101">
         <f t="shared" ref="Z14" si="1">AVERAGE(Z9:Z13)</f>
         <v>8798.7999999999993</v>
       </c>
     </row>
     <row r="15" spans="2:26">
-      <c r="I15" s="155"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="150">
-        <v>4</v>
+      <c r="I15" s="131"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="126" t="s">
+        <v>76</v>
       </c>
       <c r="L15" s="76">
         <v>450</v>
@@ -22350,121 +22432,121 @@
       <c r="M15" s="76">
         <v>435</v>
       </c>
-      <c r="N15" s="151">
+      <c r="N15" s="127">
         <v>394</v>
       </c>
-      <c r="O15" s="155"/>
+      <c r="O15" s="131"/>
       <c r="W15" t="s">
         <v>48</v>
       </c>
-      <c r="X15" s="103">
+      <c r="X15" s="102">
         <f>STDEV(X9:X13)</f>
         <v>181.24899999724136</v>
       </c>
-      <c r="Y15" s="103">
+      <c r="Y15" s="102">
         <f t="shared" ref="Y15:Z15" si="2">STDEV(Y9:Y13)</f>
         <v>208.43632121105955</v>
       </c>
-      <c r="Z15" s="103">
+      <c r="Z15" s="102">
         <f t="shared" si="2"/>
         <v>162.83335039235666</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="17" thickBot="1">
-      <c r="I16" s="155"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="152">
-        <v>5</v>
-      </c>
-      <c r="L16" s="153">
+      <c r="I16" s="131"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="129">
         <v>457</v>
       </c>
-      <c r="M16" s="153">
+      <c r="M16" s="129">
         <v>437</v>
       </c>
-      <c r="N16" s="154">
+      <c r="N16" s="130">
         <v>394</v>
       </c>
-      <c r="O16" s="155"/>
+      <c r="O16" s="131"/>
       <c r="W16" t="s">
         <v>68</v>
       </c>
-      <c r="X16" s="117">
+      <c r="X16" s="115">
         <f>MEDIAN(X9:X13)</f>
         <v>8103</v>
       </c>
-      <c r="Y16" s="117">
+      <c r="Y16" s="115">
         <f t="shared" ref="Y16:Z16" si="3">MEDIAN(Y9:Y13)</f>
         <v>8566</v>
       </c>
-      <c r="Z16" s="117">
+      <c r="Z16" s="115">
         <f t="shared" si="3"/>
         <v>8839</v>
       </c>
     </row>
     <row r="17" spans="9:26">
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155" t="s">
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="163">
+      <c r="L17" s="135">
         <f>AVERAGE(L12:L16)</f>
         <v>454.2</v>
       </c>
-      <c r="M17" s="163">
+      <c r="M17" s="135">
         <f>AVERAGE(M12:M16)</f>
         <v>434</v>
       </c>
-      <c r="N17" s="163">
+      <c r="N17" s="135">
         <f>AVERAGE(N12:N16)</f>
         <v>398.4</v>
       </c>
-      <c r="O17" s="155"/>
+      <c r="O17" s="131"/>
     </row>
     <row r="18" spans="9:26" ht="17" thickBot="1">
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155" t="s">
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="163">
+      <c r="L18" s="135">
         <f>MEDIAN(L12:L16)</f>
         <v>455</v>
       </c>
-      <c r="M18" s="163">
+      <c r="M18" s="135">
         <f>MEDIAN(M12:M16)</f>
         <v>437</v>
       </c>
-      <c r="N18" s="163">
+      <c r="N18" s="135">
         <f>MEDIAN(N12:N16)</f>
         <v>396</v>
       </c>
-      <c r="O18" s="155"/>
+      <c r="O18" s="131"/>
       <c r="V18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="9:26">
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155" t="s">
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="164">
+      <c r="L19" s="136">
         <f>STDEV(L12:L16)</f>
         <v>2.7748873851023217</v>
       </c>
-      <c r="M19" s="164">
+      <c r="M19" s="136">
         <f>STDEV(M12:M16)</f>
         <v>9.1923881554251174</v>
       </c>
-      <c r="N19" s="164">
+      <c r="N19" s="136">
         <f>STDEV(N12:N16)</f>
         <v>5.2249401910452526</v>
       </c>
-      <c r="O19" s="155"/>
-      <c r="V19" s="123" t="s">
+      <c r="O19" s="131"/>
+      <c r="V19" s="137" t="s">
         <v>15</v>
       </c>
       <c r="W19" s="75"/>
@@ -22473,21 +22555,21 @@
       <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="9:26">
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="V20" s="124"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="V20" s="138"/>
       <c r="W20" s="75"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="9:26" ht="17" thickBot="1">
-      <c r="V21" s="124"/>
+      <c r="V21" s="138"/>
       <c r="W21" s="75" t="s">
         <v>46</v>
       </c>
@@ -22506,7 +22588,7 @@
       <c r="V22" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="W22" s="91">
+      <c r="W22" s="90">
         <v>1</v>
       </c>
       <c r="X22" s="34">
@@ -22515,20 +22597,20 @@
       <c r="Y22" s="34">
         <v>5781</v>
       </c>
-      <c r="Z22" s="80">
+      <c r="Z22" s="79">
         <v>5524</v>
       </c>
     </row>
     <row r="23" spans="9:26">
-      <c r="J23" s="123" t="s">
+      <c r="J23" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="175"/>
       <c r="V23" s="20"/>
-      <c r="W23" s="92">
+      <c r="W23" s="91">
         <v>2</v>
       </c>
       <c r="X23" s="36">
@@ -22542,13 +22624,15 @@
       </c>
     </row>
     <row r="24" spans="9:26">
-      <c r="J24" s="124"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="146"/>
+      <c r="N24" s="147"/>
       <c r="V24" s="20"/>
-      <c r="W24" s="92">
+      <c r="W24" s="91">
         <v>3</v>
       </c>
       <c r="X24" s="36">
@@ -22562,21 +22646,21 @@
       </c>
     </row>
     <row r="25" spans="9:26" ht="17" thickBot="1">
-      <c r="J25" s="124"/>
-      <c r="K25" s="75" t="s">
+      <c r="J25" s="138"/>
+      <c r="K25" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="177" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="20"/>
-      <c r="W25" s="92">
+      <c r="W25" s="91">
         <v>4</v>
       </c>
       <c r="X25" s="36">
@@ -22593,8 +22677,8 @@
       <c r="J26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="91">
-        <v>1</v>
+      <c r="K26" s="123" t="s">
+        <v>73</v>
       </c>
       <c r="L26" s="34">
         <v>72</v>
@@ -22602,11 +22686,11 @@
       <c r="M26" s="34">
         <v>78</v>
       </c>
-      <c r="N26" s="80">
+      <c r="N26" s="79">
         <v>74</v>
       </c>
       <c r="V26" s="21"/>
-      <c r="W26" s="93">
+      <c r="W26" s="92">
         <v>5</v>
       </c>
       <c r="X26" s="40">
@@ -22621,8 +22705,8 @@
     </row>
     <row r="27" spans="9:26">
       <c r="J27" s="20"/>
-      <c r="K27" s="92">
-        <v>2</v>
+      <c r="K27" s="126" t="s">
+        <v>74</v>
       </c>
       <c r="L27" s="36">
         <v>65</v>
@@ -22636,23 +22720,23 @@
       <c r="W27" t="s">
         <v>41</v>
       </c>
-      <c r="X27" s="102">
+      <c r="X27" s="101">
         <f>AVERAGE(X22:X26)</f>
         <v>5995.6</v>
       </c>
-      <c r="Y27" s="102">
+      <c r="Y27" s="101">
         <f t="shared" ref="Y27:Z27" si="4">AVERAGE(Y22:Y26)</f>
         <v>5793.6</v>
       </c>
-      <c r="Z27" s="102">
+      <c r="Z27" s="101">
         <f t="shared" si="4"/>
         <v>5683.2</v>
       </c>
     </row>
     <row r="28" spans="9:26">
       <c r="J28" s="20"/>
-      <c r="K28" s="92">
-        <v>3</v>
+      <c r="K28" s="126" t="s">
+        <v>75</v>
       </c>
       <c r="L28" s="36">
         <v>80</v>
@@ -22666,23 +22750,23 @@
       <c r="W28" t="s">
         <v>48</v>
       </c>
-      <c r="X28" s="103">
+      <c r="X28" s="102">
         <f>STDEV(X22:X26)</f>
         <v>246.69677744145747</v>
       </c>
-      <c r="Y28" s="103">
+      <c r="Y28" s="102">
         <f t="shared" ref="Y28:Z28" si="5">STDEV(Y22:Y26)</f>
         <v>216.47240008832534</v>
       </c>
-      <c r="Z28" s="103">
+      <c r="Z28" s="102">
         <f t="shared" si="5"/>
         <v>167.52522198164669</v>
       </c>
     </row>
     <row r="29" spans="9:26">
       <c r="J29" s="20"/>
-      <c r="K29" s="92">
-        <v>4</v>
+      <c r="K29" s="126" t="s">
+        <v>76</v>
       </c>
       <c r="L29" s="36">
         <v>73</v>
@@ -22696,23 +22780,23 @@
       <c r="W29" t="s">
         <v>68</v>
       </c>
-      <c r="X29" s="102">
+      <c r="X29" s="101">
         <f>MEDIAN(X22:X26)</f>
         <v>5901</v>
       </c>
-      <c r="Y29" s="102">
+      <c r="Y29" s="101">
         <f t="shared" ref="Y29:Z29" si="6">MEDIAN(Y22:Y26)</f>
         <v>5781</v>
       </c>
-      <c r="Z29" s="102">
+      <c r="Z29" s="101">
         <f t="shared" si="6"/>
         <v>5713</v>
       </c>
     </row>
     <row r="30" spans="9:26" ht="17" thickBot="1">
       <c r="J30" s="21"/>
-      <c r="K30" s="93">
-        <v>5</v>
+      <c r="K30" s="128" t="s">
+        <v>77</v>
       </c>
       <c r="L30" s="40">
         <v>82</v>
@@ -22728,15 +22812,15 @@
       <c r="K31" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="102">
+      <c r="L31" s="101">
         <f>AVERAGE(L26:L30)</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="M31" s="102">
+      <c r="M31" s="101">
         <f>AVERAGE(M26:M30)</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="N31" s="102">
+      <c r="N31" s="101">
         <f>AVERAGE(N26:N30)</f>
         <v>72.8</v>
       </c>
@@ -22753,15 +22837,15 @@
       <c r="K32" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="102">
+      <c r="L32" s="101">
         <f>MEDIAN(L26:L30)</f>
         <v>73</v>
       </c>
-      <c r="M32" s="102">
+      <c r="M32" s="101">
         <f>MEDIAN(M26:M30)</f>
         <v>73</v>
       </c>
-      <c r="N32" s="102">
+      <c r="N32" s="101">
         <f>MEDIAN(N26:N30)</f>
         <v>74</v>
       </c>
@@ -22778,15 +22862,15 @@
       <c r="K33" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="103">
+      <c r="L33" s="102">
         <f>STDEV(L26:L30)</f>
         <v>6.8044103344816005</v>
       </c>
-      <c r="M33" s="103">
+      <c r="M33" s="102">
         <f>STDEV(M26:M30)</f>
         <v>4.7222875812470377</v>
       </c>
-      <c r="N33" s="103">
+      <c r="N33" s="102">
         <f>STDEV(N26:N30)</f>
         <v>8.0746516952745395</v>
       </c>
@@ -22803,33 +22887,35 @@
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="10:20">
-      <c r="J37" s="123" t="s">
+      <c r="J37" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="75"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="174"/>
+      <c r="M37" s="174"/>
+      <c r="N37" s="175"/>
     </row>
     <row r="38" spans="10:20">
-      <c r="J38" s="124"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="146"/>
+      <c r="N38" s="147"/>
     </row>
     <row r="39" spans="10:20" ht="17" thickBot="1">
-      <c r="J39" s="124"/>
-      <c r="K39" s="75" t="s">
+      <c r="J39" s="138"/>
+      <c r="K39" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="M39" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="N39" s="177" t="s">
         <v>27</v>
       </c>
     </row>
@@ -22837,8 +22923,8 @@
       <c r="J40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K40" s="91">
-        <v>1</v>
+      <c r="K40" s="123" t="s">
+        <v>73</v>
       </c>
       <c r="L40" s="34">
         <v>6197</v>
@@ -22846,14 +22932,14 @@
       <c r="M40" s="34">
         <v>4216</v>
       </c>
-      <c r="N40" s="80">
+      <c r="N40" s="79">
         <v>3933</v>
       </c>
     </row>
     <row r="41" spans="10:20">
       <c r="J41" s="20"/>
-      <c r="K41" s="92">
-        <v>2</v>
+      <c r="K41" s="126" t="s">
+        <v>74</v>
       </c>
       <c r="L41" s="36">
         <v>6061</v>
@@ -22867,8 +22953,8 @@
     </row>
     <row r="42" spans="10:20">
       <c r="J42" s="20"/>
-      <c r="K42" s="92">
-        <v>3</v>
+      <c r="K42" s="126" t="s">
+        <v>75</v>
       </c>
       <c r="L42" s="36">
         <v>6208</v>
@@ -22882,8 +22968,8 @@
     </row>
     <row r="43" spans="10:20">
       <c r="J43" s="20"/>
-      <c r="K43" s="92">
-        <v>4</v>
+      <c r="K43" s="126" t="s">
+        <v>76</v>
       </c>
       <c r="L43" s="36">
         <v>6071</v>
@@ -22897,8 +22983,8 @@
     </row>
     <row r="44" spans="10:20" ht="17" thickBot="1">
       <c r="J44" s="21"/>
-      <c r="K44" s="93">
-        <v>5</v>
+      <c r="K44" s="128" t="s">
+        <v>77</v>
       </c>
       <c r="L44" s="40">
         <v>6005</v>
@@ -22914,15 +23000,15 @@
       <c r="K45" t="s">
         <v>41</v>
       </c>
-      <c r="L45" s="102">
+      <c r="L45" s="101">
         <f>AVERAGE(L40:L44)</f>
         <v>6108.4</v>
       </c>
-      <c r="M45" s="102">
+      <c r="M45" s="101">
         <f t="shared" ref="M45:N45" si="7">AVERAGE(M40:M44)</f>
         <v>4083.6</v>
       </c>
-      <c r="N45" s="102">
+      <c r="N45" s="101">
         <f t="shared" si="7"/>
         <v>3868.6</v>
       </c>
@@ -22931,15 +23017,15 @@
       <c r="K46" t="s">
         <v>68</v>
       </c>
-      <c r="L46" s="102">
+      <c r="L46" s="101">
         <f>MEDIAN(L40:L44)</f>
         <v>6071</v>
       </c>
-      <c r="M46" s="102">
+      <c r="M46" s="101">
         <f>MEDIAN(M40:M44)</f>
         <v>4109</v>
       </c>
-      <c r="N46" s="102">
+      <c r="N46" s="101">
         <f>MEDIAN(N40:N44)</f>
         <v>3892</v>
       </c>
@@ -22948,27 +23034,30 @@
       <c r="K47" t="s">
         <v>48</v>
       </c>
-      <c r="L47" s="103">
+      <c r="L47" s="102">
         <f>STDEV(L40:L44)</f>
         <v>89.592410392845224</v>
       </c>
-      <c r="M47" s="103">
+      <c r="M47" s="102">
         <f>STDEV(M40:M44)</f>
         <v>317.21491137712928</v>
       </c>
-      <c r="N47" s="103">
+      <c r="N47" s="102">
         <f>STDEV(N40:N44)</f>
         <v>65.702359166166929</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="J37:J39"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="V6:V8"/>
     <mergeCell ref="V19:V21"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L38:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22979,8 +23068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6207EF-BB85-DB42-AA3B-E98535938494}">
   <dimension ref="B2:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63:R75"/>
+    <sheetView topLeftCell="E1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23045,62 +23134,68 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="2:28" ht="17" thickBot="1">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="127"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="54"/>
       <c r="J5" s="27"/>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="127"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="144"/>
       <c r="V5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="124"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="129"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="147"/>
       <c r="I6" s="54"/>
       <c r="J6" s="27"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="129"/>
-      <c r="V6" s="132" t="s">
+      <c r="L6" s="138"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="147"/>
+      <c r="V6" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="89"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="127"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="144"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="124"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="95" t="s">
+      <c r="B7" s="138"/>
+      <c r="C7" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="94" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="67" t="s">
@@ -23112,58 +23207,60 @@
       <c r="G7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="93" t="s">
         <v>53</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="95" t="s">
+      <c r="L7" s="138"/>
+      <c r="M7" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="94" t="s">
         <v>49</v>
       </c>
       <c r="O7" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="122" t="s">
+      <c r="P7" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="122" t="s">
+      <c r="Q7" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="94" t="s">
+      <c r="R7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="133"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="129"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="147"/>
     </row>
     <row r="8" spans="2:28" ht="17" thickBot="1">
       <c r="B8" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="95">
         <v>14.417</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="80">
         <v>6.63</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="80">
         <v>7.66</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="80">
         <v>8.4600000000000009</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="98">
         <v>9.31</v>
       </c>
       <c r="I8" s="45"/>
@@ -23174,23 +23271,25 @@
       <c r="M8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="95">
         <v>6.3810000000000002</v>
       </c>
-      <c r="O8" s="81">
+      <c r="O8" s="80">
         <v>4.1100000000000003</v>
       </c>
-      <c r="P8" s="81">
+      <c r="P8" s="80">
         <v>4.46</v>
       </c>
-      <c r="Q8" s="81">
+      <c r="Q8" s="80">
         <v>8.9</v>
       </c>
-      <c r="R8" s="99">
+      <c r="R8" s="98">
         <v>13.65</v>
       </c>
-      <c r="V8" s="133"/>
-      <c r="W8" s="106"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="105" t="s">
+        <v>71</v>
+      </c>
       <c r="X8" s="22" t="s">
         <v>49</v>
       </c>
@@ -23203,13 +23302,13 @@
       <c r="AA8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="94" t="s">
+      <c r="AB8" s="93" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="20"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="164" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="58">
@@ -23224,7 +23323,7 @@
       <c r="G9" s="45">
         <v>9.36</v>
       </c>
-      <c r="H9" s="100">
+      <c r="H9" s="99">
         <v>16.07</v>
       </c>
       <c r="I9" s="45"/>
@@ -23245,13 +23344,13 @@
       <c r="Q9" s="45">
         <v>8.31</v>
       </c>
-      <c r="R9" s="100">
+      <c r="R9" s="99">
         <v>21.6</v>
       </c>
       <c r="V9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="69" t="s">
+      <c r="W9" s="170" t="s">
         <v>33</v>
       </c>
       <c r="X9" s="34">
@@ -23266,13 +23365,13 @@
       <c r="AA9" s="34">
         <v>13.364000000000001</v>
       </c>
-      <c r="AB9" s="99">
+      <c r="AB9" s="98">
         <v>11.8</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="17" thickBot="1">
       <c r="B10" s="21"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="121" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="62">
@@ -23287,7 +23386,7 @@
       <c r="G10" s="47">
         <v>9.26</v>
       </c>
-      <c r="H10" s="101">
+      <c r="H10" s="100">
         <v>18.91</v>
       </c>
       <c r="I10" s="45"/>
@@ -23308,22 +23407,22 @@
       <c r="Q10" s="45">
         <v>8.3699999999999992</v>
       </c>
-      <c r="R10" s="100">
+      <c r="R10" s="99">
         <v>21.25</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="W10" s="171" t="s">
         <v>33</v>
       </c>
       <c r="X10" s="36">
         <v>7.6619999999999999</v>
       </c>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="100"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="99"/>
     </row>
     <row r="11" spans="2:28" ht="17" thickBot="1">
       <c r="B11" s="25"/>
@@ -23368,28 +23467,28 @@
       <c r="Q11" s="45">
         <v>9.5</v>
       </c>
-      <c r="R11" s="100">
+      <c r="R11" s="99">
         <v>22.85</v>
       </c>
-      <c r="V11" s="108" t="s">
+      <c r="V11" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="109" t="s">
+      <c r="W11" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="114">
+      <c r="X11" s="112">
         <v>64</v>
       </c>
-      <c r="Y11" s="114">
+      <c r="Y11" s="112">
         <v>35.9</v>
       </c>
-      <c r="Z11" s="114">
+      <c r="Z11" s="112">
         <v>66.599999999999994</v>
       </c>
-      <c r="AA11" s="114">
+      <c r="AA11" s="112">
         <v>109.9</v>
       </c>
-      <c r="AB11" s="101">
+      <c r="AB11" s="100">
         <v>242.5</v>
       </c>
     </row>
@@ -23398,23 +23497,23 @@
       <c r="C12" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="97">
         <f>MEDIAN(D8:D10)</f>
         <v>14.417</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="97">
         <f t="shared" ref="E12:H12" si="1">MEDIAN(E8:E10)</f>
         <v>4.75</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="97">
         <f t="shared" si="1"/>
         <v>7.66</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="97">
         <f t="shared" si="1"/>
         <v>9.26</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="97">
         <f t="shared" si="1"/>
         <v>16.07</v>
       </c>
@@ -23436,7 +23535,7 @@
       <c r="Q12" s="45">
         <v>9.65</v>
       </c>
-      <c r="R12" s="100">
+      <c r="R12" s="99">
         <v>24.09</v>
       </c>
     </row>
@@ -23483,7 +23582,7 @@
       <c r="Q13" s="45">
         <v>11.79</v>
       </c>
-      <c r="R13" s="100">
+      <c r="R13" s="99">
         <v>23.73</v>
       </c>
     </row>
@@ -23496,88 +23595,90 @@
       <c r="M14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="97">
+      <c r="N14" s="96">
         <v>5.79</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O14" s="84">
         <v>5.5</v>
       </c>
-      <c r="P14" s="86">
+      <c r="P14" s="85">
         <v>6.51</v>
       </c>
       <c r="Q14" s="47">
         <v>5.97</v>
       </c>
-      <c r="R14" s="101">
+      <c r="R14" s="100">
         <v>31.12</v>
       </c>
     </row>
     <row r="15" spans="2:28">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="144"/>
       <c r="M15" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="98">
+      <c r="N15" s="97">
         <f>AVERAGE(N8:N14)</f>
         <v>5.6111428571428572</v>
       </c>
-      <c r="O15" s="98">
+      <c r="O15" s="97">
         <f t="shared" ref="O15" si="2">AVERAGE(O8:O14)</f>
         <v>4.765714285714286</v>
       </c>
-      <c r="P15" s="98">
+      <c r="P15" s="97">
         <f>AVERAGE(P8:P14)</f>
         <v>6.0842857142857136</v>
       </c>
-      <c r="Q15" s="98">
+      <c r="Q15" s="97">
         <f>AVERAGE(Q8:Q14)</f>
         <v>8.9271428571428562</v>
       </c>
-      <c r="R15" s="98">
+      <c r="R15" s="97">
         <f>AVERAGE(R8:R14)</f>
         <v>22.612857142857141</v>
       </c>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="124"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="129"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
       <c r="M16" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="98">
+      <c r="N16" s="97">
         <f>MEDIAN(N8:N14)</f>
         <v>5.79</v>
       </c>
-      <c r="O16" s="98">
+      <c r="O16" s="97">
         <f t="shared" ref="O16:R16" si="3">MEDIAN(O8:O14)</f>
         <v>4.88</v>
       </c>
-      <c r="P16" s="98">
+      <c r="P16" s="97">
         <f t="shared" si="3"/>
         <v>6.39</v>
       </c>
-      <c r="Q16" s="98">
+      <c r="Q16" s="97">
         <f t="shared" si="3"/>
         <v>8.9</v>
       </c>
-      <c r="R16" s="98">
+      <c r="R16" s="97">
         <f t="shared" si="3"/>
         <v>22.85</v>
       </c>
-      <c r="V16" s="112" t="s">
+      <c r="V16" s="110" t="s">
         <v>60</v>
       </c>
       <c r="W16" s="74" t="s">
@@ -23586,23 +23687,25 @@
       <c r="X16" s="36">
         <v>17.378</v>
       </c>
-      <c r="Y16" s="88">
+      <c r="Y16" s="87">
         <v>26.495626999999999</v>
       </c>
-      <c r="Z16" s="88">
+      <c r="Z16" s="87">
         <v>61.569000000000003</v>
       </c>
-      <c r="AA16" s="88">
+      <c r="AA16" s="87">
         <v>83.432000000000002</v>
       </c>
-      <c r="AB16" s="113">
+      <c r="AB16" s="111">
         <v>137.136</v>
       </c>
     </row>
     <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="124"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="95" t="s">
+      <c r="B17" s="138"/>
+      <c r="C17" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="94" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="67" t="s">
@@ -23614,29 +23717,29 @@
       <c r="G17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="94" t="s">
+      <c r="H17" s="93" t="s">
         <v>47</v>
       </c>
       <c r="M17" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="98">
+      <c r="N17" s="97">
         <f>STDEV(N8:N14)</f>
         <v>1.4561131399003591</v>
       </c>
-      <c r="O17" s="98">
+      <c r="O17" s="97">
         <f>STDEV(O8:O14)</f>
         <v>0.53996472547927676</v>
       </c>
-      <c r="P17" s="98">
+      <c r="P17" s="97">
         <f>STDEV(P8:P14)</f>
         <v>0.80099640329731792</v>
       </c>
-      <c r="Q17" s="98">
+      <c r="Q17" s="97">
         <f>STDEV(Q8:Q14)</f>
         <v>1.7551516011037724</v>
       </c>
-      <c r="R17" s="98">
+      <c r="R17" s="97">
         <f>STDEV(R8:R14)</f>
         <v>5.1490086886885864</v>
       </c>
@@ -23658,7 +23761,7 @@
       <c r="AA17" s="36">
         <v>47.673000000000002</v>
       </c>
-      <c r="AB17" s="100">
+      <c r="AB17" s="99">
         <v>85.634</v>
       </c>
     </row>
@@ -23666,22 +23769,22 @@
       <c r="B18" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="96">
+      <c r="C18" s="163">
+        <v>2</v>
+      </c>
+      <c r="D18" s="95">
         <v>25.187999999999999</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="80">
         <v>20.289000000000001</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="80">
         <v>27.094999999999999</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="80">
         <v>37.091999999999999</v>
       </c>
-      <c r="H18" s="99">
+      <c r="H18" s="98">
         <v>75.465999999999994</v>
       </c>
       <c r="L18" s="16" t="s">
@@ -23691,8 +23794,8 @@
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="20"/>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
+      <c r="C19" s="164">
+        <v>3</v>
       </c>
       <c r="D19" s="58">
         <v>25.206</v>
@@ -23706,23 +23809,23 @@
       <c r="G19" s="45">
         <v>46.658000000000001</v>
       </c>
-      <c r="H19" s="100">
+      <c r="H19" s="99">
         <v>86.363</v>
       </c>
-      <c r="L19" s="123" t="s">
+      <c r="L19" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="127"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="144"/>
     </row>
     <row r="20" spans="2:28" ht="17" thickBot="1">
       <c r="B20" s="21"/>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
+      <c r="C20" s="121">
+        <v>4</v>
       </c>
       <c r="D20" s="62">
         <v>26.280999999999999</v>
@@ -23736,16 +23839,16 @@
       <c r="G20" s="47">
         <v>38.689</v>
       </c>
-      <c r="H20" s="101">
+      <c r="H20" s="100">
         <v>83.039000000000001</v>
       </c>
-      <c r="L20" s="124"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="129"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="147"/>
     </row>
     <row r="21" spans="2:28" ht="17" thickBot="1">
       <c r="B21" s="25"/>
@@ -23772,11 +23875,11 @@
         <f>AVERAGE(H18:H20)</f>
         <v>81.62266666666666</v>
       </c>
-      <c r="L21" s="124"/>
-      <c r="M21" s="90" t="s">
+      <c r="L21" s="138"/>
+      <c r="M21" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="95" t="s">
+      <c r="N21" s="94" t="s">
         <v>49</v>
       </c>
       <c r="O21" s="67" t="s">
@@ -23788,7 +23891,7 @@
       <c r="Q21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="94" t="s">
+      <c r="R21" s="93" t="s">
         <v>53</v>
       </c>
     </row>
@@ -23823,19 +23926,19 @@
       <c r="M22" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="96">
+      <c r="N22" s="95">
         <v>42.615000000000002</v>
       </c>
-      <c r="O22" s="81">
+      <c r="O22" s="80">
         <v>16.533011999999999</v>
       </c>
-      <c r="P22" s="81">
+      <c r="P22" s="80">
         <v>19.641098</v>
       </c>
-      <c r="Q22" s="81">
+      <c r="Q22" s="80">
         <v>42.171048999999996</v>
       </c>
-      <c r="R22" s="99">
+      <c r="R22" s="98">
         <v>78.78</v>
       </c>
     </row>
@@ -23856,7 +23959,7 @@
       <c r="Q23" s="45">
         <v>47.249867000000002</v>
       </c>
-      <c r="R23" s="100">
+      <c r="R23" s="99">
         <v>76.841999999999999</v>
       </c>
     </row>
@@ -23881,12 +23984,12 @@
       <c r="Q24" s="45">
         <v>36.594388000000002</v>
       </c>
-      <c r="R24" s="100">
+      <c r="R24" s="99">
         <v>76.376000000000005</v>
       </c>
     </row>
     <row r="25" spans="2:28">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="137" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="70"/>
@@ -23907,14 +24010,16 @@
       <c r="Q25" s="45">
         <v>44.952913000000002</v>
       </c>
-      <c r="R25" s="100">
+      <c r="R25" s="99">
         <v>78.47</v>
       </c>
     </row>
     <row r="26" spans="2:28">
-      <c r="B26" s="124"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="71"/>
-      <c r="D26" s="78"/>
+      <c r="D26" s="78" t="s">
+        <v>72</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="25" t="s">
         <v>37</v>
@@ -23931,14 +24036,16 @@
       <c r="Q26" s="45">
         <v>51.909419</v>
       </c>
-      <c r="R26" s="100">
+      <c r="R26" s="99">
         <v>74.08</v>
       </c>
     </row>
     <row r="27" spans="2:28" ht="17" thickBot="1">
-      <c r="B27" s="124"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="79" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="168" t="s">
         <v>49</v>
       </c>
       <c r="L27" s="8"/>
@@ -23957,7 +24064,7 @@
       <c r="Q27" s="45">
         <v>34.942934000000001</v>
       </c>
-      <c r="R27" s="100">
+      <c r="R27" s="99">
         <v>98.539000000000001</v>
       </c>
     </row>
@@ -23965,92 +24072,92 @@
       <c r="B28" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="81">
         <v>3.4590000000000001</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="97">
+      <c r="N28" s="96">
         <v>42.396000000000001</v>
       </c>
-      <c r="O28" s="85">
+      <c r="O28" s="84">
         <v>14.684063</v>
       </c>
-      <c r="P28" s="86">
+      <c r="P28" s="85">
         <v>20.2498</v>
       </c>
       <c r="Q28" s="47">
         <v>43.770479999999999</v>
       </c>
-      <c r="R28" s="101">
+      <c r="R28" s="100">
         <v>74.396000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D29" s="82">
         <v>3.6059999999999999</v>
       </c>
       <c r="M29" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="98">
+      <c r="N29" s="97">
         <f>AVERAGE(N22:N28)</f>
         <v>41.849285714285713</v>
       </c>
-      <c r="O29" s="98">
+      <c r="O29" s="97">
         <f t="shared" ref="O29:P29" si="6">AVERAGE(O22:O28)</f>
         <v>14.184308999999999</v>
       </c>
-      <c r="P29" s="98">
+      <c r="P29" s="97">
         <f t="shared" si="6"/>
         <v>20.703462714285713</v>
       </c>
-      <c r="Q29" s="98">
+      <c r="Q29" s="97">
         <f>AVERAGE(Q22:Q28)</f>
         <v>43.084435714285711</v>
       </c>
-      <c r="R29" s="98">
+      <c r="R29" s="97">
         <f>AVERAGE(R22:R28)</f>
         <v>79.640428571428558</v>
       </c>
     </row>
     <row r="30" spans="2:28" ht="17" thickBot="1">
       <c r="B30" s="21"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="83">
         <v>3.7869999999999999</v>
       </c>
       <c r="M30" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N30" s="98">
+      <c r="N30" s="97">
         <f>STDEV(N22:N28)</f>
         <v>0.58910432417518777</v>
       </c>
-      <c r="O30" s="98">
+      <c r="O30" s="97">
         <f t="shared" ref="O30:R30" si="7">STDEV(O22:O28)</f>
         <v>2.2872797945274939</v>
       </c>
-      <c r="P30" s="98">
+      <c r="P30" s="97">
         <f t="shared" si="7"/>
         <v>1.8869742062776684</v>
       </c>
-      <c r="Q30" s="98">
+      <c r="Q30" s="97">
         <f t="shared" si="7"/>
         <v>5.8939525038465073</v>
       </c>
-      <c r="R30" s="98">
+      <c r="R30" s="97">
         <f t="shared" si="7"/>
         <v>8.5261982121213293</v>
       </c>
@@ -24070,7 +24177,7 @@
       <c r="C32" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="97">
         <f>MEDIAN(D28:D30)</f>
         <v>3.6059999999999999</v>
       </c>
@@ -24087,7 +24194,7 @@
         <f>STDEV(D28:D30)</f>
         <v>0.16429343667150342</v>
       </c>
-      <c r="L33" s="123" t="s">
+      <c r="L33" s="137" t="s">
         <v>15</v>
       </c>
       <c r="M33" s="73"/>
@@ -24098,50 +24205,54 @@
         <v>21</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="L34" s="124"/>
+      <c r="L34" s="138"/>
       <c r="M34" s="72"/>
-      <c r="N34" s="78"/>
+      <c r="N34" s="78" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="2:18" ht="17" thickBot="1">
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="127"/>
-      <c r="L35" s="124"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="144"/>
+      <c r="L35" s="138"/>
       <c r="M35" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="N35" s="169" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="124"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="129"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="147"/>
       <c r="L36" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="69" t="s">
+      <c r="M36" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="N36" s="82">
+      <c r="N36" s="81">
         <v>4.58</v>
       </c>
     </row>
     <row r="37" spans="2:18" ht="17" thickBot="1">
-      <c r="B37" s="124"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="95" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="94" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="67" t="s">
@@ -24153,14 +24264,14 @@
       <c r="G37" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="94" t="s">
+      <c r="H37" s="93" t="s">
         <v>47</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="25" t="s">
+      <c r="M37" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="83">
+      <c r="N37" s="82">
         <v>4.859</v>
       </c>
     </row>
@@ -24168,36 +24279,36 @@
       <c r="B38" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="96">
+      <c r="C38" s="163">
+        <v>1</v>
+      </c>
+      <c r="D38" s="95">
         <v>19.303889000000002</v>
       </c>
-      <c r="E38" s="81">
+      <c r="E38" s="80">
         <v>37.367761999999999</v>
       </c>
-      <c r="F38" s="81">
+      <c r="F38" s="80">
         <v>64.585999999999999</v>
       </c>
-      <c r="G38" s="81">
+      <c r="G38" s="80">
         <v>75.789000000000001</v>
       </c>
-      <c r="H38" s="99">
+      <c r="H38" s="98">
         <v>132.91499999999999</v>
       </c>
       <c r="L38" s="8"/>
-      <c r="M38" s="25" t="s">
+      <c r="M38" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="N38" s="83">
+      <c r="N38" s="82">
         <v>4.5979999999999999</v>
       </c>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="20"/>
-      <c r="C39" s="8" t="s">
-        <v>34</v>
+      <c r="C39" s="164">
+        <v>3</v>
       </c>
       <c r="D39" s="58">
         <v>18.385535000000001</v>
@@ -24211,21 +24322,21 @@
       <c r="G39" s="45">
         <v>102.56399999999999</v>
       </c>
-      <c r="H39" s="100">
+      <c r="H39" s="99">
         <v>180.43299999999999</v>
       </c>
       <c r="L39" s="8"/>
-      <c r="M39" s="25" t="s">
+      <c r="M39" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="N39" s="83">
+      <c r="N39" s="82">
         <v>4.71</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="17" thickBot="1">
       <c r="B40" s="21"/>
-      <c r="C40" s="9" t="s">
-        <v>35</v>
+      <c r="C40" s="121">
+        <v>4</v>
       </c>
       <c r="D40" s="62">
         <v>17.782442</v>
@@ -24239,14 +24350,14 @@
       <c r="G40" s="47">
         <v>83.712999999999994</v>
       </c>
-      <c r="H40" s="101">
+      <c r="H40" s="100">
         <v>155.619</v>
       </c>
       <c r="L40" s="8"/>
-      <c r="M40" s="25" t="s">
+      <c r="M40" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="N40" s="83">
+      <c r="N40" s="82">
         <v>4.4950000000000001</v>
       </c>
     </row>
@@ -24276,10 +24387,10 @@
         <v>156.32233333333332</v>
       </c>
       <c r="L41" s="8"/>
-      <c r="M41" s="25" t="s">
+      <c r="M41" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="N41" s="83">
+      <c r="N41" s="82">
         <v>4.4210000000000003</v>
       </c>
     </row>
@@ -24309,10 +24420,10 @@
         <v>23.766806460551901</v>
       </c>
       <c r="L42" s="9"/>
-      <c r="M42" s="64" t="s">
+      <c r="M42" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="N42" s="87">
+      <c r="N42" s="86">
         <v>4.5679999999999996</v>
       </c>
     </row>
@@ -24320,7 +24431,7 @@
       <c r="M43" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N43" s="98">
+      <c r="N43" s="97">
         <f>AVERAGE(N36:N42)</f>
         <v>4.6044285714285715</v>
       </c>
@@ -24329,7 +24440,7 @@
       <c r="M44" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="N44" s="98">
+      <c r="N44" s="97">
         <f>MEDIAN(N36:N42)</f>
         <v>4.58</v>
       </c>
@@ -24342,96 +24453,100 @@
       <c r="M45" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N45" s="98">
+      <c r="N45" s="97">
         <f>STDEV(N36:N42)</f>
         <v>0.14349083262570828</v>
       </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="110"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="127"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="144"/>
     </row>
     <row r="47" spans="2:18" ht="17" thickBot="1">
-      <c r="B47" s="124"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="147"/>
       <c r="L47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="2:18" ht="17" thickBot="1">
-      <c r="B48" s="124"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="95" t="s">
+      <c r="B48" s="138"/>
+      <c r="C48" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="94" t="s">
         <v>49</v>
       </c>
       <c r="E48" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="122" t="s">
+      <c r="F48" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="122" t="s">
+      <c r="G48" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="94" t="s">
+      <c r="H48" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="123" t="s">
+      <c r="L48" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="104"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="126"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="127"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="142"/>
+      <c r="O48" s="143"/>
+      <c r="P48" s="143"/>
+      <c r="Q48" s="143"/>
+      <c r="R48" s="144"/>
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="96">
+      <c r="D49" s="95">
         <v>64.5</v>
       </c>
-      <c r="E49" s="81">
+      <c r="E49" s="80">
         <v>45.6</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="80">
         <v>66.599999999999994</v>
       </c>
-      <c r="G49" s="81">
+      <c r="G49" s="80">
         <v>124</v>
       </c>
-      <c r="H49" s="99">
+      <c r="H49" s="98">
         <v>263.2</v>
       </c>
-      <c r="L49" s="124"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="128"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="128"/>
-      <c r="R49" s="129"/>
+      <c r="L49" s="138"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="145"/>
+      <c r="O49" s="146"/>
+      <c r="P49" s="146"/>
+      <c r="Q49" s="146"/>
+      <c r="R49" s="147"/>
     </row>
     <row r="50" spans="2:18" ht="17" thickBot="1">
       <c r="B50" s="20"/>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="164" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="58">
@@ -24446,32 +24561,32 @@
       <c r="G50" s="45">
         <v>147.5</v>
       </c>
-      <c r="H50" s="100">
+      <c r="H50" s="99">
         <v>279.2</v>
       </c>
-      <c r="L50" s="124"/>
-      <c r="M50" s="105" t="s">
+      <c r="L50" s="138"/>
+      <c r="M50" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="95" t="s">
+      <c r="N50" s="94" t="s">
         <v>49</v>
       </c>
       <c r="O50" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P50" s="122" t="s">
+      <c r="P50" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="Q50" s="122" t="s">
+      <c r="Q50" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="R50" s="94" t="s">
+      <c r="R50" s="93" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="2:18" ht="17" thickBot="1">
       <c r="B51" s="21"/>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="121" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="62">
@@ -24486,7 +24601,7 @@
       <c r="G51" s="47">
         <v>182</v>
       </c>
-      <c r="H51" s="101">
+      <c r="H51" s="100">
         <v>353.4</v>
       </c>
       <c r="L51" s="68" t="s">
@@ -24495,19 +24610,19 @@
       <c r="M51" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="N51" s="96">
+      <c r="N51" s="95">
         <v>17.650673000000001</v>
       </c>
-      <c r="O51" s="81">
+      <c r="O51" s="80">
         <v>27.422999999999998</v>
       </c>
-      <c r="P51" s="81">
+      <c r="P51" s="80">
         <v>50.039000000000001</v>
       </c>
-      <c r="Q51" s="81">
+      <c r="Q51" s="80">
         <v>83.334999999999994</v>
       </c>
-      <c r="R51" s="99">
+      <c r="R51" s="98">
         <v>110.124</v>
       </c>
     </row>
@@ -24552,7 +24667,7 @@
       <c r="Q52" s="45">
         <v>90.1</v>
       </c>
-      <c r="R52" s="100">
+      <c r="R52" s="99">
         <v>120.90900000000001</v>
       </c>
     </row>
@@ -24561,23 +24676,23 @@
       <c r="C53" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="98">
+      <c r="D53" s="97">
         <f>MEDIAN(D49:D51)</f>
         <v>64</v>
       </c>
-      <c r="E53" s="98">
+      <c r="E53" s="97">
         <f t="shared" ref="E53:H53" si="11">MEDIAN(E49:E51)</f>
         <v>44.2</v>
       </c>
-      <c r="F53" s="98">
+      <c r="F53" s="97">
         <f t="shared" si="11"/>
         <v>65.3</v>
       </c>
-      <c r="G53" s="98">
+      <c r="G53" s="97">
         <f t="shared" si="11"/>
         <v>147.5</v>
       </c>
-      <c r="H53" s="98">
+      <c r="H53" s="97">
         <f t="shared" si="11"/>
         <v>279.2</v>
       </c>
@@ -24597,7 +24712,7 @@
       <c r="Q53" s="45">
         <v>84.347999999999999</v>
       </c>
-      <c r="R53" s="100">
+      <c r="R53" s="99">
         <v>112.61499999999999</v>
       </c>
     </row>
@@ -24641,7 +24756,7 @@
       <c r="Q54" s="45">
         <v>85.944000000000003</v>
       </c>
-      <c r="R54" s="100">
+      <c r="R54" s="99">
         <v>214.214</v>
       </c>
     </row>
@@ -24662,7 +24777,7 @@
       <c r="Q55" s="45">
         <v>99.033000000000001</v>
       </c>
-      <c r="R55" s="100">
+      <c r="R55" s="99">
         <v>165.518</v>
       </c>
     </row>
@@ -24683,7 +24798,7 @@
       <c r="Q56" s="45">
         <v>84.320999999999998</v>
       </c>
-      <c r="R56" s="100">
+      <c r="R56" s="99">
         <v>135.69999999999999</v>
       </c>
     </row>
@@ -24692,19 +24807,19 @@
       <c r="M57" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="N57" s="97">
+      <c r="N57" s="96">
         <v>17.010323</v>
       </c>
-      <c r="O57" s="85">
+      <c r="O57" s="84">
         <v>22.979990999999998</v>
       </c>
-      <c r="P57" s="86">
+      <c r="P57" s="85">
         <v>42.622</v>
       </c>
       <c r="Q57" s="47">
         <v>89.733999999999995</v>
       </c>
-      <c r="R57" s="101">
+      <c r="R57" s="100">
         <v>128.99700000000001</v>
       </c>
     </row>
@@ -24712,23 +24827,23 @@
       <c r="M58" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N58" s="98">
+      <c r="N58" s="97">
         <f>AVERAGE(N51:N57)</f>
         <v>19.541167428571431</v>
       </c>
-      <c r="O58" s="98">
+      <c r="O58" s="97">
         <f t="shared" ref="O58:P58" si="12">AVERAGE(O51:O57)</f>
         <v>28.592677142857148</v>
       </c>
-      <c r="P58" s="98">
+      <c r="P58" s="97">
         <f t="shared" si="12"/>
         <v>47.905285714285718</v>
       </c>
-      <c r="Q58" s="98">
+      <c r="Q58" s="97">
         <f>AVERAGE(Q51:Q57)</f>
         <v>88.116428571428585</v>
       </c>
-      <c r="R58" s="98">
+      <c r="R58" s="97">
         <f>AVERAGE(R51:R57)</f>
         <v>141.15385714285716</v>
       </c>
@@ -24737,23 +24852,23 @@
       <c r="M59" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="98">
+      <c r="N59" s="97">
         <f>STDEV(N51:N57)</f>
         <v>3.3505988206607205</v>
       </c>
-      <c r="O59" s="98">
+      <c r="O59" s="97">
         <f t="shared" ref="O59:R59" si="13">STDEV(O51:O57)</f>
         <v>5.1414570709205272</v>
       </c>
-      <c r="P59" s="98">
+      <c r="P59" s="97">
         <f t="shared" si="13"/>
         <v>3.8711372882864672</v>
       </c>
-      <c r="Q59" s="98">
+      <c r="Q59" s="97">
         <f t="shared" si="13"/>
         <v>5.5062156047247459</v>
       </c>
-      <c r="R59" s="98">
+      <c r="R59" s="97">
         <f t="shared" si="13"/>
         <v>37.184455324900426</v>
       </c>
@@ -24765,43 +24880,45 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:18">
-      <c r="L63" s="123" t="s">
+      <c r="L63" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="110"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="126"/>
-      <c r="P63" s="126"/>
-      <c r="Q63" s="126"/>
-      <c r="R63" s="127"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="142"/>
+      <c r="O63" s="143"/>
+      <c r="P63" s="143"/>
+      <c r="Q63" s="143"/>
+      <c r="R63" s="144"/>
     </row>
     <row r="64" spans="2:18">
-      <c r="L64" s="124"/>
-      <c r="M64" s="111"/>
-      <c r="N64" s="131"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="128"/>
-      <c r="R64" s="129"/>
+      <c r="L64" s="138"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="O64" s="146"/>
+      <c r="P64" s="146"/>
+      <c r="Q64" s="146"/>
+      <c r="R64" s="147"/>
     </row>
     <row r="65" spans="12:18" ht="17" thickBot="1">
-      <c r="L65" s="124"/>
-      <c r="M65" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="N65" s="95" t="s">
+      <c r="L65" s="138"/>
+      <c r="M65" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="N65" s="94" t="s">
         <v>49</v>
       </c>
       <c r="O65" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P65" s="122" t="s">
+      <c r="P65" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="Q65" s="122" t="s">
+      <c r="Q65" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="R65" s="94" t="s">
+      <c r="R65" s="93" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24809,28 +24926,28 @@
       <c r="L66" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="69" t="s">
+      <c r="M66" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="N66" s="96">
+      <c r="N66" s="95">
         <v>56.5</v>
       </c>
-      <c r="O66" s="81">
+      <c r="O66" s="80">
         <v>42.3</v>
       </c>
-      <c r="P66" s="81">
+      <c r="P66" s="80">
         <v>69.2</v>
       </c>
-      <c r="Q66" s="81">
+      <c r="Q66" s="80">
         <v>107.1</v>
       </c>
-      <c r="R66" s="99">
+      <c r="R66" s="98">
         <v>150.19999999999999</v>
       </c>
     </row>
     <row r="67" spans="12:18">
       <c r="L67" s="8"/>
-      <c r="M67" s="25" t="s">
+      <c r="M67" s="171" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="58">
@@ -24845,13 +24962,13 @@
       <c r="Q67" s="45">
         <v>128</v>
       </c>
-      <c r="R67" s="100">
+      <c r="R67" s="99">
         <v>150.1</v>
       </c>
     </row>
     <row r="68" spans="12:18">
       <c r="L68" s="8"/>
-      <c r="M68" s="25" t="s">
+      <c r="M68" s="171" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="58">
@@ -24866,13 +24983,13 @@
       <c r="Q68" s="45">
         <v>155.1</v>
       </c>
-      <c r="R68" s="100">
+      <c r="R68" s="99">
         <v>264.60000000000002</v>
       </c>
     </row>
     <row r="69" spans="12:18">
       <c r="L69" s="8"/>
-      <c r="M69" s="25" t="s">
+      <c r="M69" s="171" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="58">
@@ -24887,13 +25004,13 @@
       <c r="Q69" s="45">
         <v>132.80000000000001</v>
       </c>
-      <c r="R69" s="100">
+      <c r="R69" s="99">
         <v>192.9</v>
       </c>
     </row>
     <row r="70" spans="12:18">
       <c r="L70" s="8"/>
-      <c r="M70" s="25" t="s">
+      <c r="M70" s="171" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="58">
@@ -24908,13 +25025,13 @@
       <c r="Q70" s="45">
         <v>119.7</v>
       </c>
-      <c r="R70" s="100">
+      <c r="R70" s="99">
         <v>279.7</v>
       </c>
     </row>
     <row r="71" spans="12:18">
       <c r="L71" s="8"/>
-      <c r="M71" s="25" t="s">
+      <c r="M71" s="171" t="s">
         <v>38</v>
       </c>
       <c r="N71" s="58">
@@ -24929,28 +25046,28 @@
       <c r="Q71" s="45">
         <v>151.69999999999999</v>
       </c>
-      <c r="R71" s="100">
+      <c r="R71" s="99">
         <v>149.80000000000001</v>
       </c>
     </row>
     <row r="72" spans="12:18" ht="17" thickBot="1">
       <c r="L72" s="9"/>
-      <c r="M72" s="64" t="s">
+      <c r="M72" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="N72" s="97">
+      <c r="N72" s="96">
         <v>55.9</v>
       </c>
-      <c r="O72" s="85">
+      <c r="O72" s="84">
         <v>41.6</v>
       </c>
-      <c r="P72" s="86">
+      <c r="P72" s="85">
         <v>66</v>
       </c>
       <c r="Q72" s="47">
         <v>147.4</v>
       </c>
-      <c r="R72" s="101">
+      <c r="R72" s="100">
         <v>129.80000000000001</v>
       </c>
     </row>
@@ -24958,23 +25075,23 @@
       <c r="M73" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N73" s="98">
+      <c r="N73" s="97">
         <f>AVERAGE(N66:N72)</f>
         <v>56.98571428571428</v>
       </c>
-      <c r="O73" s="98">
+      <c r="O73" s="97">
         <f t="shared" ref="O73:P73" si="14">AVERAGE(O66:O72)</f>
         <v>42.757142857142867</v>
       </c>
-      <c r="P73" s="98">
+      <c r="P73" s="97">
         <f t="shared" si="14"/>
         <v>67.085714285714289</v>
       </c>
-      <c r="Q73" s="98">
+      <c r="Q73" s="97">
         <f>AVERAGE(Q66:Q72)</f>
         <v>134.54285714285714</v>
       </c>
-      <c r="R73" s="98">
+      <c r="R73" s="97">
         <f>AVERAGE(R66:R72)</f>
         <v>188.15714285714284</v>
       </c>
@@ -24983,23 +25100,23 @@
       <c r="M74" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="N74" s="98">
+      <c r="N74" s="97">
         <f>MEDIAN(N66:N72)</f>
         <v>56.5</v>
       </c>
-      <c r="O74" s="98">
+      <c r="O74" s="97">
         <f t="shared" ref="O74:R74" si="15">MEDIAN(O66:O72)</f>
         <v>42.3</v>
       </c>
-      <c r="P74" s="98">
+      <c r="P74" s="97">
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
-      <c r="Q74" s="98">
+      <c r="Q74" s="97">
         <f t="shared" si="15"/>
         <v>132.80000000000001</v>
       </c>
-      <c r="R74" s="98">
+      <c r="R74" s="97">
         <f t="shared" si="15"/>
         <v>150.19999999999999</v>
       </c>
@@ -25008,38 +25125,42 @@
       <c r="M75" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="N75" s="98">
+      <c r="N75" s="97">
         <f>STDEV(N66:N72)</f>
         <v>1.8206487593058416</v>
       </c>
-      <c r="O75" s="98">
+      <c r="O75" s="97">
         <f>STDEV(O66:O72)</f>
         <v>1.8581865199320402</v>
       </c>
-      <c r="P75" s="98">
+      <c r="P75" s="97">
         <f>STDEV(P66:P72)</f>
         <v>3.67170649309399</v>
       </c>
-      <c r="Q75" s="98">
+      <c r="Q75" s="97">
         <f>STDEV(Q66:Q72)</f>
         <v>17.802327295689569</v>
       </c>
-      <c r="R75" s="98">
+      <c r="R75" s="97">
         <f>STDEV(R66:R72)</f>
         <v>60.569542872713981</v>
       </c>
     </row>
     <row r="96" spans="14:14" ht="18">
-      <c r="N96" s="107"/>
+      <c r="N96" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D47:H47"/>
@@ -25053,16 +25174,12 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25081,11 +25198,11 @@
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="115"/>
+    <col min="6" max="6" width="10.83203125" style="113"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="115"/>
+    <col min="9" max="9" width="10.83203125" style="113"/>
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="115"/>
+    <col min="12" max="12" width="10.83203125" style="113"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -25095,19 +25212,19 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="116" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="116" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="118" t="s">
+      <c r="L2" s="116" t="s">
         <v>18</v>
       </c>
     </row>
@@ -25121,19 +25238,19 @@
       <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="116">
+      <c r="F3" s="114">
         <v>40</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="116">
+      <c r="I3" s="114">
         <v>96</v>
       </c>
       <c r="K3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="117">
+      <c r="L3" s="115">
         <v>8</v>
       </c>
     </row>
@@ -25147,20 +25264,20 @@
       <c r="E4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="116">
+      <c r="F4" s="114">
         <v>24</v>
       </c>
       <c r="H4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="115">
         <v>24</v>
       </c>
       <c r="J4" s="45"/>
       <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="115">
+      <c r="L4" s="113">
         <v>24</v>
       </c>
     </row>
@@ -25174,20 +25291,20 @@
       <c r="E5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="113">
         <v>112</v>
       </c>
       <c r="H5" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="115">
         <v>24</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="115">
+      <c r="L5" s="113">
         <v>160</v>
       </c>
     </row>
@@ -25197,7 +25314,7 @@
       <c r="H6" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="115">
+      <c r="I6" s="113">
         <v>160</v>
       </c>
     </row>
@@ -25205,7 +25322,7 @@
       <c r="H7" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="115">
+      <c r="I7" s="113">
         <v>16</v>
       </c>
     </row>
@@ -25238,71 +25355,71 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
-      <c r="I2" s="134" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
+      <c r="I2" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="152"/>
     </row>
     <row r="3" spans="2:11" ht="17" thickBot="1">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="I3" s="137" t="s">
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="155"/>
+      <c r="I3" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="136"/>
-      <c r="I4" s="132" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="152"/>
+      <c r="I4" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="134" t="s">
+      <c r="J4" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="136"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="133"/>
-      <c r="C5" s="141" t="s">
+      <c r="B5" s="149"/>
+      <c r="C5" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="143"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="141" t="s">
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="159"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="143"/>
+      <c r="K5" s="159"/>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1">
-      <c r="B6" s="140"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
@@ -25318,8 +25435,8 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="140"/>
-      <c r="J6" s="119" t="s">
+      <c r="I6" s="156"/>
+      <c r="J6" s="117" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -25351,7 +25468,7 @@
       <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="120" t="s">
+      <c r="K7" s="118" t="s">
         <v>55</v>
       </c>
     </row>
@@ -25380,7 +25497,7 @@
       <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="120" t="s">
+      <c r="K8" s="118" t="s">
         <v>54</v>
       </c>
     </row>
@@ -25409,7 +25526,7 @@
       <c r="J9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="119" t="s">
         <v>56</v>
       </c>
     </row>
@@ -25467,37 +25584,37 @@
   <sheetData>
     <row r="1" spans="2:28" ht="17" thickBot="1"/>
     <row r="2" spans="2:28" ht="17" thickBot="1">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
       <c r="I2" s="54"/>
       <c r="J2" s="27"/>
-      <c r="L2" s="145" t="s">
+      <c r="L2" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
       <c r="S2" s="54"/>
       <c r="T2" s="27"/>
-      <c r="V2" s="145" t="s">
+      <c r="V2" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="16"/>
@@ -25516,86 +25633,86 @@
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
       <c r="I5" s="23"/>
       <c r="J5" s="28"/>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="130" t="s">
+      <c r="M5" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
       <c r="S5" s="23"/>
       <c r="T5" s="28"/>
-      <c r="V5" s="123" t="s">
+      <c r="V5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="130" t="s">
+      <c r="W5" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="124"/>
-      <c r="C6" s="133" t="s">
+      <c r="B6" s="138"/>
+      <c r="C6" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
       <c r="I6" s="23"/>
       <c r="J6" s="28"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="133" t="s">
+      <c r="L6" s="138"/>
+      <c r="M6" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="128" t="s">
+      <c r="N6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
       <c r="S6" s="23"/>
       <c r="T6" s="28"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="133" t="s">
+      <c r="V6" s="138"/>
+      <c r="W6" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="128" t="s">
+      <c r="X6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="124"/>
-      <c r="C7" s="144"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25613,8 +25730,8 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="144"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="160"/>
       <c r="N7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25632,8 +25749,8 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="29"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="144"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="160"/>
       <c r="X7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25920,78 +26037,78 @@
       </c>
     </row>
     <row r="15" spans="2:28">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="L15" s="123" t="s">
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="130" t="s">
+      <c r="M15" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="V15" s="123" t="s">
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="V15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="130" t="s">
+      <c r="W15" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="126"/>
-      <c r="Z15" s="126"/>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="143"/>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="124"/>
-      <c r="C16" s="133" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="133" t="s">
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="128" t="s">
+      <c r="N16" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="133" t="s">
+      <c r="O16" s="146"/>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="146"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="128" t="s">
+      <c r="X16" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
+      <c r="Y16" s="146"/>
+      <c r="Z16" s="146"/>
+      <c r="AA16" s="146"/>
+      <c r="AB16" s="146"/>
     </row>
     <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="124"/>
-      <c r="C17" s="144"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
@@ -26007,8 +26124,8 @@
       <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="124"/>
-      <c r="M17" s="144"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="160"/>
       <c r="N17" s="32" t="s">
         <v>22</v>
       </c>
@@ -26024,8 +26141,8 @@
       <c r="R17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="124"/>
-      <c r="W17" s="144"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="160"/>
       <c r="X17" s="50" t="s">
         <v>22</v>
       </c>
@@ -26286,17 +26403,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="B15:B17"/>
@@ -26313,6 +26419,17 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:R16"/>
     <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26396,59 +26513,59 @@
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="L5" s="123" t="s">
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="144"/>
+      <c r="L5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="130"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="127"/>
-      <c r="V5" s="123" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="144"/>
+      <c r="V5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="130"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="127"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="144"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="124"/>
-      <c r="C6" s="131" t="s">
+      <c r="B6" s="138"/>
+      <c r="C6" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="131" t="s">
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="147"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="129"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="131" t="s">
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="147"/>
+      <c r="V6" s="138"/>
+      <c r="W6" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="129"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="147"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="124"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
@@ -26464,7 +26581,7 @@
       <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="124"/>
+      <c r="L7" s="138"/>
       <c r="M7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26480,7 +26597,7 @@
       <c r="Q7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="124"/>
+      <c r="V7" s="138"/>
       <c r="W7" s="57" t="s">
         <v>22</v>
       </c>

--- a/Docs/Clasificación.xlsx
+++ b/Docs/Clasificación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansanchez/Desktop/ssanchez59_Blockchain/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F985B77D-FEB7-C042-8D9A-D2070899022F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA1C585-5335-9E4E-AB95-2E24BEB1100A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
   </bookViews>
@@ -283,7 +283,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1040,6 +1040,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,7 +1105,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,13 +1123,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1116,62 +1172,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -22114,11 +22114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DA798-74D2-DF47-B94E-DCEC5261F551}">
   <dimension ref="B2:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -22126,27 +22126,27 @@
     <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:26">
-      <c r="B3" s="139" t="s">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B3" s="161" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:26">
-      <c r="B4" s="139"/>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B4" s="161"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:26" ht="17" thickBot="1">
-      <c r="B5" s="139"/>
+    <row r="5" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="161"/>
       <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
@@ -22173,7 +22173,7 @@
       <c r="E6" s="36">
         <v>397</v>
       </c>
-      <c r="V6" s="137" t="s">
+      <c r="V6" s="159" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="75"/>
@@ -22181,7 +22181,7 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
         <v>2</v>
       </c>
@@ -22194,13 +22194,13 @@
       <c r="E7" s="36">
         <v>74</v>
       </c>
-      <c r="V7" s="138"/>
+      <c r="V7" s="160"/>
       <c r="W7" s="75"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
     </row>
-    <row r="8" spans="2:26" ht="17" thickBot="1">
+    <row r="8" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
@@ -22220,7 +22220,7 @@
       <c r="M8" s="131"/>
       <c r="N8" s="131"/>
       <c r="O8" s="131"/>
-      <c r="V8" s="138"/>
+      <c r="V8" s="160"/>
       <c r="W8" s="75" t="s">
         <v>46</v>
       </c>
@@ -22234,7 +22234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -22248,13 +22248,13 @@
         <v>9558</v>
       </c>
       <c r="I9" s="131"/>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="183"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="179"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="152"/>
       <c r="O9" s="131"/>
       <c r="V9" s="20" t="s">
         <v>32</v>
@@ -22272,15 +22272,15 @@
         <v>8954</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="I10" s="131"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="173" t="s">
+      <c r="J10" s="163"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="173"/>
-      <c r="N10" s="180"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="167"/>
       <c r="O10" s="131"/>
       <c r="V10" s="20"/>
       <c r="W10" s="91">
@@ -22296,19 +22296,19 @@
         <v>8839</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="17" thickBot="1">
+    <row r="11" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I11" s="131"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="185" t="s">
+      <c r="J11" s="163"/>
+      <c r="K11" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="181" t="s">
+      <c r="L11" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="181" t="s">
+      <c r="M11" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="182" t="s">
+      <c r="N11" s="154" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="131"/>
@@ -22326,7 +22326,7 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="I12" s="131"/>
       <c r="J12" s="133" t="s">
         <v>1</v>
@@ -22358,7 +22358,7 @@
         <v>8946</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="17" thickBot="1">
+    <row r="13" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I13" s="131"/>
       <c r="J13" s="133"/>
       <c r="K13" s="126" t="s">
@@ -22388,7 +22388,7 @@
         <v>8627</v>
       </c>
     </row>
-    <row r="14" spans="2:26">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="I14" s="131"/>
       <c r="J14" s="133"/>
       <c r="K14" s="126" t="s">
@@ -22420,7 +22420,7 @@
         <v>8798.7999999999993</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="I15" s="131"/>
       <c r="J15" s="133"/>
       <c r="K15" s="126" t="s">
@@ -22452,7 +22452,7 @@
         <v>162.83335039235666</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="17" thickBot="1">
+    <row r="16" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I16" s="131"/>
       <c r="J16" s="134"/>
       <c r="K16" s="128" t="s">
@@ -22484,7 +22484,7 @@
         <v>8839</v>
       </c>
     </row>
-    <row r="17" spans="9:26">
+    <row r="17" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I17" s="131"/>
       <c r="J17" s="131"/>
       <c r="K17" s="131" t="s">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="O17" s="131"/>
     </row>
-    <row r="18" spans="9:26" ht="17" thickBot="1">
+    <row r="18" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I18" s="131"/>
       <c r="J18" s="131"/>
       <c r="K18" s="131" t="s">
@@ -22527,7 +22527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="9:26">
+    <row r="19" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I19" s="131"/>
       <c r="J19" s="131"/>
       <c r="K19" s="131" t="s">
@@ -22546,7 +22546,7 @@
         <v>5.2249401910452526</v>
       </c>
       <c r="O19" s="131"/>
-      <c r="V19" s="137" t="s">
+      <c r="V19" s="159" t="s">
         <v>15</v>
       </c>
       <c r="W19" s="75"/>
@@ -22554,7 +22554,7 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
     </row>
-    <row r="20" spans="9:26">
+    <row r="20" spans="9:26" x14ac:dyDescent="0.2">
       <c r="I20" s="131"/>
       <c r="J20" s="131"/>
       <c r="K20" s="131"/>
@@ -22562,14 +22562,14 @@
       <c r="M20" s="131"/>
       <c r="N20" s="131"/>
       <c r="O20" s="131"/>
-      <c r="V20" s="138"/>
+      <c r="V20" s="160"/>
       <c r="W20" s="75"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
     </row>
-    <row r="21" spans="9:26" ht="17" thickBot="1">
-      <c r="V21" s="138"/>
+    <row r="21" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="160"/>
       <c r="W21" s="75" t="s">
         <v>46</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="9:26" ht="17" thickBot="1">
+    <row r="22" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J22" s="16"/>
       <c r="V22" s="20" t="s">
         <v>59</v>
@@ -22601,14 +22601,14 @@
         <v>5524</v>
       </c>
     </row>
-    <row r="23" spans="9:26">
-      <c r="J23" s="137" t="s">
+    <row r="23" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="J23" s="159" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="77"/>
-      <c r="L23" s="174"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="175"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="148"/>
       <c r="V23" s="20"/>
       <c r="W23" s="91">
         <v>2</v>
@@ -22623,14 +22623,14 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="24" spans="9:26">
-      <c r="J24" s="138"/>
+    <row r="24" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="J24" s="160"/>
       <c r="K24" s="78"/>
-      <c r="L24" s="146" t="s">
+      <c r="L24" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="M24" s="146"/>
-      <c r="N24" s="147"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="165"/>
       <c r="V24" s="20"/>
       <c r="W24" s="91">
         <v>3</v>
@@ -22645,18 +22645,18 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="25" spans="9:26" ht="17" thickBot="1">
-      <c r="J25" s="138"/>
-      <c r="K25" s="186" t="s">
+    <row r="25" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="160"/>
+      <c r="K25" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="176" t="s">
+      <c r="L25" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="176" t="s">
+      <c r="M25" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="177" t="s">
+      <c r="N25" s="150" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="20"/>
@@ -22673,7 +22673,7 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="26" spans="9:26" ht="17" thickBot="1">
+    <row r="26" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J26" s="20" t="s">
         <v>2</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="27" spans="9:26">
+    <row r="27" spans="9:26" x14ac:dyDescent="0.2">
       <c r="J27" s="20"/>
       <c r="K27" s="126" t="s">
         <v>74</v>
@@ -22733,7 +22733,7 @@
         <v>5683.2</v>
       </c>
     </row>
-    <row r="28" spans="9:26">
+    <row r="28" spans="9:26" x14ac:dyDescent="0.2">
       <c r="J28" s="20"/>
       <c r="K28" s="126" t="s">
         <v>75</v>
@@ -22763,7 +22763,7 @@
         <v>167.52522198164669</v>
       </c>
     </row>
-    <row r="29" spans="9:26">
+    <row r="29" spans="9:26" x14ac:dyDescent="0.2">
       <c r="J29" s="20"/>
       <c r="K29" s="126" t="s">
         <v>76</v>
@@ -22793,7 +22793,7 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="30" spans="9:26" ht="17" thickBot="1">
+    <row r="30" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J30" s="21"/>
       <c r="K30" s="128" t="s">
         <v>77</v>
@@ -22808,7 +22808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="9:26">
+    <row r="31" spans="9:26" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>41</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>0.98094449047224519</v>
       </c>
     </row>
-    <row r="32" spans="9:26">
+    <row r="32" spans="9:26" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>68</v>
       </c>
@@ -22858,7 +22858,7 @@
         <v>0.91705069124423966</v>
       </c>
     </row>
-    <row r="33" spans="10:20">
+    <row r="33" spans="10:20" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
         <v>48</v>
       </c>
@@ -22883,43 +22883,43 @@
         <v>0.947350377118229</v>
       </c>
     </row>
-    <row r="36" spans="10:20" ht="17" thickBot="1">
+    <row r="36" spans="10:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="10:20">
-      <c r="J37" s="137" t="s">
+    <row r="37" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J37" s="159" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="77"/>
-      <c r="L37" s="174"/>
-      <c r="M37" s="174"/>
-      <c r="N37" s="175"/>
+      <c r="L37" s="147"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="148"/>
     </row>
-    <row r="38" spans="10:20">
-      <c r="J38" s="138"/>
+    <row r="38" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J38" s="160"/>
       <c r="K38" s="78"/>
-      <c r="L38" s="146" t="s">
+      <c r="L38" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="M38" s="146"/>
-      <c r="N38" s="147"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="165"/>
     </row>
-    <row r="39" spans="10:20" ht="17" thickBot="1">
-      <c r="J39" s="138"/>
-      <c r="K39" s="186" t="s">
+    <row r="39" spans="10:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="160"/>
+      <c r="K39" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="176" t="s">
+      <c r="L39" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="176" t="s">
+      <c r="M39" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="177" t="s">
+      <c r="N39" s="150" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="10:20">
+    <row r="40" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J40" s="20" t="s">
         <v>32</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="41" spans="10:20">
+    <row r="41" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J41" s="20"/>
       <c r="K41" s="126" t="s">
         <v>74</v>
@@ -22951,7 +22951,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="42" spans="10:20">
+    <row r="42" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J42" s="20"/>
       <c r="K42" s="126" t="s">
         <v>75</v>
@@ -22966,7 +22966,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="43" spans="10:20">
+    <row r="43" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J43" s="20"/>
       <c r="K43" s="126" t="s">
         <v>76</v>
@@ -22981,7 +22981,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="44" spans="10:20" ht="17" thickBot="1">
+    <row r="44" spans="10:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J44" s="21"/>
       <c r="K44" s="128" t="s">
         <v>77</v>
@@ -22996,7 +22996,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="45" spans="10:20">
+    <row r="45" spans="10:20" x14ac:dyDescent="0.2">
       <c r="K45" t="s">
         <v>41</v>
       </c>
@@ -23013,7 +23013,7 @@
         <v>3868.6</v>
       </c>
     </row>
-    <row r="46" spans="10:20">
+    <row r="46" spans="10:20" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
         <v>68</v>
       </c>
@@ -23030,7 +23030,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="47" spans="10:20">
+    <row r="47" spans="10:20" x14ac:dyDescent="0.2">
       <c r="K47" t="s">
         <v>48</v>
       </c>
@@ -23072,7 +23072,7 @@
       <selection activeCell="V6" sqref="V6:AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
@@ -23097,7 +23097,7 @@
     <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
@@ -23123,7 +23123,7 @@
       </c>
       <c r="W2" s="16"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1">
+    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
@@ -23133,65 +23133,65 @@
       </c>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="2:28" ht="17" thickBot="1">
-      <c r="B5" s="137" t="s">
+    <row r="5" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="159" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="88"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="144"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="54"/>
       <c r="J5" s="27"/>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="159" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="88"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="144"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="169"/>
       <c r="V5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="138"/>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="160"/>
       <c r="C6" s="89"/>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="147"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="54"/>
       <c r="J6" s="27"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="160"/>
       <c r="M6" s="89"/>
-      <c r="N6" s="145" t="s">
+      <c r="N6" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="147"/>
-      <c r="V6" s="148" t="s">
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="165"/>
+      <c r="V6" s="172" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="88"/>
-      <c r="X6" s="143"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="143"/>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="144"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="168"/>
+      <c r="AB6" s="169"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="138"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="160"/>
       <c r="C7" s="89" t="s">
         <v>71</v>
       </c>
@@ -23212,7 +23212,7 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="138"/>
+      <c r="L7" s="160"/>
       <c r="M7" s="89" t="s">
         <v>71</v>
       </c>
@@ -23231,21 +23231,21 @@
       <c r="R7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="149"/>
+      <c r="V7" s="173"/>
       <c r="W7" s="89"/>
-      <c r="X7" s="146" t="s">
+      <c r="X7" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="147"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="164"/>
+      <c r="AB7" s="165"/>
     </row>
-    <row r="8" spans="2:28" ht="17" thickBot="1">
+    <row r="8" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="137" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="95">
@@ -23286,7 +23286,7 @@
       <c r="R8" s="98">
         <v>13.65</v>
       </c>
-      <c r="V8" s="149"/>
+      <c r="V8" s="173"/>
       <c r="W8" s="105" t="s">
         <v>71</v>
       </c>
@@ -23306,9 +23306,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:28">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
-      <c r="C9" s="164" t="s">
+      <c r="C9" s="138" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="58">
@@ -23350,7 +23350,7 @@
       <c r="V9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="170" t="s">
+      <c r="W9" s="144" t="s">
         <v>33</v>
       </c>
       <c r="X9" s="34">
@@ -23369,7 +23369,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17" thickBot="1">
+    <row r="10" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="121" t="s">
         <v>35</v>
@@ -23413,7 +23413,7 @@
       <c r="V10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="171" t="s">
+      <c r="W10" s="145" t="s">
         <v>33</v>
       </c>
       <c r="X10" s="36">
@@ -23424,7 +23424,7 @@
       <c r="AA10" s="87"/>
       <c r="AB10" s="99"/>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1">
+    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="74" t="s">
         <v>41</v>
@@ -23473,7 +23473,7 @@
       <c r="V11" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="172" t="s">
+      <c r="W11" s="146" t="s">
         <v>58</v>
       </c>
       <c r="X11" s="112">
@@ -23492,7 +23492,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="12" spans="2:28">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="74" t="s">
         <v>68</v>
@@ -23539,7 +23539,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="13" spans="2:28">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="74" t="s">
         <v>48</v>
@@ -23586,7 +23586,7 @@
         <v>23.73</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="17" thickBot="1">
+    <row r="14" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
@@ -23611,16 +23611,16 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
-      <c r="B15" s="137" t="s">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="159" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="88"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="144"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
       <c r="M15" s="74" t="s">
         <v>41</v>
       </c>
@@ -23645,16 +23645,16 @@
         <v>22.612857142857141</v>
       </c>
     </row>
-    <row r="16" spans="2:28">
-      <c r="B16" s="138"/>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="160"/>
       <c r="C16" s="89"/>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
       <c r="M16" s="74" t="s">
         <v>68</v>
       </c>
@@ -23700,8 +23700,8 @@
         <v>137.136</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="138"/>
+    <row r="17" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="160"/>
       <c r="C17" s="89" t="s">
         <v>71</v>
       </c>
@@ -23765,11 +23765,11 @@
         <v>85.634</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="17" thickBot="1">
+    <row r="18" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="163">
+      <c r="C18" s="137">
         <v>2</v>
       </c>
       <c r="D18" s="95">
@@ -23792,9 +23792,9 @@
       </c>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
-      <c r="C19" s="164">
+      <c r="C19" s="138">
         <v>3</v>
       </c>
       <c r="D19" s="58">
@@ -23812,17 +23812,17 @@
       <c r="H19" s="99">
         <v>86.363</v>
       </c>
-      <c r="L19" s="137" t="s">
+      <c r="L19" s="159" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="88"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="168"/>
+      <c r="Q19" s="168"/>
+      <c r="R19" s="169"/>
     </row>
-    <row r="20" spans="2:28" ht="17" thickBot="1">
+    <row r="20" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="121">
         <v>4</v>
@@ -23842,15 +23842,15 @@
       <c r="H20" s="100">
         <v>83.039000000000001</v>
       </c>
-      <c r="L20" s="138"/>
+      <c r="L20" s="160"/>
       <c r="M20" s="89"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="147"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="165"/>
     </row>
-    <row r="21" spans="2:28" ht="17" thickBot="1">
+    <row r="21" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
       <c r="C21" s="74" t="s">
         <v>41</v>
@@ -23875,7 +23875,7 @@
         <f>AVERAGE(H18:H20)</f>
         <v>81.62266666666666</v>
       </c>
-      <c r="L21" s="138"/>
+      <c r="L21" s="160"/>
       <c r="M21" s="89" t="s">
         <v>39</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="74" t="s">
         <v>48</v>
@@ -23942,7 +23942,7 @@
         <v>78.78</v>
       </c>
     </row>
-    <row r="23" spans="2:28">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="L23" s="8"/>
       <c r="M23" s="25" t="s">
         <v>34</v>
@@ -23963,7 +23963,7 @@
         <v>76.841999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:28" ht="17" thickBot="1">
+    <row r="24" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
@@ -23988,8 +23988,8 @@
         <v>76.376000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:28">
-      <c r="B25" s="137" t="s">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25" s="159" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="70"/>
@@ -24014,8 +24014,8 @@
         <v>78.47</v>
       </c>
     </row>
-    <row r="26" spans="2:28">
-      <c r="B26" s="138"/>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" s="160"/>
       <c r="C26" s="71"/>
       <c r="D26" s="78" t="s">
         <v>72</v>
@@ -24040,12 +24040,12 @@
         <v>74.08</v>
       </c>
     </row>
-    <row r="27" spans="2:28" ht="17" thickBot="1">
-      <c r="B27" s="138"/>
+    <row r="27" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="160"/>
       <c r="C27" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="142" t="s">
         <v>49</v>
       </c>
       <c r="L27" s="8"/>
@@ -24068,11 +24068,11 @@
         <v>98.539000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="17" thickBot="1">
+    <row r="28" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="165" t="s">
+      <c r="C28" s="139" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="81">
@@ -24098,9 +24098,9 @@
         <v>74.396000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
-      <c r="C29" s="166" t="s">
+      <c r="C29" s="140" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="82">
@@ -24130,9 +24130,9 @@
         <v>79.640428571428558</v>
       </c>
     </row>
-    <row r="30" spans="2:28" ht="17" thickBot="1">
+    <row r="30" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="141" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="83">
@@ -24162,7 +24162,7 @@
         <v>8.5261982121213293</v>
       </c>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="25"/>
       <c r="C31" s="74" t="s">
         <v>41</v>
@@ -24172,7 +24172,7 @@
         <v>3.6173333333333333</v>
       </c>
     </row>
-    <row r="32" spans="2:28" ht="17" thickBot="1">
+    <row r="32" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
       <c r="C32" s="74" t="s">
         <v>68</v>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="74" t="s">
         <v>48</v>
       </c>
@@ -24194,61 +24194,61 @@
         <f>STDEV(D28:D30)</f>
         <v>0.16429343667150342</v>
       </c>
-      <c r="L33" s="137" t="s">
+      <c r="L33" s="159" t="s">
         <v>15</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="77"/>
     </row>
-    <row r="34" spans="2:18" ht="17" thickBot="1">
+    <row r="34" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="L34" s="138"/>
+      <c r="L34" s="160"/>
       <c r="M34" s="72"/>
       <c r="N34" s="78" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="17" thickBot="1">
-      <c r="B35" s="137" t="s">
+    <row r="35" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="159" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="103"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="144"/>
-      <c r="L35" s="138"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="169"/>
+      <c r="L35" s="160"/>
       <c r="M35" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="N35" s="169" t="s">
+      <c r="N35" s="143" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="138"/>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="160"/>
       <c r="C36" s="104"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="147"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="165"/>
       <c r="L36" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="170" t="s">
+      <c r="M36" s="144" t="s">
         <v>33</v>
       </c>
       <c r="N36" s="81">
         <v>4.58</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="17" thickBot="1">
-      <c r="B37" s="138"/>
+    <row r="37" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="160"/>
       <c r="C37" s="104" t="s">
         <v>71</v>
       </c>
@@ -24268,18 +24268,18 @@
         <v>47</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="171" t="s">
+      <c r="M37" s="145" t="s">
         <v>34</v>
       </c>
       <c r="N37" s="82">
         <v>4.859</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="163">
+      <c r="C38" s="137">
         <v>1</v>
       </c>
       <c r="D38" s="95">
@@ -24298,16 +24298,16 @@
         <v>132.91499999999999</v>
       </c>
       <c r="L38" s="8"/>
-      <c r="M38" s="171" t="s">
+      <c r="M38" s="145" t="s">
         <v>35</v>
       </c>
       <c r="N38" s="82">
         <v>4.5979999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="20"/>
-      <c r="C39" s="164">
+      <c r="C39" s="138">
         <v>3</v>
       </c>
       <c r="D39" s="58">
@@ -24326,14 +24326,14 @@
         <v>180.43299999999999</v>
       </c>
       <c r="L39" s="8"/>
-      <c r="M39" s="171" t="s">
+      <c r="M39" s="145" t="s">
         <v>36</v>
       </c>
       <c r="N39" s="82">
         <v>4.71</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="17" thickBot="1">
+    <row r="40" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="121">
         <v>4</v>
@@ -24354,14 +24354,14 @@
         <v>155.619</v>
       </c>
       <c r="L40" s="8"/>
-      <c r="M40" s="171" t="s">
+      <c r="M40" s="145" t="s">
         <v>37</v>
       </c>
       <c r="N40" s="82">
         <v>4.4950000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="74" t="s">
         <v>41</v>
@@ -24387,14 +24387,14 @@
         <v>156.32233333333332</v>
       </c>
       <c r="L41" s="8"/>
-      <c r="M41" s="171" t="s">
+      <c r="M41" s="145" t="s">
         <v>38</v>
       </c>
       <c r="N41" s="82">
         <v>4.4210000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="17" thickBot="1">
+    <row r="42" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="25"/>
       <c r="C42" s="74" t="s">
         <v>48</v>
@@ -24427,7 +24427,7 @@
         <v>4.5679999999999996</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M43" s="74" t="s">
         <v>41</v>
       </c>
@@ -24436,7 +24436,7 @@
         <v>4.6044285714285715</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M44" s="74" t="s">
         <v>68</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="17" thickBot="1">
+    <row r="45" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>21</v>
       </c>
@@ -24458,34 +24458,34 @@
         <v>0.14349083262570828</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
-      <c r="B46" s="137" t="s">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="159" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="108"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="144"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="169"/>
     </row>
-    <row r="47" spans="2:18" ht="17" thickBot="1">
-      <c r="B47" s="138"/>
+    <row r="47" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="160"/>
       <c r="C47" s="109"/>
-      <c r="D47" s="145" t="s">
+      <c r="D47" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="147"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="165"/>
       <c r="L47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="16"/>
     </row>
-    <row r="48" spans="2:18" ht="17" thickBot="1">
-      <c r="B48" s="138"/>
+    <row r="48" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="160"/>
       <c r="C48" s="109" t="s">
         <v>71</v>
       </c>
@@ -24504,21 +24504,21 @@
       <c r="H48" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="137" t="s">
+      <c r="L48" s="159" t="s">
         <v>15</v>
       </c>
       <c r="M48" s="103"/>
-      <c r="N48" s="142"/>
-      <c r="O48" s="143"/>
-      <c r="P48" s="143"/>
-      <c r="Q48" s="143"/>
-      <c r="R48" s="144"/>
+      <c r="N48" s="170"/>
+      <c r="O48" s="168"/>
+      <c r="P48" s="168"/>
+      <c r="Q48" s="168"/>
+      <c r="R48" s="169"/>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="163" t="s">
+      <c r="C49" s="137" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="95">
@@ -24536,17 +24536,17 @@
       <c r="H49" s="98">
         <v>263.2</v>
       </c>
-      <c r="L49" s="138"/>
+      <c r="L49" s="160"/>
       <c r="M49" s="104"/>
-      <c r="N49" s="145"/>
-      <c r="O49" s="146"/>
-      <c r="P49" s="146"/>
-      <c r="Q49" s="146"/>
-      <c r="R49" s="147"/>
+      <c r="N49" s="171"/>
+      <c r="O49" s="164"/>
+      <c r="P49" s="164"/>
+      <c r="Q49" s="164"/>
+      <c r="R49" s="165"/>
     </row>
-    <row r="50" spans="2:18" ht="17" thickBot="1">
+    <row r="50" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
-      <c r="C50" s="164" t="s">
+      <c r="C50" s="138" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="58">
@@ -24564,7 +24564,7 @@
       <c r="H50" s="99">
         <v>279.2</v>
       </c>
-      <c r="L50" s="138"/>
+      <c r="L50" s="160"/>
       <c r="M50" s="104" t="s">
         <v>39</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="17" thickBot="1">
+    <row r="51" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="21"/>
       <c r="C51" s="121" t="s">
         <v>35</v>
@@ -24626,7 +24626,7 @@
         <v>110.124</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="25"/>
       <c r="C52" s="74" t="s">
         <v>41</v>
@@ -24671,7 +24671,7 @@
         <v>120.90900000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="25"/>
       <c r="C53" s="74" t="s">
         <v>68</v>
@@ -24716,7 +24716,7 @@
         <v>112.61499999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C54" s="74" t="s">
         <v>48</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>214.214</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L55" s="8"/>
       <c r="M55" s="25" t="s">
         <v>37</v>
@@ -24781,7 +24781,7 @@
         <v>165.518</v>
       </c>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L56" s="8"/>
       <c r="M56" s="25" t="s">
         <v>38</v>
@@ -24802,7 +24802,7 @@
         <v>135.69999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="17" thickBot="1">
+    <row r="57" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L57" s="9"/>
       <c r="M57" s="64" t="s">
         <v>40</v>
@@ -24823,7 +24823,7 @@
         <v>128.99700000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M58" s="74" t="s">
         <v>41</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>141.15385714285716</v>
       </c>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M59" s="74" t="s">
         <v>48</v>
       </c>
@@ -24873,36 +24873,36 @@
         <v>37.184455324900426</v>
       </c>
     </row>
-    <row r="62" spans="2:18" ht="17" thickBot="1">
+    <row r="62" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L62" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="2:18">
-      <c r="L63" s="137" t="s">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L63" s="159" t="s">
         <v>15</v>
       </c>
       <c r="M63" s="108"/>
-      <c r="N63" s="142"/>
-      <c r="O63" s="143"/>
-      <c r="P63" s="143"/>
-      <c r="Q63" s="143"/>
-      <c r="R63" s="144"/>
+      <c r="N63" s="170"/>
+      <c r="O63" s="168"/>
+      <c r="P63" s="168"/>
+      <c r="Q63" s="168"/>
+      <c r="R63" s="169"/>
     </row>
-    <row r="64" spans="2:18">
-      <c r="L64" s="138"/>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L64" s="160"/>
       <c r="M64" s="109"/>
-      <c r="N64" s="145" t="s">
+      <c r="N64" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="O64" s="146"/>
-      <c r="P64" s="146"/>
-      <c r="Q64" s="146"/>
-      <c r="R64" s="147"/>
+      <c r="O64" s="164"/>
+      <c r="P64" s="164"/>
+      <c r="Q64" s="164"/>
+      <c r="R64" s="165"/>
     </row>
-    <row r="65" spans="12:18" ht="17" thickBot="1">
-      <c r="L65" s="138"/>
+    <row r="65" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="160"/>
       <c r="M65" s="109" t="s">
         <v>71</v>
       </c>
@@ -24922,11 +24922,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="12:18">
+    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="170" t="s">
+      <c r="M66" s="144" t="s">
         <v>58</v>
       </c>
       <c r="N66" s="95">
@@ -24945,9 +24945,9 @@
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="67" spans="12:18">
+    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L67" s="8"/>
-      <c r="M67" s="171" t="s">
+      <c r="M67" s="145" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="58">
@@ -24966,9 +24966,9 @@
         <v>150.1</v>
       </c>
     </row>
-    <row r="68" spans="12:18">
+    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L68" s="8"/>
-      <c r="M68" s="171" t="s">
+      <c r="M68" s="145" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="58">
@@ -24987,9 +24987,9 @@
         <v>264.60000000000002</v>
       </c>
     </row>
-    <row r="69" spans="12:18">
+    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L69" s="8"/>
-      <c r="M69" s="171" t="s">
+      <c r="M69" s="145" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="58">
@@ -25008,9 +25008,9 @@
         <v>192.9</v>
       </c>
     </row>
-    <row r="70" spans="12:18">
+    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L70" s="8"/>
-      <c r="M70" s="171" t="s">
+      <c r="M70" s="145" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="58">
@@ -25029,9 +25029,9 @@
         <v>279.7</v>
       </c>
     </row>
-    <row r="71" spans="12:18">
+    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L71" s="8"/>
-      <c r="M71" s="171" t="s">
+      <c r="M71" s="145" t="s">
         <v>38</v>
       </c>
       <c r="N71" s="58">
@@ -25050,7 +25050,7 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="72" spans="12:18" ht="17" thickBot="1">
+    <row r="72" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L72" s="9"/>
       <c r="M72" s="122" t="s">
         <v>40</v>
@@ -25071,7 +25071,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="73" spans="12:18">
+    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M73" s="74" t="s">
         <v>41</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>188.15714285714284</v>
       </c>
     </row>
-    <row r="74" spans="12:18">
+    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M74" s="74" t="s">
         <v>68</v>
       </c>
@@ -25121,7 +25121,7 @@
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="75" spans="12:18">
+    <row r="75" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M75" s="74" t="s">
         <v>48</v>
       </c>
@@ -25146,21 +25146,17 @@
         <v>60.569542872713981</v>
       </c>
     </row>
-    <row r="96" spans="14:14" ht="18">
+    <row r="96" spans="14:14" ht="18" x14ac:dyDescent="0.25">
       <c r="N96" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D47:H47"/>
@@ -25174,12 +25170,16 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25194,7 +25194,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -25205,7 +25205,7 @@
     <col min="12" max="12" width="10.83203125" style="113"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" s="16" t="s">
         <v>61</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -25254,7 +25254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="74" t="s">
         <v>32</v>
       </c>
@@ -25308,7 +25308,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="74"/>
       <c r="C6" s="76"/>
       <c r="H6" s="74" t="s">
@@ -25318,7 +25318,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H7" s="74" t="s">
         <v>64</v>
       </c>
@@ -25342,7 +25342,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -25353,73 +25353,73 @@
     <col min="9" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="150" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
-      <c r="I2" s="150" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="I2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="151"/>
-      <c r="K2" s="152"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="176"/>
     </row>
-    <row r="3" spans="2:11" ht="17" thickBot="1">
-      <c r="B3" s="153" t="s">
+    <row r="3" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
-      <c r="I3" s="153" t="s">
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
+      <c r="I3" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="155"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="148" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="152"/>
-      <c r="I4" s="148" t="s">
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="176"/>
+      <c r="I4" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="150" t="s">
+      <c r="J4" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="152"/>
+      <c r="K4" s="176"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="149"/>
-      <c r="C5" s="157" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="173"/>
+      <c r="C5" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="159"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="157" t="s">
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="183"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="159"/>
+      <c r="K5" s="183"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1">
-      <c r="B6" s="156"/>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="180"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
@@ -25435,7 +25435,7 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="156"/>
+      <c r="I6" s="180"/>
       <c r="J6" s="117" t="s">
         <v>0</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -25472,7 +25472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1">
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
@@ -25556,7 +25556,7 @@
       <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -25582,46 +25582,46 @@
     <col min="27" max="28" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="17" thickBot="1"/>
-    <row r="2" spans="2:28" ht="17" thickBot="1">
-      <c r="B2" s="161" t="s">
+    <row r="1" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
       <c r="I2" s="54"/>
       <c r="J2" s="27"/>
-      <c r="L2" s="161" t="s">
+      <c r="L2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
       <c r="S2" s="54"/>
       <c r="T2" s="27"/>
-      <c r="V2" s="161" t="s">
+      <c r="V2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
     </row>
-    <row r="3" spans="2:28">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B3" s="16"/>
       <c r="L3" s="16"/>
       <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1">
+    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
@@ -25632,87 +25632,87 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:28">
-      <c r="B5" s="137" t="s">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
       <c r="I5" s="23"/>
       <c r="J5" s="28"/>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="142" t="s">
+      <c r="M5" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
       <c r="S5" s="23"/>
       <c r="T5" s="28"/>
-      <c r="V5" s="137" t="s">
+      <c r="V5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="142" t="s">
+      <c r="W5" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="143"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="168"/>
+      <c r="AB5" s="168"/>
     </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="138"/>
-      <c r="C6" s="149" t="s">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="160"/>
+      <c r="C6" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
       <c r="I6" s="23"/>
       <c r="J6" s="28"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="149" t="s">
+      <c r="L6" s="160"/>
+      <c r="M6" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="146" t="s">
+      <c r="N6" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
       <c r="S6" s="23"/>
       <c r="T6" s="28"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="149" t="s">
+      <c r="V6" s="160"/>
+      <c r="W6" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="146" t="s">
+      <c r="X6" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164"/>
+      <c r="AA6" s="164"/>
+      <c r="AB6" s="164"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="138"/>
-      <c r="C7" s="160"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="160"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25730,8 +25730,8 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="184"/>
       <c r="N7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25749,8 +25749,8 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="29"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="160"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="184"/>
       <c r="X7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25767,7 +25767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:28">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>51.689</v>
       </c>
     </row>
-    <row r="9" spans="2:28">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>42.41</v>
       </c>
     </row>
-    <row r="10" spans="2:28">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
@@ -25974,7 +25974,7 @@
         <v>28.091000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1">
+    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -26025,7 +26025,7 @@
       <c r="AA11" s="48"/>
       <c r="AB11" s="48"/>
     </row>
-    <row r="14" spans="2:28" ht="17" thickBot="1">
+    <row r="14" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
@@ -26036,79 +26036,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
-      <c r="B15" s="137" t="s">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="L15" s="137" t="s">
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="L15" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="142" t="s">
+      <c r="M15" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="V15" s="137" t="s">
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="168"/>
+      <c r="V15" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="142" t="s">
+      <c r="W15" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="143"/>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="143"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
     </row>
-    <row r="16" spans="2:28">
-      <c r="B16" s="138"/>
-      <c r="C16" s="149" t="s">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="160"/>
+      <c r="C16" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="149" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="146" t="s">
+      <c r="N16" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="146"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="149" t="s">
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="146" t="s">
+      <c r="X16" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="146"/>
-      <c r="Z16" s="146"/>
-      <c r="AA16" s="146"/>
-      <c r="AB16" s="146"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="164"/>
+      <c r="AB16" s="164"/>
     </row>
-    <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="138"/>
-      <c r="C17" s="160"/>
+    <row r="17" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="160"/>
+      <c r="C17" s="184"/>
       <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
@@ -26124,8 +26124,8 @@
       <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="138"/>
-      <c r="M17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="184"/>
       <c r="N17" s="32" t="s">
         <v>22</v>
       </c>
@@ -26141,8 +26141,8 @@
       <c r="R17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="138"/>
-      <c r="W17" s="160"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="184"/>
       <c r="X17" s="50" t="s">
         <v>22</v>
       </c>
@@ -26159,7 +26159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>47.664000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
@@ -26289,7 +26289,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="17">
+    <row r="20" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
@@ -26354,7 +26354,7 @@
         <v>56.512</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="17" thickBot="1">
+    <row r="21" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
         <v>2</v>
       </c>
@@ -26403,6 +26403,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="B15:B17"/>
@@ -26419,17 +26430,6 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:R16"/>
     <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26444,7 +26444,7 @@
       <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -26468,7 +26468,7 @@
     <col min="28" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
@@ -26501,7 +26501,7 @@
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1">
+    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
@@ -26512,60 +26512,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:28">
-      <c r="B5" s="137" t="s">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="144"/>
-      <c r="L5" s="137" t="s">
+      <c r="C5" s="170"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="169"/>
+      <c r="L5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="142"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="144"/>
-      <c r="V5" s="137" t="s">
+      <c r="M5" s="170"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="169"/>
+      <c r="V5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="142"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="144"/>
+      <c r="W5" s="170"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="169"/>
     </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="138"/>
-      <c r="C6" s="145" t="s">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="160"/>
+      <c r="C6" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="147"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="145" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="165"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="147"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="145" t="s">
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="165"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="147"/>
+      <c r="X6" s="164"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164"/>
+      <c r="AA6" s="165"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="138"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="160"/>
       <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
@@ -26581,7 +26581,7 @@
       <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="138"/>
+      <c r="L7" s="160"/>
       <c r="M7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26597,7 +26597,7 @@
       <c r="Q7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="138"/>
+      <c r="V7" s="160"/>
       <c r="W7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26614,7 +26614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:28">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
@@ -26670,7 +26670,7 @@
         <v>12.997</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="17">
+    <row r="9" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>47.183999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17">
+    <row r="10" spans="2:28" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>53.204000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1">
+    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>2</v>
       </c>

--- a/Docs/Clasificación.xlsx
+++ b/Docs/Clasificación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansanchez/Desktop/ssanchez59_Blockchain/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA1C585-5335-9E4E-AB95-2E24BEB1100A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECBA69-D5F2-1D43-95B9-977E1E4D2377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
+    <workbookView xWindow="12320" yWindow="460" windowWidth="13280" windowHeight="14180" firstSheet="2" activeTab="4" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
   </bookViews>
   <sheets>
     <sheet name="Throughput" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="78">
   <si>
     <t>Throughput</t>
   </si>
@@ -239,9 +239,6 @@
     <t>[]Cube</t>
   </si>
   <si>
-    <t>Block-Lattice</t>
-  </si>
-  <si>
     <t>Median</t>
   </si>
   <si>
@@ -283,7 +280,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -679,12 +676,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,14 +993,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,13 +1121,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1178,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -22114,11 +22146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DA798-74D2-DF47-B94E-DCEC5261F551}">
   <dimension ref="B2:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -22126,27 +22158,27 @@
     <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26">
       <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="161" t="s">
+    <row r="3" spans="2:26">
+      <c r="B3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="161"/>
+    <row r="4" spans="2:26">
+      <c r="B4" s="159"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="161"/>
+    <row r="5" spans="2:26" ht="17" thickBot="1">
+      <c r="B5" s="159"/>
       <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
@@ -22160,7 +22192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26">
       <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
@@ -22173,7 +22205,7 @@
       <c r="E6" s="36">
         <v>397</v>
       </c>
-      <c r="V6" s="159" t="s">
+      <c r="V6" s="157" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="75"/>
@@ -22181,7 +22213,7 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:26">
       <c r="B7" s="25" t="s">
         <v>2</v>
       </c>
@@ -22194,13 +22226,13 @@
       <c r="E7" s="36">
         <v>74</v>
       </c>
-      <c r="V7" s="160"/>
+      <c r="V7" s="158"/>
       <c r="W7" s="75"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
     </row>
-    <row r="8" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" ht="17" thickBot="1">
       <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
@@ -22213,14 +22245,14 @@
       <c r="E8" s="36">
         <v>9099</v>
       </c>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="V8" s="160"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="V8" s="158"/>
       <c r="W8" s="75" t="s">
         <v>46</v>
       </c>
@@ -22234,7 +22266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -22247,15 +22279,15 @@
       <c r="E9" s="36">
         <v>9558</v>
       </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="162" t="s">
+      <c r="I9" s="129"/>
+      <c r="J9" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="155"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="131"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="129"/>
       <c r="V9" s="20" t="s">
         <v>32</v>
       </c>
@@ -22272,16 +22304,16 @@
         <v>8954</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="I10" s="131"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="166"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="131"/>
+    <row r="10" spans="2:26">
+      <c r="I10" s="129"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="164" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="164"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="129"/>
       <c r="V10" s="20"/>
       <c r="W10" s="91">
         <v>2</v>
@@ -22296,22 +22328,22 @@
         <v>8839</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="131"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="157" t="s">
+    <row r="11" spans="2:26" ht="17" thickBot="1">
+      <c r="I11" s="129"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="153" t="s">
+      <c r="L11" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="153" t="s">
+      <c r="M11" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="154" t="s">
+      <c r="N11" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="131"/>
+      <c r="O11" s="129"/>
       <c r="V11" s="20"/>
       <c r="W11" s="91">
         <v>3</v>
@@ -22326,24 +22358,24 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="I12" s="131"/>
-      <c r="J12" s="133" t="s">
+    <row r="12" spans="2:26">
+      <c r="I12" s="129"/>
+      <c r="J12" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="124">
+      <c r="K12" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="122">
         <v>456</v>
       </c>
-      <c r="M12" s="124">
+      <c r="M12" s="122">
         <v>418</v>
       </c>
-      <c r="N12" s="125">
+      <c r="N12" s="123">
         <v>405</v>
       </c>
-      <c r="O12" s="131"/>
+      <c r="O12" s="129"/>
       <c r="V12" s="20"/>
       <c r="W12" s="91">
         <v>4</v>
@@ -22358,11 +22390,11 @@
         <v>8946</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="131"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="126" t="s">
-        <v>74</v>
+    <row r="13" spans="2:26" ht="17" thickBot="1">
+      <c r="I13" s="129"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="124" t="s">
+        <v>73</v>
       </c>
       <c r="L13" s="76">
         <v>455</v>
@@ -22370,10 +22402,10 @@
       <c r="M13" s="76">
         <v>440</v>
       </c>
-      <c r="N13" s="127">
+      <c r="N13" s="125">
         <v>396</v>
       </c>
-      <c r="O13" s="131"/>
+      <c r="O13" s="129"/>
       <c r="V13" s="21"/>
       <c r="W13" s="92">
         <v>5</v>
@@ -22388,11 +22420,11 @@
         <v>8627</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="I14" s="131"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="126" t="s">
-        <v>75</v>
+    <row r="14" spans="2:26">
+      <c r="I14" s="129"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="124" t="s">
+        <v>74</v>
       </c>
       <c r="L14" s="76">
         <v>453</v>
@@ -22400,10 +22432,10 @@
       <c r="M14" s="76">
         <v>440</v>
       </c>
-      <c r="N14" s="127">
+      <c r="N14" s="125">
         <v>403</v>
       </c>
-      <c r="O14" s="131"/>
+      <c r="O14" s="129"/>
       <c r="W14" t="s">
         <v>41</v>
       </c>
@@ -22420,11 +22452,11 @@
         <v>8798.7999999999993</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="I15" s="131"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="126" t="s">
-        <v>76</v>
+    <row r="15" spans="2:26">
+      <c r="I15" s="129"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="124" t="s">
+        <v>75</v>
       </c>
       <c r="L15" s="76">
         <v>450</v>
@@ -22432,10 +22464,10 @@
       <c r="M15" s="76">
         <v>435</v>
       </c>
-      <c r="N15" s="127">
+      <c r="N15" s="125">
         <v>394</v>
       </c>
-      <c r="O15" s="131"/>
+      <c r="O15" s="129"/>
       <c r="W15" t="s">
         <v>48</v>
       </c>
@@ -22452,101 +22484,101 @@
         <v>162.83335039235666</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="131"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="129">
+    <row r="16" spans="2:26" ht="17" thickBot="1">
+      <c r="I16" s="129"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="127">
         <v>457</v>
       </c>
-      <c r="M16" s="129">
+      <c r="M16" s="127">
         <v>437</v>
       </c>
-      <c r="N16" s="130">
+      <c r="N16" s="128">
         <v>394</v>
       </c>
-      <c r="O16" s="131"/>
+      <c r="O16" s="129"/>
       <c r="W16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X16" s="115">
+        <v>67</v>
+      </c>
+      <c r="X16" s="114">
         <f>MEDIAN(X9:X13)</f>
         <v>8103</v>
       </c>
-      <c r="Y16" s="115">
+      <c r="Y16" s="114">
         <f t="shared" ref="Y16:Z16" si="3">MEDIAN(Y9:Y13)</f>
         <v>8566</v>
       </c>
-      <c r="Z16" s="115">
+      <c r="Z16" s="114">
         <f t="shared" si="3"/>
         <v>8839</v>
       </c>
     </row>
-    <row r="17" spans="9:26" x14ac:dyDescent="0.2">
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131" t="s">
+    <row r="17" spans="9:26">
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="135">
+      <c r="L17" s="133">
         <f>AVERAGE(L12:L16)</f>
         <v>454.2</v>
       </c>
-      <c r="M17" s="135">
+      <c r="M17" s="133">
         <f>AVERAGE(M12:M16)</f>
         <v>434</v>
       </c>
-      <c r="N17" s="135">
+      <c r="N17" s="133">
         <f>AVERAGE(N12:N16)</f>
         <v>398.4</v>
       </c>
-      <c r="O17" s="131"/>
+      <c r="O17" s="129"/>
     </row>
-    <row r="18" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="135">
+    <row r="18" spans="9:26" ht="17" thickBot="1">
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="133">
         <f>MEDIAN(L12:L16)</f>
         <v>455</v>
       </c>
-      <c r="M18" s="135">
+      <c r="M18" s="133">
         <f>MEDIAN(M12:M16)</f>
         <v>437</v>
       </c>
-      <c r="N18" s="135">
+      <c r="N18" s="133">
         <f>MEDIAN(N12:N16)</f>
         <v>396</v>
       </c>
-      <c r="O18" s="131"/>
+      <c r="O18" s="129"/>
       <c r="V18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="9:26" x14ac:dyDescent="0.2">
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131" t="s">
+    <row r="19" spans="9:26">
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="136">
+      <c r="L19" s="134">
         <f>STDEV(L12:L16)</f>
         <v>2.7748873851023217</v>
       </c>
-      <c r="M19" s="136">
+      <c r="M19" s="134">
         <f>STDEV(M12:M16)</f>
         <v>9.1923881554251174</v>
       </c>
-      <c r="N19" s="136">
+      <c r="N19" s="134">
         <f>STDEV(N12:N16)</f>
         <v>5.2249401910452526</v>
       </c>
-      <c r="O19" s="131"/>
-      <c r="V19" s="159" t="s">
+      <c r="O19" s="129"/>
+      <c r="V19" s="157" t="s">
         <v>15</v>
       </c>
       <c r="W19" s="75"/>
@@ -22554,22 +22586,22 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
     </row>
-    <row r="20" spans="9:26" x14ac:dyDescent="0.2">
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="V20" s="160"/>
+    <row r="20" spans="9:26">
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="V20" s="158"/>
       <c r="W20" s="75"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
     </row>
-    <row r="21" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="V21" s="160"/>
+    <row r="21" spans="9:26" ht="17" thickBot="1">
+      <c r="V21" s="158"/>
       <c r="W21" s="75" t="s">
         <v>46</v>
       </c>
@@ -22583,7 +22615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:26" ht="17" thickBot="1">
       <c r="J22" s="16"/>
       <c r="V22" s="20" t="s">
         <v>59</v>
@@ -22601,14 +22633,14 @@
         <v>5524</v>
       </c>
     </row>
-    <row r="23" spans="9:26" x14ac:dyDescent="0.2">
-      <c r="J23" s="159" t="s">
+    <row r="23" spans="9:26">
+      <c r="J23" s="157" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="77"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="148"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="146"/>
       <c r="V23" s="20"/>
       <c r="W23" s="91">
         <v>2</v>
@@ -22623,14 +22655,14 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="24" spans="9:26" x14ac:dyDescent="0.2">
-      <c r="J24" s="160"/>
+    <row r="24" spans="9:26">
+      <c r="J24" s="158"/>
       <c r="K24" s="78"/>
-      <c r="L24" s="164" t="s">
-        <v>78</v>
-      </c>
-      <c r="M24" s="164"/>
-      <c r="N24" s="165"/>
+      <c r="L24" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="162"/>
+      <c r="N24" s="163"/>
       <c r="V24" s="20"/>
       <c r="W24" s="91">
         <v>3</v>
@@ -22645,18 +22677,18 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="25" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="160"/>
-      <c r="K25" s="158" t="s">
+    <row r="25" spans="9:26" ht="17" thickBot="1">
+      <c r="J25" s="158"/>
+      <c r="K25" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="149" t="s">
+      <c r="L25" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="149" t="s">
+      <c r="M25" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="150" t="s">
+      <c r="N25" s="148" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="20"/>
@@ -22673,12 +22705,12 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="26" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:26" ht="17" thickBot="1">
       <c r="J26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="123" t="s">
-        <v>73</v>
+      <c r="K26" s="121" t="s">
+        <v>72</v>
       </c>
       <c r="L26" s="34">
         <v>72</v>
@@ -22703,10 +22735,10 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="27" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:26">
       <c r="J27" s="20"/>
-      <c r="K27" s="126" t="s">
-        <v>74</v>
+      <c r="K27" s="124" t="s">
+        <v>73</v>
       </c>
       <c r="L27" s="36">
         <v>65</v>
@@ -22733,10 +22765,10 @@
         <v>5683.2</v>
       </c>
     </row>
-    <row r="28" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:26">
       <c r="J28" s="20"/>
-      <c r="K28" s="126" t="s">
-        <v>75</v>
+      <c r="K28" s="124" t="s">
+        <v>74</v>
       </c>
       <c r="L28" s="36">
         <v>80</v>
@@ -22763,10 +22795,10 @@
         <v>167.52522198164669</v>
       </c>
     </row>
-    <row r="29" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:26">
       <c r="J29" s="20"/>
-      <c r="K29" s="126" t="s">
-        <v>76</v>
+      <c r="K29" s="124" t="s">
+        <v>75</v>
       </c>
       <c r="L29" s="36">
         <v>73</v>
@@ -22778,7 +22810,7 @@
         <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X29" s="101">
         <f>MEDIAN(X22:X26)</f>
@@ -22793,10 +22825,10 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="30" spans="9:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:26" ht="17" thickBot="1">
       <c r="J30" s="21"/>
-      <c r="K30" s="128" t="s">
-        <v>77</v>
+      <c r="K30" s="126" t="s">
+        <v>76</v>
       </c>
       <c r="L30" s="40">
         <v>82</v>
@@ -22808,7 +22840,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:26">
       <c r="K31" t="s">
         <v>41</v>
       </c>
@@ -22833,9 +22865,9 @@
         <v>0.98094449047224519</v>
       </c>
     </row>
-    <row r="32" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:26">
       <c r="K32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L32" s="101">
         <f>MEDIAN(L26:L30)</f>
@@ -22858,7 +22890,7 @@
         <v>0.91705069124423966</v>
       </c>
     </row>
-    <row r="33" spans="10:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:20">
       <c r="K33" t="s">
         <v>48</v>
       </c>
@@ -22883,48 +22915,48 @@
         <v>0.947350377118229</v>
       </c>
     </row>
-    <row r="36" spans="10:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:20" ht="17" thickBot="1">
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J37" s="159" t="s">
+    <row r="37" spans="10:20">
+      <c r="J37" s="157" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="77"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="147"/>
-      <c r="N37" s="148"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="146"/>
     </row>
-    <row r="38" spans="10:20" x14ac:dyDescent="0.2">
-      <c r="J38" s="160"/>
+    <row r="38" spans="10:20">
+      <c r="J38" s="158"/>
       <c r="K38" s="78"/>
-      <c r="L38" s="164" t="s">
-        <v>78</v>
-      </c>
-      <c r="M38" s="164"/>
-      <c r="N38" s="165"/>
+      <c r="L38" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" s="162"/>
+      <c r="N38" s="163"/>
     </row>
-    <row r="39" spans="10:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J39" s="160"/>
-      <c r="K39" s="158" t="s">
+    <row r="39" spans="10:20" ht="17" thickBot="1">
+      <c r="J39" s="158"/>
+      <c r="K39" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="149" t="s">
+      <c r="L39" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="149" t="s">
+      <c r="M39" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="150" t="s">
+      <c r="N39" s="148" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="10:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="10:20">
       <c r="J40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K40" s="123" t="s">
-        <v>73</v>
+      <c r="K40" s="121" t="s">
+        <v>72</v>
       </c>
       <c r="L40" s="34">
         <v>6197</v>
@@ -22936,10 +22968,10 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="41" spans="10:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="10:20">
       <c r="J41" s="20"/>
-      <c r="K41" s="126" t="s">
-        <v>74</v>
+      <c r="K41" s="124" t="s">
+        <v>73</v>
       </c>
       <c r="L41" s="36">
         <v>6061</v>
@@ -22951,10 +22983,10 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="42" spans="10:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="10:20">
       <c r="J42" s="20"/>
-      <c r="K42" s="126" t="s">
-        <v>75</v>
+      <c r="K42" s="124" t="s">
+        <v>74</v>
       </c>
       <c r="L42" s="36">
         <v>6208</v>
@@ -22966,10 +22998,10 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="43" spans="10:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:20">
       <c r="J43" s="20"/>
-      <c r="K43" s="126" t="s">
-        <v>76</v>
+      <c r="K43" s="124" t="s">
+        <v>75</v>
       </c>
       <c r="L43" s="36">
         <v>6071</v>
@@ -22981,10 +23013,10 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="44" spans="10:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:20" ht="17" thickBot="1">
       <c r="J44" s="21"/>
-      <c r="K44" s="128" t="s">
-        <v>77</v>
+      <c r="K44" s="126" t="s">
+        <v>76</v>
       </c>
       <c r="L44" s="40">
         <v>6005</v>
@@ -22996,7 +23028,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="45" spans="10:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="10:20">
       <c r="K45" t="s">
         <v>41</v>
       </c>
@@ -23013,9 +23045,9 @@
         <v>3868.6</v>
       </c>
     </row>
-    <row r="46" spans="10:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="10:20">
       <c r="K46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L46" s="101">
         <f>MEDIAN(L40:L44)</f>
@@ -23030,7 +23062,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="47" spans="10:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="10:20">
       <c r="K47" t="s">
         <v>48</v>
       </c>
@@ -23072,7 +23104,7 @@
       <selection activeCell="V6" sqref="V6:AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
@@ -23097,7 +23129,7 @@
     <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:28">
       <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
@@ -23123,7 +23155,7 @@
       </c>
       <c r="W2" s="16"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="17" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
@@ -23133,67 +23165,67 @@
       </c>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="159" t="s">
+    <row r="5" spans="2:28" ht="17" thickBot="1">
+      <c r="B5" s="157" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="88"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="169"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="168"/>
       <c r="I5" s="54"/>
       <c r="J5" s="27"/>
-      <c r="L5" s="159" t="s">
+      <c r="L5" s="157" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="88"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="169"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="168"/>
       <c r="V5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="160"/>
+    <row r="6" spans="2:28">
+      <c r="B6" s="158"/>
       <c r="C6" s="89"/>
-      <c r="D6" s="171" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165"/>
+      <c r="D6" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="54"/>
       <c r="J6" s="27"/>
-      <c r="L6" s="160"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="89"/>
-      <c r="N6" s="171" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="165"/>
-      <c r="V6" s="172" t="s">
+      <c r="N6" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="163"/>
+      <c r="V6" s="170" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="88"/>
-      <c r="X6" s="168"/>
-      <c r="Y6" s="168"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="168"/>
-      <c r="AB6" s="169"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="168"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="160"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1">
+      <c r="B7" s="158"/>
       <c r="C7" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="94" t="s">
         <v>49</v>
@@ -23212,9 +23244,9 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="160"/>
+      <c r="L7" s="158"/>
       <c r="M7" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="94" t="s">
         <v>49</v>
@@ -23222,30 +23254,30 @@
       <c r="O7" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="120" t="s">
+      <c r="P7" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="120" t="s">
+      <c r="Q7" s="118" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="173"/>
+      <c r="V7" s="171"/>
       <c r="W7" s="89"/>
-      <c r="X7" s="164" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="164"/>
-      <c r="AA7" s="164"/>
-      <c r="AB7" s="165"/>
+      <c r="X7" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162"/>
+      <c r="AB7" s="163"/>
     </row>
-    <row r="8" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" ht="17" thickBot="1">
       <c r="B8" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="135" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="95">
@@ -23286,9 +23318,9 @@
       <c r="R8" s="98">
         <v>13.65</v>
       </c>
-      <c r="V8" s="173"/>
+      <c r="V8" s="171"/>
       <c r="W8" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X8" s="22" t="s">
         <v>49</v>
@@ -23306,9 +23338,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28">
       <c r="B9" s="20"/>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="136" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="58">
@@ -23350,7 +23382,7 @@
       <c r="V9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="144" t="s">
+      <c r="W9" s="142" t="s">
         <v>33</v>
       </c>
       <c r="X9" s="34">
@@ -23369,9 +23401,9 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="17" thickBot="1">
       <c r="B10" s="21"/>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="119" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="62">
@@ -23413,7 +23445,7 @@
       <c r="V10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="145" t="s">
+      <c r="W10" s="143" t="s">
         <v>33</v>
       </c>
       <c r="X10" s="36">
@@ -23424,7 +23456,7 @@
       <c r="AA10" s="87"/>
       <c r="AB10" s="99"/>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="17" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="74" t="s">
         <v>41</v>
@@ -23473,7 +23505,7 @@
       <c r="V11" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="146" t="s">
+      <c r="W11" s="144" t="s">
         <v>58</v>
       </c>
       <c r="X11" s="112">
@@ -23492,10 +23524,10 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28">
       <c r="B12" s="25"/>
       <c r="C12" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="97">
         <f>MEDIAN(D8:D10)</f>
@@ -23539,7 +23571,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28">
       <c r="B13" s="25"/>
       <c r="C13" s="74" t="s">
         <v>48</v>
@@ -23586,7 +23618,7 @@
         <v>23.73</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" ht="17" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
@@ -23611,16 +23643,16 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="159" t="s">
+    <row r="15" spans="2:28">
+      <c r="B15" s="157" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="88"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168"/>
       <c r="M15" s="74" t="s">
         <v>41</v>
       </c>
@@ -23645,18 +23677,18 @@
         <v>22.612857142857141</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="160"/>
+    <row r="16" spans="2:28">
+      <c r="B16" s="158"/>
       <c r="C16" s="89"/>
-      <c r="D16" s="171" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="165"/>
+      <c r="D16" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="163"/>
       <c r="M16" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N16" s="97">
         <f>MEDIAN(N8:N14)</f>
@@ -23700,10 +23732,10 @@
         <v>137.136</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="160"/>
+    <row r="17" spans="2:28" ht="17" thickBot="1">
+      <c r="B17" s="158"/>
       <c r="C17" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="94" t="s">
         <v>23</v>
@@ -23744,7 +23776,7 @@
         <v>5.1490086886885864</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W17" s="25" t="s">
         <v>33</v>
@@ -23765,11 +23797,11 @@
         <v>85.634</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" ht="17" thickBot="1">
       <c r="B18" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="137">
+        <v>68</v>
+      </c>
+      <c r="C18" s="135">
         <v>2</v>
       </c>
       <c r="D18" s="95">
@@ -23792,9 +23824,9 @@
       </c>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28">
       <c r="B19" s="20"/>
-      <c r="C19" s="138">
+      <c r="C19" s="136">
         <v>3</v>
       </c>
       <c r="D19" s="58">
@@ -23812,19 +23844,19 @@
       <c r="H19" s="99">
         <v>86.363</v>
       </c>
-      <c r="L19" s="159" t="s">
+      <c r="L19" s="157" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="88"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="168"/>
-      <c r="P19" s="168"/>
-      <c r="Q19" s="168"/>
-      <c r="R19" s="169"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="167"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="168"/>
     </row>
-    <row r="20" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" ht="17" thickBot="1">
       <c r="B20" s="21"/>
-      <c r="C20" s="121">
+      <c r="C20" s="119">
         <v>4</v>
       </c>
       <c r="D20" s="62">
@@ -23842,15 +23874,15 @@
       <c r="H20" s="100">
         <v>83.039000000000001</v>
       </c>
-      <c r="L20" s="160"/>
+      <c r="L20" s="158"/>
       <c r="M20" s="89"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="165"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="163"/>
     </row>
-    <row r="21" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" ht="17" thickBot="1">
       <c r="B21" s="25"/>
       <c r="C21" s="74" t="s">
         <v>41</v>
@@ -23875,7 +23907,7 @@
         <f>AVERAGE(H18:H20)</f>
         <v>81.62266666666666</v>
       </c>
-      <c r="L21" s="160"/>
+      <c r="L21" s="158"/>
       <c r="M21" s="89" t="s">
         <v>39</v>
       </c>
@@ -23895,7 +23927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28">
       <c r="B22" s="25"/>
       <c r="C22" s="74" t="s">
         <v>48</v>
@@ -23921,7 +23953,7 @@
         <v>5.5848592044324068</v>
       </c>
       <c r="L22" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M22" s="69" t="s">
         <v>33</v>
@@ -23942,7 +23974,7 @@
         <v>78.78</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28">
       <c r="L23" s="8"/>
       <c r="M23" s="25" t="s">
         <v>34</v>
@@ -23963,7 +23995,7 @@
         <v>76.841999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28" ht="17" thickBot="1">
       <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
@@ -23988,8 +24020,8 @@
         <v>76.376000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B25" s="159" t="s">
+    <row r="25" spans="2:28">
+      <c r="B25" s="157" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="70"/>
@@ -24014,11 +24046,11 @@
         <v>78.47</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B26" s="160"/>
+    <row r="26" spans="2:28">
+      <c r="B26" s="158"/>
       <c r="C26" s="71"/>
       <c r="D26" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="25" t="s">
@@ -24040,12 +24072,12 @@
         <v>74.08</v>
       </c>
     </row>
-    <row r="27" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="160"/>
+    <row r="27" spans="2:28" ht="17" thickBot="1">
+      <c r="B27" s="158"/>
       <c r="C27" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="140" t="s">
         <v>49</v>
       </c>
       <c r="L27" s="8"/>
@@ -24068,11 +24100,11 @@
         <v>98.539000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:28" ht="17" thickBot="1">
       <c r="B28" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="137" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="81">
@@ -24098,9 +24130,9 @@
         <v>74.396000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28">
       <c r="B29" s="20"/>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="138" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="82">
@@ -24130,9 +24162,9 @@
         <v>79.640428571428558</v>
       </c>
     </row>
-    <row r="30" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" ht="17" thickBot="1">
       <c r="B30" s="21"/>
-      <c r="C30" s="141" t="s">
+      <c r="C30" s="139" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="83">
@@ -24162,7 +24194,7 @@
         <v>8.5261982121213293</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28">
       <c r="B31" s="25"/>
       <c r="C31" s="74" t="s">
         <v>41</v>
@@ -24172,10 +24204,10 @@
         <v>3.6173333333333333</v>
       </c>
     </row>
-    <row r="32" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" ht="17" thickBot="1">
       <c r="B32" s="25"/>
       <c r="C32" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="97">
         <f>MEDIAN(D28:D30)</f>
@@ -24186,7 +24218,7 @@
       </c>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18">
       <c r="C33" s="74" t="s">
         <v>48</v>
       </c>
@@ -24194,63 +24226,63 @@
         <f>STDEV(D28:D30)</f>
         <v>0.16429343667150342</v>
       </c>
-      <c r="L33" s="159" t="s">
+      <c r="L33" s="157" t="s">
         <v>15</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="77"/>
     </row>
-    <row r="34" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="17" thickBot="1">
       <c r="B34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="L34" s="160"/>
+      <c r="L34" s="158"/>
       <c r="M34" s="72"/>
       <c r="N34" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="159" t="s">
+    <row r="35" spans="2:18" ht="17" thickBot="1">
+      <c r="B35" s="157" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="103"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="169"/>
-      <c r="L35" s="160"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="168"/>
+      <c r="L35" s="158"/>
       <c r="M35" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="N35" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="141" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="160"/>
+    <row r="36" spans="2:18">
+      <c r="B36" s="158"/>
       <c r="C36" s="104"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="165"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="163"/>
       <c r="L36" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="144" t="s">
+      <c r="M36" s="142" t="s">
         <v>33</v>
       </c>
       <c r="N36" s="81">
         <v>4.58</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="160"/>
+    <row r="37" spans="2:18" ht="17" thickBot="1">
+      <c r="B37" s="158"/>
       <c r="C37" s="104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="94" t="s">
         <v>23</v>
@@ -24268,18 +24300,18 @@
         <v>47</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="145" t="s">
+      <c r="M37" s="143" t="s">
         <v>34</v>
       </c>
       <c r="N37" s="82">
         <v>4.859</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18">
       <c r="B38" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="137">
+      <c r="C38" s="135">
         <v>1</v>
       </c>
       <c r="D38" s="95">
@@ -24298,16 +24330,16 @@
         <v>132.91499999999999</v>
       </c>
       <c r="L38" s="8"/>
-      <c r="M38" s="145" t="s">
+      <c r="M38" s="143" t="s">
         <v>35</v>
       </c>
       <c r="N38" s="82">
         <v>4.5979999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18">
       <c r="B39" s="20"/>
-      <c r="C39" s="138">
+      <c r="C39" s="136">
         <v>3</v>
       </c>
       <c r="D39" s="58">
@@ -24326,16 +24358,16 @@
         <v>180.43299999999999</v>
       </c>
       <c r="L39" s="8"/>
-      <c r="M39" s="145" t="s">
+      <c r="M39" s="143" t="s">
         <v>36</v>
       </c>
       <c r="N39" s="82">
         <v>4.71</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" ht="17" thickBot="1">
       <c r="B40" s="21"/>
-      <c r="C40" s="121">
+      <c r="C40" s="119">
         <v>4</v>
       </c>
       <c r="D40" s="62">
@@ -24354,14 +24386,14 @@
         <v>155.619</v>
       </c>
       <c r="L40" s="8"/>
-      <c r="M40" s="145" t="s">
+      <c r="M40" s="143" t="s">
         <v>37</v>
       </c>
       <c r="N40" s="82">
         <v>4.4950000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18">
       <c r="B41" s="25"/>
       <c r="C41" s="74" t="s">
         <v>41</v>
@@ -24387,14 +24419,14 @@
         <v>156.32233333333332</v>
       </c>
       <c r="L41" s="8"/>
-      <c r="M41" s="145" t="s">
+      <c r="M41" s="143" t="s">
         <v>38</v>
       </c>
       <c r="N41" s="82">
         <v>4.4210000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" ht="17" thickBot="1">
       <c r="B42" s="25"/>
       <c r="C42" s="74" t="s">
         <v>48</v>
@@ -24420,14 +24452,14 @@
         <v>23.766806460551901</v>
       </c>
       <c r="L42" s="9"/>
-      <c r="M42" s="122" t="s">
+      <c r="M42" s="120" t="s">
         <v>40</v>
       </c>
       <c r="N42" s="86">
         <v>4.5679999999999996</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18">
       <c r="M43" s="74" t="s">
         <v>41</v>
       </c>
@@ -24436,16 +24468,16 @@
         <v>4.6044285714285715</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18">
       <c r="M44" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N44" s="97">
         <f>MEDIAN(N36:N42)</f>
         <v>4.58</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" ht="17" thickBot="1">
       <c r="B45" s="16" t="s">
         <v>21</v>
       </c>
@@ -24458,36 +24490,36 @@
         <v>0.14349083262570828</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="159" t="s">
+    <row r="46" spans="2:18">
+      <c r="B46" s="157" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="108"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="169"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="168"/>
     </row>
-    <row r="47" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="160"/>
+    <row r="47" spans="2:18" ht="17" thickBot="1">
+      <c r="B47" s="158"/>
       <c r="C47" s="109"/>
-      <c r="D47" s="171" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="165"/>
+      <c r="D47" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="163"/>
       <c r="L47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="16"/>
     </row>
-    <row r="48" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="160"/>
+    <row r="48" spans="2:18" ht="17" thickBot="1">
+      <c r="B48" s="158"/>
       <c r="C48" s="109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="94" t="s">
         <v>49</v>
@@ -24495,30 +24527,30 @@
       <c r="E48" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="120" t="s">
+      <c r="F48" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="120" t="s">
+      <c r="G48" s="118" t="s">
         <v>52</v>
       </c>
       <c r="H48" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="159" t="s">
+      <c r="L48" s="157" t="s">
         <v>15</v>
       </c>
       <c r="M48" s="103"/>
-      <c r="N48" s="170"/>
-      <c r="O48" s="168"/>
-      <c r="P48" s="168"/>
-      <c r="Q48" s="168"/>
-      <c r="R48" s="169"/>
+      <c r="N48" s="166"/>
+      <c r="O48" s="167"/>
+      <c r="P48" s="167"/>
+      <c r="Q48" s="167"/>
+      <c r="R48" s="168"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18">
       <c r="B49" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="137" t="s">
+      <c r="C49" s="135" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="95">
@@ -24536,17 +24568,17 @@
       <c r="H49" s="98">
         <v>263.2</v>
       </c>
-      <c r="L49" s="160"/>
+      <c r="L49" s="158"/>
       <c r="M49" s="104"/>
-      <c r="N49" s="171"/>
-      <c r="O49" s="164"/>
-      <c r="P49" s="164"/>
-      <c r="Q49" s="164"/>
-      <c r="R49" s="165"/>
+      <c r="N49" s="169"/>
+      <c r="O49" s="162"/>
+      <c r="P49" s="162"/>
+      <c r="Q49" s="162"/>
+      <c r="R49" s="163"/>
     </row>
-    <row r="50" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" ht="17" thickBot="1">
       <c r="B50" s="20"/>
-      <c r="C50" s="138" t="s">
+      <c r="C50" s="136" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="58">
@@ -24564,7 +24596,7 @@
       <c r="H50" s="99">
         <v>279.2</v>
       </c>
-      <c r="L50" s="160"/>
+      <c r="L50" s="158"/>
       <c r="M50" s="104" t="s">
         <v>39</v>
       </c>
@@ -24574,19 +24606,19 @@
       <c r="O50" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P50" s="120" t="s">
+      <c r="P50" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="Q50" s="120" t="s">
+      <c r="Q50" s="118" t="s">
         <v>52</v>
       </c>
       <c r="R50" s="93" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" ht="17" thickBot="1">
       <c r="B51" s="21"/>
-      <c r="C51" s="121" t="s">
+      <c r="C51" s="119" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="62">
@@ -24626,7 +24658,7 @@
         <v>110.124</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18">
       <c r="B52" s="25"/>
       <c r="C52" s="74" t="s">
         <v>41</v>
@@ -24671,10 +24703,10 @@
         <v>120.90900000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:18">
       <c r="B53" s="25"/>
       <c r="C53" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="97">
         <f>MEDIAN(D49:D51)</f>
@@ -24716,7 +24748,7 @@
         <v>112.61499999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:18">
       <c r="C54" s="74" t="s">
         <v>48</v>
       </c>
@@ -24760,7 +24792,7 @@
         <v>214.214</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18">
       <c r="L55" s="8"/>
       <c r="M55" s="25" t="s">
         <v>37</v>
@@ -24781,7 +24813,7 @@
         <v>165.518</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18">
       <c r="L56" s="8"/>
       <c r="M56" s="25" t="s">
         <v>38</v>
@@ -24802,7 +24834,7 @@
         <v>135.69999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" ht="17" thickBot="1">
       <c r="L57" s="9"/>
       <c r="M57" s="64" t="s">
         <v>40</v>
@@ -24823,7 +24855,7 @@
         <v>128.99700000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18">
       <c r="M58" s="74" t="s">
         <v>41</v>
       </c>
@@ -24848,7 +24880,7 @@
         <v>141.15385714285716</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:18">
       <c r="M59" s="74" t="s">
         <v>48</v>
       </c>
@@ -24873,38 +24905,38 @@
         <v>37.184455324900426</v>
       </c>
     </row>
-    <row r="62" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" ht="17" thickBot="1">
       <c r="L62" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L63" s="159" t="s">
+    <row r="63" spans="2:18">
+      <c r="L63" s="157" t="s">
         <v>15</v>
       </c>
       <c r="M63" s="108"/>
-      <c r="N63" s="170"/>
-      <c r="O63" s="168"/>
-      <c r="P63" s="168"/>
-      <c r="Q63" s="168"/>
-      <c r="R63" s="169"/>
+      <c r="N63" s="166"/>
+      <c r="O63" s="167"/>
+      <c r="P63" s="167"/>
+      <c r="Q63" s="167"/>
+      <c r="R63" s="168"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L64" s="160"/>
+    <row r="64" spans="2:18">
+      <c r="L64" s="158"/>
       <c r="M64" s="109"/>
-      <c r="N64" s="171" t="s">
-        <v>72</v>
-      </c>
-      <c r="O64" s="164"/>
-      <c r="P64" s="164"/>
-      <c r="Q64" s="164"/>
-      <c r="R64" s="165"/>
+      <c r="N64" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="O64" s="162"/>
+      <c r="P64" s="162"/>
+      <c r="Q64" s="162"/>
+      <c r="R64" s="163"/>
     </row>
-    <row r="65" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L65" s="160"/>
+    <row r="65" spans="12:18" ht="17" thickBot="1">
+      <c r="L65" s="158"/>
       <c r="M65" s="109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N65" s="94" t="s">
         <v>49</v>
@@ -24912,21 +24944,21 @@
       <c r="O65" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P65" s="120" t="s">
+      <c r="P65" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="Q65" s="120" t="s">
+      <c r="Q65" s="118" t="s">
         <v>52</v>
       </c>
       <c r="R65" s="93" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="12:18">
       <c r="L66" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="144" t="s">
+      <c r="M66" s="142" t="s">
         <v>58</v>
       </c>
       <c r="N66" s="95">
@@ -24945,9 +24977,9 @@
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="12:18">
       <c r="L67" s="8"/>
-      <c r="M67" s="145" t="s">
+      <c r="M67" s="143" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="58">
@@ -24966,9 +24998,9 @@
         <v>150.1</v>
       </c>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="12:18">
       <c r="L68" s="8"/>
-      <c r="M68" s="145" t="s">
+      <c r="M68" s="143" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="58">
@@ -24987,9 +25019,9 @@
         <v>264.60000000000002</v>
       </c>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="12:18">
       <c r="L69" s="8"/>
-      <c r="M69" s="145" t="s">
+      <c r="M69" s="143" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="58">
@@ -25008,9 +25040,9 @@
         <v>192.9</v>
       </c>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="12:18">
       <c r="L70" s="8"/>
-      <c r="M70" s="145" t="s">
+      <c r="M70" s="143" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="58">
@@ -25029,9 +25061,9 @@
         <v>279.7</v>
       </c>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="12:18">
       <c r="L71" s="8"/>
-      <c r="M71" s="145" t="s">
+      <c r="M71" s="143" t="s">
         <v>38</v>
       </c>
       <c r="N71" s="58">
@@ -25050,9 +25082,9 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="72" spans="12:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:18" ht="17" thickBot="1">
       <c r="L72" s="9"/>
-      <c r="M72" s="122" t="s">
+      <c r="M72" s="120" t="s">
         <v>40</v>
       </c>
       <c r="N72" s="96">
@@ -25071,7 +25103,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="12:18">
       <c r="M73" s="74" t="s">
         <v>41</v>
       </c>
@@ -25096,9 +25128,9 @@
         <v>188.15714285714284</v>
       </c>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="12:18">
       <c r="M74" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N74" s="97">
         <f>MEDIAN(N66:N72)</f>
@@ -25121,7 +25153,7 @@
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="12:18">
       <c r="M75" s="74" t="s">
         <v>48</v>
       </c>
@@ -25146,17 +25178,21 @@
         <v>60.569542872713981</v>
       </c>
     </row>
-    <row r="96" spans="14:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:14" ht="18">
       <c r="N96" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D47:H47"/>
@@ -25170,16 +25206,12 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25188,142 +25220,162 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC00F9BE-45C7-0E40-B7A2-DE5323F92B6D}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="113"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="113"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="113"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="113"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="16" t="s">
+    <row r="1" spans="2:8" ht="17" thickBot="1"/>
+    <row r="2" spans="2:8" ht="17" thickBot="1">
+      <c r="B2" s="68"/>
+      <c r="C2" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16" t="s">
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="79">
+        <v>24</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="189">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="116" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="37">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="187">
+        <v>24</v>
+      </c>
+      <c r="H4" s="45"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="36">
+    <row r="5" spans="2:8" ht="17" thickBot="1">
+      <c r="B5" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="128">
         <v>24</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="114">
-        <v>40</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="114">
-        <v>96</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="115">
-        <v>8</v>
-      </c>
+      <c r="E5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="188">
+        <v>112</v>
+      </c>
+      <c r="H5" s="36"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="36">
-        <v>24</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="114">
-        <v>24</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="115">
-        <v>24</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="113">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="76">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="113">
-        <v>112</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="115">
-        <v>24</v>
-      </c>
-      <c r="J5" s="36"/>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="113">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="17" thickBot="1">
       <c r="B6" s="74"/>
       <c r="C6" s="76"/>
-      <c r="H6" s="74" t="s">
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1">
+      <c r="E7" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="E8" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="189">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="E9" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="190">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="E10" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="190">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="E11" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="113">
+      <c r="F11" s="191">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H7" s="74" t="s">
+    <row r="12" spans="2:8" ht="17" thickBot="1">
+      <c r="E12" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="113">
+      <c r="F12" s="188">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17" thickBot="1"/>
+    <row r="14" spans="2:8" ht="17" thickBot="1">
+      <c r="E14" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="E15" s="192" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="E16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="191">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="17" thickBot="1">
+      <c r="E17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="188">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -25342,7 +25394,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -25353,73 +25405,73 @@
     <col min="9" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="174" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="176"/>
-      <c r="I2" s="174" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="174"/>
+      <c r="I2" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="174"/>
     </row>
-    <row r="3" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="177" t="s">
+    <row r="3" spans="2:11" ht="17" thickBot="1">
+      <c r="B3" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
-      <c r="I3" s="177" t="s">
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="I3" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="177"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="172" t="s">
+    <row r="4" spans="2:11">
+      <c r="B4" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="176"/>
-      <c r="I4" s="172" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
+      <c r="I4" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="174" t="s">
+      <c r="J4" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="176"/>
+      <c r="K4" s="174"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="173"/>
-      <c r="C5" s="181" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" s="171"/>
+      <c r="C5" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="181" t="s">
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="181"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="183"/>
+      <c r="K5" s="181"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="180"/>
+    <row r="6" spans="2:11" ht="17" thickBot="1">
+      <c r="B6" s="178"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
@@ -25435,15 +25487,15 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="180"/>
-      <c r="J6" s="117" t="s">
+      <c r="I6" s="178"/>
+      <c r="J6" s="115" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -25468,11 +25520,11 @@
       <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="118" t="s">
+      <c r="K7" s="116" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
@@ -25497,11 +25549,11 @@
       <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="118" t="s">
+      <c r="K8" s="116" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
@@ -25526,7 +25578,7 @@
       <c r="J9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="119" t="s">
+      <c r="K9" s="117" t="s">
         <v>56</v>
       </c>
     </row>
@@ -25552,11 +25604,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75216B1-824B-AC4B-AE4D-D08E9303B6EF}">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="43" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -25582,46 +25634,46 @@
     <col min="27" max="28" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="185" t="s">
+    <row r="1" spans="2:28" ht="17" thickBot="1"/>
+    <row r="2" spans="2:28" ht="17" thickBot="1">
+      <c r="B2" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
       <c r="I2" s="54"/>
       <c r="J2" s="27"/>
-      <c r="L2" s="185" t="s">
+      <c r="L2" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
       <c r="S2" s="54"/>
       <c r="T2" s="27"/>
-      <c r="V2" s="185" t="s">
+      <c r="V2" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28">
       <c r="B3" s="16"/>
       <c r="L3" s="16"/>
       <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="17" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
@@ -25632,87 +25684,87 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="159" t="s">
+    <row r="5" spans="2:28">
+      <c r="B5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
       <c r="I5" s="23"/>
       <c r="J5" s="28"/>
-      <c r="L5" s="159" t="s">
+      <c r="L5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="170" t="s">
+      <c r="M5" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
       <c r="S5" s="23"/>
       <c r="T5" s="28"/>
-      <c r="V5" s="159" t="s">
+      <c r="V5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="170" t="s">
+      <c r="W5" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="167"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="160"/>
-      <c r="C6" s="173" t="s">
+    <row r="6" spans="2:28">
+      <c r="B6" s="158"/>
+      <c r="C6" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
       <c r="I6" s="23"/>
       <c r="J6" s="28"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="173" t="s">
+      <c r="L6" s="158"/>
+      <c r="M6" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="164" t="s">
+      <c r="N6" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
       <c r="S6" s="23"/>
       <c r="T6" s="28"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="173" t="s">
+      <c r="V6" s="158"/>
+      <c r="W6" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="164" t="s">
+      <c r="X6" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="164"/>
-      <c r="AB6" s="164"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="162"/>
+      <c r="AA6" s="162"/>
+      <c r="AB6" s="162"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="160"/>
-      <c r="C7" s="184"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1">
+      <c r="B7" s="158"/>
+      <c r="C7" s="182"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25730,8 +25782,8 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="184"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="182"/>
       <c r="N7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25749,8 +25801,8 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="29"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="184"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="182"/>
       <c r="X7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25767,7 +25819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28">
       <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
@@ -25836,7 +25888,7 @@
         <v>51.689</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
@@ -25905,7 +25957,7 @@
         <v>42.41</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28">
       <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
@@ -25974,7 +26026,7 @@
         <v>28.091000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="17" thickBot="1">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -26025,7 +26077,7 @@
       <c r="AA11" s="48"/>
       <c r="AB11" s="48"/>
     </row>
-    <row r="14" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" ht="17" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
@@ -26036,79 +26088,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="159" t="s">
+    <row r="15" spans="2:28">
+      <c r="B15" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="L15" s="159" t="s">
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="L15" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="170" t="s">
+      <c r="M15" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="168"/>
-      <c r="V15" s="159" t="s">
+      <c r="N15" s="167"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="167"/>
+      <c r="V15" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="170" t="s">
+      <c r="W15" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="168"/>
+      <c r="X15" s="167"/>
+      <c r="Y15" s="167"/>
+      <c r="Z15" s="167"/>
+      <c r="AA15" s="167"/>
+      <c r="AB15" s="167"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="160"/>
-      <c r="C16" s="173" t="s">
+    <row r="16" spans="2:28">
+      <c r="B16" s="158"/>
+      <c r="C16" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="164" t="s">
+      <c r="D16" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="173" t="s">
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="164" t="s">
+      <c r="N16" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="173" t="s">
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="162"/>
+      <c r="V16" s="158"/>
+      <c r="W16" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="164" t="s">
+      <c r="X16" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="164"/>
-      <c r="AB16" s="164"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
     </row>
-    <row r="17" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="160"/>
-      <c r="C17" s="184"/>
+    <row r="17" spans="2:28" ht="17" thickBot="1">
+      <c r="B17" s="158"/>
+      <c r="C17" s="182"/>
       <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
@@ -26124,8 +26176,8 @@
       <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="160"/>
-      <c r="M17" s="184"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="182"/>
       <c r="N17" s="32" t="s">
         <v>22</v>
       </c>
@@ -26141,8 +26193,8 @@
       <c r="R17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="160"/>
-      <c r="W17" s="184"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="182"/>
       <c r="X17" s="50" t="s">
         <v>22</v>
       </c>
@@ -26159,7 +26211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28">
       <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
@@ -26224,7 +26276,7 @@
         <v>47.664000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28">
       <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
@@ -26289,7 +26341,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" ht="17">
       <c r="B20" s="20" t="s">
         <v>42</v>
       </c>
@@ -26354,7 +26406,7 @@
         <v>56.512</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" ht="17" thickBot="1">
       <c r="B21" s="21" t="s">
         <v>2</v>
       </c>
@@ -26403,17 +26455,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="B15:B17"/>
@@ -26430,6 +26471,17 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:R16"/>
     <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26444,7 +26496,7 @@
       <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -26468,7 +26520,7 @@
     <col min="28" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:28">
       <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
@@ -26501,7 +26553,7 @@
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
     </row>
-    <row r="4" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="17" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
@@ -26512,60 +26564,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="159" t="s">
+    <row r="5" spans="2:28">
+      <c r="B5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
-      <c r="L5" s="159" t="s">
+      <c r="C5" s="166"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="168"/>
+      <c r="L5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="170"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="169"/>
-      <c r="V5" s="159" t="s">
+      <c r="M5" s="166"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="168"/>
+      <c r="V5" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="170"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="169"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="168"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="160"/>
-      <c r="C6" s="171" t="s">
+    <row r="6" spans="2:28">
+      <c r="B6" s="158"/>
+      <c r="C6" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="165"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="171" t="s">
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="163"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="165"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="171" t="s">
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="163"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="165"/>
+      <c r="X6" s="162"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="162"/>
+      <c r="AA6" s="163"/>
     </row>
-    <row r="7" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="160"/>
+    <row r="7" spans="2:28" ht="17" thickBot="1">
+      <c r="B7" s="158"/>
       <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
@@ -26581,7 +26633,7 @@
       <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="160"/>
+      <c r="L7" s="158"/>
       <c r="M7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26597,7 +26649,7 @@
       <c r="Q7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="160"/>
+      <c r="V7" s="158"/>
       <c r="W7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26614,7 +26666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28">
       <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
@@ -26670,7 +26722,7 @@
         <v>12.997</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="17">
       <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
@@ -26726,7 +26778,7 @@
         <v>47.183999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28" ht="17">
       <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
@@ -26782,7 +26834,7 @@
         <v>53.204000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="17" thickBot="1">
       <c r="B11" s="21" t="s">
         <v>2</v>
       </c>

--- a/Docs/Clasificación.xlsx
+++ b/Docs/Clasificación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansanchez/Desktop/ssanchez59_Blockchain/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ECBA69-D5F2-1D43-95B9-977E1E4D2377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B391ABDE-1B26-A044-B791-EE3A3D4E58C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="460" windowWidth="13280" windowHeight="14180" firstSheet="2" activeTab="4" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
+    <workbookView xWindow="5060" yWindow="460" windowWidth="20540" windowHeight="14180" activeTab="1" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
   </bookViews>
   <sheets>
     <sheet name="Throughput" sheetId="6" r:id="rId1"/>
@@ -1094,6 +1094,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,13 +1149,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,34 +1206,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -7129,7 +7129,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8965,7 +8965,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -22164,7 +22164,7 @@
       </c>
     </row>
     <row r="3" spans="2:26">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="171" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="23"/>
@@ -22172,13 +22172,13 @@
       <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:26">
-      <c r="B4" s="159"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:26" ht="17" thickBot="1">
-      <c r="B5" s="159"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
@@ -22205,7 +22205,7 @@
       <c r="E6" s="36">
         <v>397</v>
       </c>
-      <c r="V6" s="157" t="s">
+      <c r="V6" s="169" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="75"/>
@@ -22226,7 +22226,7 @@
       <c r="E7" s="36">
         <v>74</v>
       </c>
-      <c r="V7" s="158"/>
+      <c r="V7" s="170"/>
       <c r="W7" s="75"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
@@ -22252,7 +22252,7 @@
       <c r="M8" s="129"/>
       <c r="N8" s="129"/>
       <c r="O8" s="129"/>
-      <c r="V8" s="158"/>
+      <c r="V8" s="170"/>
       <c r="W8" s="75" t="s">
         <v>46</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>9558</v>
       </c>
       <c r="I9" s="129"/>
-      <c r="J9" s="160" t="s">
+      <c r="J9" s="172" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="153"/>
@@ -22306,13 +22306,13 @@
     </row>
     <row r="10" spans="2:26">
       <c r="I10" s="129"/>
-      <c r="J10" s="161"/>
+      <c r="J10" s="173"/>
       <c r="K10" s="154"/>
-      <c r="L10" s="164" t="s">
+      <c r="L10" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="164"/>
-      <c r="N10" s="165"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="177"/>
       <c r="O10" s="129"/>
       <c r="V10" s="20"/>
       <c r="W10" s="91">
@@ -22330,7 +22330,7 @@
     </row>
     <row r="11" spans="2:26" ht="17" thickBot="1">
       <c r="I11" s="129"/>
-      <c r="J11" s="161"/>
+      <c r="J11" s="173"/>
       <c r="K11" s="155" t="s">
         <v>46</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>5.2249401910452526</v>
       </c>
       <c r="O19" s="129"/>
-      <c r="V19" s="157" t="s">
+      <c r="V19" s="169" t="s">
         <v>15</v>
       </c>
       <c r="W19" s="75"/>
@@ -22594,14 +22594,14 @@
       <c r="M20" s="129"/>
       <c r="N20" s="129"/>
       <c r="O20" s="129"/>
-      <c r="V20" s="158"/>
+      <c r="V20" s="170"/>
       <c r="W20" s="75"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="9:26" ht="17" thickBot="1">
-      <c r="V21" s="158"/>
+      <c r="V21" s="170"/>
       <c r="W21" s="75" t="s">
         <v>46</v>
       </c>
@@ -22634,7 +22634,7 @@
       </c>
     </row>
     <row r="23" spans="9:26">
-      <c r="J23" s="157" t="s">
+      <c r="J23" s="169" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="77"/>
@@ -22656,13 +22656,13 @@
       </c>
     </row>
     <row r="24" spans="9:26">
-      <c r="J24" s="158"/>
+      <c r="J24" s="170"/>
       <c r="K24" s="78"/>
-      <c r="L24" s="162" t="s">
+      <c r="L24" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="162"/>
-      <c r="N24" s="163"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="175"/>
       <c r="V24" s="20"/>
       <c r="W24" s="91">
         <v>3</v>
@@ -22678,7 +22678,7 @@
       </c>
     </row>
     <row r="25" spans="9:26" ht="17" thickBot="1">
-      <c r="J25" s="158"/>
+      <c r="J25" s="170"/>
       <c r="K25" s="156" t="s">
         <v>46</v>
       </c>
@@ -22919,7 +22919,7 @@
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="10:20">
-      <c r="J37" s="157" t="s">
+      <c r="J37" s="169" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="77"/>
@@ -22928,16 +22928,16 @@
       <c r="N37" s="146"/>
     </row>
     <row r="38" spans="10:20">
-      <c r="J38" s="158"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="78"/>
-      <c r="L38" s="162" t="s">
+      <c r="L38" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="M38" s="162"/>
-      <c r="N38" s="163"/>
+      <c r="M38" s="174"/>
+      <c r="N38" s="175"/>
     </row>
     <row r="39" spans="10:20" ht="17" thickBot="1">
-      <c r="J39" s="158"/>
+      <c r="J39" s="170"/>
       <c r="K39" s="156" t="s">
         <v>46</v>
       </c>
@@ -23100,8 +23100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6207EF-BB85-DB42-AA3B-E98535938494}">
   <dimension ref="B2:AB96"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:AB11"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23166,64 +23166,64 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="2:28" ht="17" thickBot="1">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="169" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="88"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="179"/>
       <c r="I5" s="54"/>
       <c r="J5" s="27"/>
-      <c r="L5" s="157" t="s">
+      <c r="L5" s="169" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="88"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="168"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="179"/>
       <c r="V5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="158"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="89"/>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="163"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="175"/>
       <c r="I6" s="54"/>
       <c r="J6" s="27"/>
-      <c r="L6" s="158"/>
+      <c r="L6" s="170"/>
       <c r="M6" s="89"/>
-      <c r="N6" s="169" t="s">
+      <c r="N6" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="163"/>
-      <c r="V6" s="170" t="s">
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="175"/>
+      <c r="V6" s="182" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="88"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="168"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="179"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="158"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="89" t="s">
         <v>70</v>
       </c>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="158"/>
+      <c r="L7" s="170"/>
       <c r="M7" s="89" t="s">
         <v>70</v>
       </c>
@@ -23263,15 +23263,15 @@
       <c r="R7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="171"/>
+      <c r="V7" s="183"/>
       <c r="W7" s="89"/>
-      <c r="X7" s="162" t="s">
+      <c r="X7" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162"/>
-      <c r="AB7" s="163"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="175"/>
     </row>
     <row r="8" spans="2:28" ht="17" thickBot="1">
       <c r="B8" s="65" t="s">
@@ -23318,7 +23318,7 @@
       <c r="R8" s="98">
         <v>13.65</v>
       </c>
-      <c r="V8" s="171"/>
+      <c r="V8" s="183"/>
       <c r="W8" s="105" t="s">
         <v>70</v>
       </c>
@@ -23644,15 +23644,15 @@
       </c>
     </row>
     <row r="15" spans="2:28">
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="169" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="88"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="179"/>
       <c r="M15" s="74" t="s">
         <v>41</v>
       </c>
@@ -23678,15 +23678,15 @@
       </c>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="158"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="89"/>
-      <c r="D16" s="169" t="s">
+      <c r="D16" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="163"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="175"/>
       <c r="M16" s="74" t="s">
         <v>67</v>
       </c>
@@ -23733,7 +23733,7 @@
       </c>
     </row>
     <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="158"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="89" t="s">
         <v>70</v>
       </c>
@@ -23844,15 +23844,15 @@
       <c r="H19" s="99">
         <v>86.363</v>
       </c>
-      <c r="L19" s="157" t="s">
+      <c r="L19" s="169" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="88"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="168"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="178"/>
+      <c r="P19" s="178"/>
+      <c r="Q19" s="178"/>
+      <c r="R19" s="179"/>
     </row>
     <row r="20" spans="2:28" ht="17" thickBot="1">
       <c r="B20" s="21"/>
@@ -23874,13 +23874,13 @@
       <c r="H20" s="100">
         <v>83.039000000000001</v>
       </c>
-      <c r="L20" s="158"/>
+      <c r="L20" s="170"/>
       <c r="M20" s="89"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="163"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="175"/>
     </row>
     <row r="21" spans="2:28" ht="17" thickBot="1">
       <c r="B21" s="25"/>
@@ -23907,7 +23907,7 @@
         <f>AVERAGE(H18:H20)</f>
         <v>81.62266666666666</v>
       </c>
-      <c r="L21" s="158"/>
+      <c r="L21" s="170"/>
       <c r="M21" s="89" t="s">
         <v>39</v>
       </c>
@@ -24021,7 +24021,7 @@
       </c>
     </row>
     <row r="25" spans="2:28">
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="169" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="70"/>
@@ -24047,7 +24047,7 @@
       </c>
     </row>
     <row r="26" spans="2:28">
-      <c r="B26" s="158"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="71"/>
       <c r="D26" s="78" t="s">
         <v>71</v>
@@ -24073,7 +24073,7 @@
       </c>
     </row>
     <row r="27" spans="2:28" ht="17" thickBot="1">
-      <c r="B27" s="158"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="71" t="s">
         <v>70</v>
       </c>
@@ -24226,7 +24226,7 @@
         <f>STDEV(D28:D30)</f>
         <v>0.16429343667150342</v>
       </c>
-      <c r="L33" s="157" t="s">
+      <c r="L33" s="169" t="s">
         <v>15</v>
       </c>
       <c r="M33" s="73"/>
@@ -24237,23 +24237,23 @@
         <v>21</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="L34" s="158"/>
+      <c r="L34" s="170"/>
       <c r="M34" s="72"/>
       <c r="N34" s="78" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="17" thickBot="1">
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="169" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="103"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="168"/>
-      <c r="L35" s="158"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="179"/>
+      <c r="L35" s="170"/>
       <c r="M35" s="72" t="s">
         <v>70</v>
       </c>
@@ -24262,13 +24262,13 @@
       </c>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="158"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="104"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="163"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="175"/>
       <c r="L36" s="68" t="s">
         <v>2</v>
       </c>
@@ -24280,7 +24280,7 @@
       </c>
     </row>
     <row r="37" spans="2:18" ht="17" thickBot="1">
-      <c r="B37" s="158"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="104" t="s">
         <v>70</v>
       </c>
@@ -24491,33 +24491,33 @@
       </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="169" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="108"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="168"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="179"/>
     </row>
     <row r="47" spans="2:18" ht="17" thickBot="1">
-      <c r="B47" s="158"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="109"/>
-      <c r="D47" s="169" t="s">
+      <c r="D47" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="162"/>
-      <c r="F47" s="162"/>
-      <c r="G47" s="162"/>
-      <c r="H47" s="163"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="175"/>
       <c r="L47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="2:18" ht="17" thickBot="1">
-      <c r="B48" s="158"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="109" t="s">
         <v>70</v>
       </c>
@@ -24536,15 +24536,15 @@
       <c r="H48" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="157" t="s">
+      <c r="L48" s="169" t="s">
         <v>15</v>
       </c>
       <c r="M48" s="103"/>
-      <c r="N48" s="166"/>
-      <c r="O48" s="167"/>
-      <c r="P48" s="167"/>
-      <c r="Q48" s="167"/>
-      <c r="R48" s="168"/>
+      <c r="N48" s="180"/>
+      <c r="O48" s="178"/>
+      <c r="P48" s="178"/>
+      <c r="Q48" s="178"/>
+      <c r="R48" s="179"/>
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="65" t="s">
@@ -24568,13 +24568,13 @@
       <c r="H49" s="98">
         <v>263.2</v>
       </c>
-      <c r="L49" s="158"/>
+      <c r="L49" s="170"/>
       <c r="M49" s="104"/>
-      <c r="N49" s="169"/>
-      <c r="O49" s="162"/>
-      <c r="P49" s="162"/>
-      <c r="Q49" s="162"/>
-      <c r="R49" s="163"/>
+      <c r="N49" s="181"/>
+      <c r="O49" s="174"/>
+      <c r="P49" s="174"/>
+      <c r="Q49" s="174"/>
+      <c r="R49" s="175"/>
     </row>
     <row r="50" spans="2:18" ht="17" thickBot="1">
       <c r="B50" s="20"/>
@@ -24596,7 +24596,7 @@
       <c r="H50" s="99">
         <v>279.2</v>
       </c>
-      <c r="L50" s="158"/>
+      <c r="L50" s="170"/>
       <c r="M50" s="104" t="s">
         <v>39</v>
       </c>
@@ -24912,29 +24912,29 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:18">
-      <c r="L63" s="157" t="s">
+      <c r="L63" s="169" t="s">
         <v>15</v>
       </c>
       <c r="M63" s="108"/>
-      <c r="N63" s="166"/>
-      <c r="O63" s="167"/>
-      <c r="P63" s="167"/>
-      <c r="Q63" s="167"/>
-      <c r="R63" s="168"/>
+      <c r="N63" s="180"/>
+      <c r="O63" s="178"/>
+      <c r="P63" s="178"/>
+      <c r="Q63" s="178"/>
+      <c r="R63" s="179"/>
     </row>
     <row r="64" spans="2:18">
-      <c r="L64" s="158"/>
+      <c r="L64" s="170"/>
       <c r="M64" s="109"/>
-      <c r="N64" s="169" t="s">
+      <c r="N64" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="O64" s="162"/>
-      <c r="P64" s="162"/>
-      <c r="Q64" s="162"/>
-      <c r="R64" s="163"/>
+      <c r="O64" s="174"/>
+      <c r="P64" s="174"/>
+      <c r="Q64" s="174"/>
+      <c r="R64" s="175"/>
     </row>
     <row r="65" spans="12:18" ht="17" thickBot="1">
-      <c r="L65" s="158"/>
+      <c r="L65" s="170"/>
       <c r="M65" s="109" t="s">
         <v>70</v>
       </c>
@@ -25183,16 +25183,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D47:H47"/>
@@ -25206,12 +25202,16 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25239,13 +25239,13 @@
     <row r="1" spans="2:8" ht="17" thickBot="1"/>
     <row r="2" spans="2:8" ht="17" thickBot="1">
       <c r="B2" s="68"/>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="186" t="s">
+      <c r="F2" s="158" t="s">
         <v>18</v>
       </c>
     </row>
@@ -25259,7 +25259,7 @@
       <c r="E3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="189">
+      <c r="F3" s="161">
         <v>40</v>
       </c>
     </row>
@@ -25273,7 +25273,7 @@
       <c r="E4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="187">
+      <c r="F4" s="159">
         <v>24</v>
       </c>
       <c r="H4" s="45"/>
@@ -25288,7 +25288,7 @@
       <c r="E5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="188">
+      <c r="F5" s="160">
         <v>112</v>
       </c>
       <c r="H5" s="36"/>
@@ -25298,10 +25298,10 @@
       <c r="C6" s="76"/>
     </row>
     <row r="7" spans="2:8" ht="17" thickBot="1">
-      <c r="E7" s="185" t="s">
+      <c r="E7" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="186" t="s">
+      <c r="F7" s="158" t="s">
         <v>18</v>
       </c>
     </row>
@@ -25309,7 +25309,7 @@
       <c r="E8" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="189">
+      <c r="F8" s="161">
         <v>96</v>
       </c>
     </row>
@@ -25317,7 +25317,7 @@
       <c r="E9" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="190">
+      <c r="F9" s="162">
         <v>24</v>
       </c>
     </row>
@@ -25325,7 +25325,7 @@
       <c r="E10" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="190">
+      <c r="F10" s="162">
         <v>24</v>
       </c>
     </row>
@@ -25333,7 +25333,7 @@
       <c r="E11" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="191">
+      <c r="F11" s="163">
         <v>160</v>
       </c>
     </row>
@@ -25341,24 +25341,24 @@
       <c r="E12" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="188">
+      <c r="F12" s="160">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="17" thickBot="1"/>
     <row r="14" spans="2:8" ht="17" thickBot="1">
-      <c r="E14" s="194" t="s">
+      <c r="E14" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="195" t="s">
+      <c r="F14" s="167" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="E15" s="192" t="s">
+      <c r="E15" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="193">
+      <c r="F15" s="165">
         <v>8</v>
       </c>
     </row>
@@ -25366,7 +25366,7 @@
       <c r="E16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="191">
+      <c r="F16" s="163">
         <v>24</v>
       </c>
     </row>
@@ -25374,7 +25374,7 @@
       <c r="E17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="188">
+      <c r="F17" s="160">
         <v>160</v>
       </c>
     </row>
@@ -25407,71 +25407,71 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="174"/>
-      <c r="I2" s="172" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="186"/>
+      <c r="I2" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:11" ht="17" thickBot="1">
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
-      <c r="I3" s="175" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="189"/>
+      <c r="I3" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="176"/>
-      <c r="K3" s="177"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="189"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
-      <c r="I4" s="170" t="s">
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
+      <c r="I4" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="172" t="s">
+      <c r="J4" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="174"/>
+      <c r="K4" s="186"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="171"/>
-      <c r="C5" s="179" t="s">
+      <c r="B5" s="183"/>
+      <c r="C5" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="181"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="179" t="s">
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="181"/>
+      <c r="K5" s="193"/>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1">
-      <c r="B6" s="178"/>
+      <c r="B6" s="190"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
@@ -25487,7 +25487,7 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="178"/>
+      <c r="I6" s="190"/>
       <c r="J6" s="115" t="s">
         <v>0</v>
       </c>
@@ -25604,7 +25604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75216B1-824B-AC4B-AE4D-D08E9303B6EF}">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="43" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="43" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
@@ -25636,37 +25636,37 @@
   <sheetData>
     <row r="1" spans="2:28" ht="17" thickBot="1"/>
     <row r="2" spans="2:28" ht="17" thickBot="1">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
       <c r="I2" s="54"/>
       <c r="J2" s="27"/>
-      <c r="L2" s="183" t="s">
+      <c r="L2" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
       <c r="S2" s="54"/>
       <c r="T2" s="27"/>
-      <c r="V2" s="183" t="s">
+      <c r="V2" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="184"/>
-      <c r="AB2" s="184"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="16"/>
@@ -25685,86 +25685,86 @@
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
       <c r="I5" s="23"/>
       <c r="J5" s="28"/>
-      <c r="L5" s="157" t="s">
+      <c r="L5" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="166" t="s">
+      <c r="M5" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
       <c r="S5" s="23"/>
       <c r="T5" s="28"/>
-      <c r="V5" s="157" t="s">
+      <c r="V5" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="166" t="s">
+      <c r="W5" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="178"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="158"/>
-      <c r="C6" s="171" t="s">
+      <c r="B6" s="170"/>
+      <c r="C6" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
       <c r="I6" s="23"/>
       <c r="J6" s="28"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="171" t="s">
+      <c r="L6" s="170"/>
+      <c r="M6" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="162" t="s">
+      <c r="N6" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="174"/>
       <c r="S6" s="23"/>
       <c r="T6" s="28"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="171" t="s">
+      <c r="V6" s="170"/>
+      <c r="W6" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="162" t="s">
+      <c r="X6" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="162"/>
-      <c r="AA6" s="162"/>
-      <c r="AB6" s="162"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="174"/>
+      <c r="AB6" s="174"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="158"/>
-      <c r="C7" s="182"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="194"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25782,8 +25782,8 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="182"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="194"/>
       <c r="N7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25801,8 +25801,8 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="29"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="182"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="194"/>
       <c r="X7" s="22" t="s">
         <v>22</v>
       </c>
@@ -26089,78 +26089,78 @@
       </c>
     </row>
     <row r="15" spans="2:28">
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="L15" s="157" t="s">
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="L15" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="166" t="s">
+      <c r="M15" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="167"/>
-      <c r="R15" s="167"/>
-      <c r="V15" s="157" t="s">
+      <c r="N15" s="178"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="178"/>
+      <c r="Q15" s="178"/>
+      <c r="R15" s="178"/>
+      <c r="V15" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="166" t="s">
+      <c r="W15" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="167"/>
-      <c r="Y15" s="167"/>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="167"/>
+      <c r="X15" s="178"/>
+      <c r="Y15" s="178"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="178"/>
+      <c r="AB15" s="178"/>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="158"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="170"/>
+      <c r="C16" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="171" t="s">
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="162" t="s">
+      <c r="N16" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="V16" s="158"/>
-      <c r="W16" s="171" t="s">
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="174"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="162" t="s">
+      <c r="X16" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
+      <c r="Y16" s="174"/>
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="174"/>
+      <c r="AB16" s="174"/>
     </row>
     <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="158"/>
-      <c r="C17" s="182"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
@@ -26176,8 +26176,8 @@
       <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="158"/>
-      <c r="M17" s="182"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="194"/>
       <c r="N17" s="32" t="s">
         <v>22</v>
       </c>
@@ -26193,8 +26193,8 @@
       <c r="R17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="158"/>
-      <c r="W17" s="182"/>
+      <c r="V17" s="170"/>
+      <c r="W17" s="194"/>
       <c r="X17" s="50" t="s">
         <v>22</v>
       </c>
@@ -26455,6 +26455,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="B15:B17"/>
@@ -26471,17 +26482,6 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:R16"/>
     <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26565,59 +26565,59 @@
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="168"/>
-      <c r="L5" s="157" t="s">
+      <c r="C5" s="180"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="179"/>
+      <c r="L5" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="166"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="168"/>
-      <c r="V5" s="157" t="s">
+      <c r="M5" s="180"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="179"/>
+      <c r="V5" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="166"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="168"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="178"/>
+      <c r="AA5" s="179"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="158"/>
-      <c r="C6" s="169" t="s">
+      <c r="B6" s="170"/>
+      <c r="C6" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="163"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="169" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="175"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="163"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="169" t="s">
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="175"/>
+      <c r="V6" s="170"/>
+      <c r="W6" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="162"/>
-      <c r="AA6" s="163"/>
+      <c r="X6" s="174"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="175"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="158"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
@@ -26633,7 +26633,7 @@
       <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="158"/>
+      <c r="L7" s="170"/>
       <c r="M7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26649,7 +26649,7 @@
       <c r="Q7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="158"/>
+      <c r="V7" s="170"/>
       <c r="W7" s="57" t="s">
         <v>22</v>
       </c>

--- a/Docs/Clasificación.xlsx
+++ b/Docs/Clasificación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansanchez/Desktop/ssanchez59_Blockchain/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B391ABDE-1B26-A044-B791-EE3A3D4E58C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06ED9D8-0E12-8842-A269-DFF711299CA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="460" windowWidth="20540" windowHeight="14180" activeTab="1" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="24020" windowHeight="14140" activeTab="4" xr2:uid="{9CAAA639-FB1D-6F4B-8358-15B60C99743B}"/>
   </bookViews>
   <sheets>
     <sheet name="Throughput" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="79">
   <si>
     <t>Throughput</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Node 1</t>
   </si>
   <si>
-    <t>Block-lattice (2)</t>
-  </si>
-  <si>
     <t>BL (Strings)</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>BL (Original)</t>
   </si>
   <si>
-    <t>Block-la (Original</t>
-  </si>
-  <si>
     <t>Node #</t>
   </si>
   <si>
@@ -270,6 +264,15 @@
   </si>
   <si>
     <t>Number of Nodes</t>
+  </si>
+  <si>
+    <t>Otro Block-lattice (2)</t>
+  </si>
+  <si>
+    <t>Otro Block-lattice (1)</t>
+  </si>
+  <si>
+    <t>Block-lattice (Original</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -984,9 +987,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1149,13 +1149,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1204,6 +1204,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1673,7 +1683,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Throughput!$V$9</c:f>
+              <c:f>Throughput!$J$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8196,7 +8206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Block-la (Original</c:v>
+                  <c:v>Block-lattice (Original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22146,8 +22156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DA798-74D2-DF47-B94E-DCEC5261F551}">
   <dimension ref="B2:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="A26" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22164,7 +22174,7 @@
       </c>
     </row>
     <row r="3" spans="2:26">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="170" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="23"/>
@@ -22172,13 +22182,13 @@
       <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:26">
-      <c r="B4" s="171"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:26" ht="17" thickBot="1">
-      <c r="B5" s="171"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
@@ -22205,7 +22215,7 @@
       <c r="E6" s="36">
         <v>397</v>
       </c>
-      <c r="V6" s="169" t="s">
+      <c r="V6" s="168" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="75"/>
@@ -22226,7 +22236,7 @@
       <c r="E7" s="36">
         <v>74</v>
       </c>
-      <c r="V7" s="170"/>
+      <c r="V7" s="169"/>
       <c r="W7" s="75"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
@@ -22245,14 +22255,14 @@
       <c r="E8" s="36">
         <v>9099</v>
       </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="V8" s="170"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="V8" s="169"/>
       <c r="W8" s="75" t="s">
         <v>46</v>
       </c>
@@ -22279,17 +22289,17 @@
       <c r="E9" s="36">
         <v>9558</v>
       </c>
-      <c r="I9" s="129"/>
-      <c r="J9" s="172" t="s">
+      <c r="I9" s="128"/>
+      <c r="J9" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="153"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="129"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="128"/>
       <c r="V9" s="20" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="W9" s="90">
         <v>1</v>
@@ -22305,15 +22315,15 @@
       </c>
     </row>
     <row r="10" spans="2:26">
-      <c r="I10" s="129"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="176" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="176"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="129"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="175" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="175"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="128"/>
       <c r="V10" s="20"/>
       <c r="W10" s="91">
         <v>2</v>
@@ -22329,21 +22339,21 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="17" thickBot="1">
-      <c r="I11" s="129"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="155" t="s">
+      <c r="I11" s="128"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="151" t="s">
+      <c r="L11" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="151" t="s">
+      <c r="M11" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="152" t="s">
+      <c r="N11" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="129"/>
+      <c r="O11" s="128"/>
       <c r="V11" s="20"/>
       <c r="W11" s="91">
         <v>3</v>
@@ -22359,23 +22369,23 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="I12" s="129"/>
-      <c r="J12" s="131" t="s">
+      <c r="I12" s="128"/>
+      <c r="J12" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="122">
+      <c r="K12" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="121">
         <v>456</v>
       </c>
-      <c r="M12" s="122">
+      <c r="M12" s="121">
         <v>418</v>
       </c>
-      <c r="N12" s="123">
+      <c r="N12" s="122">
         <v>405</v>
       </c>
-      <c r="O12" s="129"/>
+      <c r="O12" s="128"/>
       <c r="V12" s="20"/>
       <c r="W12" s="91">
         <v>4</v>
@@ -22391,10 +22401,10 @@
       </c>
     </row>
     <row r="13" spans="2:26" ht="17" thickBot="1">
-      <c r="I13" s="129"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="124" t="s">
-        <v>73</v>
+      <c r="I13" s="128"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="123" t="s">
+        <v>71</v>
       </c>
       <c r="L13" s="76">
         <v>455</v>
@@ -22402,10 +22412,10 @@
       <c r="M13" s="76">
         <v>440</v>
       </c>
-      <c r="N13" s="125">
+      <c r="N13" s="124">
         <v>396</v>
       </c>
-      <c r="O13" s="129"/>
+      <c r="O13" s="128"/>
       <c r="V13" s="21"/>
       <c r="W13" s="92">
         <v>5</v>
@@ -22421,10 +22431,10 @@
       </c>
     </row>
     <row r="14" spans="2:26">
-      <c r="I14" s="129"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="124" t="s">
-        <v>74</v>
+      <c r="I14" s="128"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="123" t="s">
+        <v>72</v>
       </c>
       <c r="L14" s="76">
         <v>453</v>
@@ -22432,10 +22442,10 @@
       <c r="M14" s="76">
         <v>440</v>
       </c>
-      <c r="N14" s="125">
+      <c r="N14" s="124">
         <v>403</v>
       </c>
-      <c r="O14" s="129"/>
+      <c r="O14" s="128"/>
       <c r="W14" t="s">
         <v>41</v>
       </c>
@@ -22453,10 +22463,10 @@
       </c>
     </row>
     <row r="15" spans="2:26">
-      <c r="I15" s="129"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="124" t="s">
-        <v>75</v>
+      <c r="I15" s="128"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="123" t="s">
+        <v>73</v>
       </c>
       <c r="L15" s="76">
         <v>450</v>
@@ -22464,10 +22474,10 @@
       <c r="M15" s="76">
         <v>435</v>
       </c>
-      <c r="N15" s="125">
+      <c r="N15" s="124">
         <v>394</v>
       </c>
-      <c r="O15" s="129"/>
+      <c r="O15" s="128"/>
       <c r="W15" t="s">
         <v>48</v>
       </c>
@@ -22485,100 +22495,100 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="17" thickBot="1">
-      <c r="I16" s="129"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="126" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="127">
+      <c r="I16" s="128"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="126">
         <v>457</v>
       </c>
-      <c r="M16" s="127">
+      <c r="M16" s="126">
         <v>437</v>
       </c>
-      <c r="N16" s="128">
+      <c r="N16" s="127">
         <v>394</v>
       </c>
-      <c r="O16" s="129"/>
+      <c r="O16" s="128"/>
       <c r="W16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X16" s="114">
+        <v>66</v>
+      </c>
+      <c r="X16" s="113">
         <f>MEDIAN(X9:X13)</f>
         <v>8103</v>
       </c>
-      <c r="Y16" s="114">
+      <c r="Y16" s="113">
         <f t="shared" ref="Y16:Z16" si="3">MEDIAN(Y9:Y13)</f>
         <v>8566</v>
       </c>
-      <c r="Z16" s="114">
+      <c r="Z16" s="113">
         <f t="shared" si="3"/>
         <v>8839</v>
       </c>
     </row>
     <row r="17" spans="9:26">
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129" t="s">
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="133">
+      <c r="L17" s="132">
         <f>AVERAGE(L12:L16)</f>
         <v>454.2</v>
       </c>
-      <c r="M17" s="133">
+      <c r="M17" s="132">
         <f>AVERAGE(M12:M16)</f>
         <v>434</v>
       </c>
-      <c r="N17" s="133">
+      <c r="N17" s="132">
         <f>AVERAGE(N12:N16)</f>
         <v>398.4</v>
       </c>
-      <c r="O17" s="129"/>
+      <c r="O17" s="128"/>
     </row>
     <row r="18" spans="9:26" ht="17" thickBot="1">
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="133">
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="132">
         <f>MEDIAN(L12:L16)</f>
         <v>455</v>
       </c>
-      <c r="M18" s="133">
+      <c r="M18" s="132">
         <f>MEDIAN(M12:M16)</f>
         <v>437</v>
       </c>
-      <c r="N18" s="133">
+      <c r="N18" s="132">
         <f>MEDIAN(N12:N16)</f>
         <v>396</v>
       </c>
-      <c r="O18" s="129"/>
+      <c r="O18" s="128"/>
       <c r="V18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="9:26">
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129" t="s">
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="134">
+      <c r="L19" s="133">
         <f>STDEV(L12:L16)</f>
         <v>2.7748873851023217</v>
       </c>
-      <c r="M19" s="134">
+      <c r="M19" s="133">
         <f>STDEV(M12:M16)</f>
         <v>9.1923881554251174</v>
       </c>
-      <c r="N19" s="134">
+      <c r="N19" s="133">
         <f>STDEV(N12:N16)</f>
         <v>5.2249401910452526</v>
       </c>
-      <c r="O19" s="129"/>
-      <c r="V19" s="169" t="s">
+      <c r="O19" s="128"/>
+      <c r="V19" s="168" t="s">
         <v>15</v>
       </c>
       <c r="W19" s="75"/>
@@ -22587,21 +22597,21 @@
       <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="9:26">
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="V20" s="170"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="V20" s="169"/>
       <c r="W20" s="75"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="9:26" ht="17" thickBot="1">
-      <c r="V21" s="170"/>
+      <c r="V21" s="169"/>
       <c r="W21" s="75" t="s">
         <v>46</v>
       </c>
@@ -22618,7 +22628,7 @@
     <row r="22" spans="9:26" ht="17" thickBot="1">
       <c r="J22" s="16"/>
       <c r="V22" s="20" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="W22" s="90">
         <v>1</v>
@@ -22634,13 +22644,13 @@
       </c>
     </row>
     <row r="23" spans="9:26">
-      <c r="J23" s="169" t="s">
+      <c r="J23" s="168" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="77"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="146"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="145"/>
       <c r="V23" s="20"/>
       <c r="W23" s="91">
         <v>2</v>
@@ -22656,13 +22666,13 @@
       </c>
     </row>
     <row r="24" spans="9:26">
-      <c r="J24" s="170"/>
+      <c r="J24" s="169"/>
       <c r="K24" s="78"/>
-      <c r="L24" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="174"/>
-      <c r="N24" s="175"/>
+      <c r="L24" s="173" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="173"/>
+      <c r="N24" s="174"/>
       <c r="V24" s="20"/>
       <c r="W24" s="91">
         <v>3</v>
@@ -22678,17 +22688,17 @@
       </c>
     </row>
     <row r="25" spans="9:26" ht="17" thickBot="1">
-      <c r="J25" s="170"/>
-      <c r="K25" s="156" t="s">
+      <c r="J25" s="169"/>
+      <c r="K25" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="147" t="s">
+      <c r="L25" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="147" t="s">
+      <c r="M25" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="148" t="s">
+      <c r="N25" s="147" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="20"/>
@@ -22709,8 +22719,8 @@
       <c r="J26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="121" t="s">
-        <v>72</v>
+      <c r="K26" s="120" t="s">
+        <v>70</v>
       </c>
       <c r="L26" s="34">
         <v>72</v>
@@ -22737,8 +22747,8 @@
     </row>
     <row r="27" spans="9:26">
       <c r="J27" s="20"/>
-      <c r="K27" s="124" t="s">
-        <v>73</v>
+      <c r="K27" s="123" t="s">
+        <v>71</v>
       </c>
       <c r="L27" s="36">
         <v>65</v>
@@ -22767,8 +22777,8 @@
     </row>
     <row r="28" spans="9:26">
       <c r="J28" s="20"/>
-      <c r="K28" s="124" t="s">
-        <v>74</v>
+      <c r="K28" s="123" t="s">
+        <v>72</v>
       </c>
       <c r="L28" s="36">
         <v>80</v>
@@ -22797,8 +22807,8 @@
     </row>
     <row r="29" spans="9:26">
       <c r="J29" s="20"/>
-      <c r="K29" s="124" t="s">
-        <v>75</v>
+      <c r="K29" s="123" t="s">
+        <v>73</v>
       </c>
       <c r="L29" s="36">
         <v>73</v>
@@ -22810,7 +22820,7 @@
         <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X29" s="101">
         <f>MEDIAN(X22:X26)</f>
@@ -22827,8 +22837,8 @@
     </row>
     <row r="30" spans="9:26" ht="17" thickBot="1">
       <c r="J30" s="21"/>
-      <c r="K30" s="126" t="s">
-        <v>76</v>
+      <c r="K30" s="125" t="s">
+        <v>74</v>
       </c>
       <c r="L30" s="40">
         <v>82</v>
@@ -22867,7 +22877,7 @@
     </row>
     <row r="32" spans="9:26">
       <c r="K32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L32" s="101">
         <f>MEDIAN(L26:L30)</f>
@@ -22919,35 +22929,35 @@
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="10:20">
-      <c r="J37" s="169" t="s">
+      <c r="J37" s="168" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="77"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="146"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="145"/>
     </row>
     <row r="38" spans="10:20">
-      <c r="J38" s="170"/>
+      <c r="J38" s="169"/>
       <c r="K38" s="78"/>
-      <c r="L38" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="M38" s="174"/>
-      <c r="N38" s="175"/>
+      <c r="L38" s="173" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="173"/>
+      <c r="N38" s="174"/>
     </row>
     <row r="39" spans="10:20" ht="17" thickBot="1">
-      <c r="J39" s="170"/>
-      <c r="K39" s="156" t="s">
+      <c r="J39" s="169"/>
+      <c r="K39" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="147" t="s">
+      <c r="L39" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="147" t="s">
+      <c r="M39" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="148" t="s">
+      <c r="N39" s="147" t="s">
         <v>27</v>
       </c>
     </row>
@@ -22955,8 +22965,8 @@
       <c r="J40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K40" s="121" t="s">
-        <v>72</v>
+      <c r="K40" s="120" t="s">
+        <v>70</v>
       </c>
       <c r="L40" s="34">
         <v>6197</v>
@@ -22970,8 +22980,8 @@
     </row>
     <row r="41" spans="10:20">
       <c r="J41" s="20"/>
-      <c r="K41" s="124" t="s">
-        <v>73</v>
+      <c r="K41" s="123" t="s">
+        <v>71</v>
       </c>
       <c r="L41" s="36">
         <v>6061</v>
@@ -22985,8 +22995,8 @@
     </row>
     <row r="42" spans="10:20">
       <c r="J42" s="20"/>
-      <c r="K42" s="124" t="s">
-        <v>74</v>
+      <c r="K42" s="123" t="s">
+        <v>72</v>
       </c>
       <c r="L42" s="36">
         <v>6208</v>
@@ -23000,8 +23010,8 @@
     </row>
     <row r="43" spans="10:20">
       <c r="J43" s="20"/>
-      <c r="K43" s="124" t="s">
-        <v>75</v>
+      <c r="K43" s="123" t="s">
+        <v>73</v>
       </c>
       <c r="L43" s="36">
         <v>6071</v>
@@ -23015,8 +23025,8 @@
     </row>
     <row r="44" spans="10:20" ht="17" thickBot="1">
       <c r="J44" s="21"/>
-      <c r="K44" s="126" t="s">
-        <v>76</v>
+      <c r="K44" s="125" t="s">
+        <v>74</v>
       </c>
       <c r="L44" s="40">
         <v>6005</v>
@@ -23047,7 +23057,7 @@
     </row>
     <row r="46" spans="10:20">
       <c r="K46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L46" s="101">
         <f>MEDIAN(L40:L44)</f>
@@ -23100,8 +23110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6207EF-BB85-DB42-AA3B-E98535938494}">
   <dimension ref="B2:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A33" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y74" sqref="Y74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23166,22 +23176,22 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="2:28" ht="17" thickBot="1">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="88"/>
-      <c r="D5" s="180"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="178"/>
       <c r="F5" s="178"/>
       <c r="G5" s="178"/>
       <c r="H5" s="179"/>
       <c r="I5" s="54"/>
       <c r="J5" s="27"/>
-      <c r="L5" s="169" t="s">
+      <c r="L5" s="168" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="88"/>
-      <c r="N5" s="180"/>
+      <c r="N5" s="177"/>
       <c r="O5" s="178"/>
       <c r="P5" s="178"/>
       <c r="Q5" s="178"/>
@@ -23192,27 +23202,27 @@
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="170"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="89"/>
-      <c r="D6" s="181" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="175"/>
+      <c r="D6" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="174"/>
       <c r="I6" s="54"/>
       <c r="J6" s="27"/>
-      <c r="L6" s="170"/>
+      <c r="L6" s="169"/>
       <c r="M6" s="89"/>
-      <c r="N6" s="181" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="175"/>
-      <c r="V6" s="182" t="s">
+      <c r="N6" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="174"/>
+      <c r="V6" s="181" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="88"/>
@@ -23223,9 +23233,9 @@
       <c r="AB6" s="179"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="170"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="94" t="s">
         <v>49</v>
@@ -23244,9 +23254,9 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="170"/>
+      <c r="L7" s="169"/>
       <c r="M7" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N7" s="94" t="s">
         <v>49</v>
@@ -23254,30 +23264,30 @@
       <c r="O7" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="118" t="s">
+      <c r="P7" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="118" t="s">
+      <c r="Q7" s="117" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="183"/>
+      <c r="V7" s="182"/>
       <c r="W7" s="89"/>
-      <c r="X7" s="174" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="175"/>
+      <c r="X7" s="173" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="173"/>
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173"/>
+      <c r="AB7" s="174"/>
     </row>
     <row r="8" spans="2:28" ht="17" thickBot="1">
       <c r="B8" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="134" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="95">
@@ -23318,9 +23328,9 @@
       <c r="R8" s="98">
         <v>13.65</v>
       </c>
-      <c r="V8" s="183"/>
+      <c r="V8" s="182"/>
       <c r="W8" s="105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X8" s="22" t="s">
         <v>49</v>
@@ -23340,7 +23350,7 @@
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="20"/>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="135" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="58">
@@ -23382,7 +23392,7 @@
       <c r="V9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="142" t="s">
+      <c r="W9" s="141" t="s">
         <v>33</v>
       </c>
       <c r="X9" s="34">
@@ -23403,7 +23413,7 @@
     </row>
     <row r="10" spans="2:28" ht="17" thickBot="1">
       <c r="B10" s="21"/>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="118" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="62">
@@ -23445,7 +23455,7 @@
       <c r="V10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="143" t="s">
+      <c r="W10" s="142" t="s">
         <v>33</v>
       </c>
       <c r="X10" s="36">
@@ -23505,19 +23515,19 @@
       <c r="V11" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="144" t="s">
+      <c r="W11" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="112">
+      <c r="X11" s="111">
         <v>64</v>
       </c>
-      <c r="Y11" s="112">
+      <c r="Y11" s="111">
         <v>35.9</v>
       </c>
-      <c r="Z11" s="112">
+      <c r="Z11" s="111">
         <v>66.599999999999994</v>
       </c>
-      <c r="AA11" s="112">
+      <c r="AA11" s="111">
         <v>109.9</v>
       </c>
       <c r="AB11" s="100">
@@ -23527,7 +23537,7 @@
     <row r="12" spans="2:28">
       <c r="B12" s="25"/>
       <c r="C12" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="97">
         <f>MEDIAN(D8:D10)</f>
@@ -23643,12 +23653,12 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
-      <c r="B15" s="169" t="s">
+    <row r="15" spans="2:28" ht="17" thickBot="1">
+      <c r="B15" s="168" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="88"/>
-      <c r="D15" s="180"/>
+      <c r="D15" s="177"/>
       <c r="E15" s="178"/>
       <c r="F15" s="178"/>
       <c r="G15" s="178"/>
@@ -23678,17 +23688,17 @@
       </c>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="170"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="89"/>
-      <c r="D16" s="181" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="175"/>
+      <c r="D16" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="174"/>
       <c r="M16" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N16" s="97">
         <f>MEDIAN(N8:N14)</f>
@@ -23710,32 +23720,32 @@
         <f t="shared" si="3"/>
         <v>22.85</v>
       </c>
-      <c r="V16" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="W16" s="74" t="s">
+      <c r="V16" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="34">
         <v>17.378</v>
       </c>
-      <c r="Y16" s="87">
+      <c r="Y16" s="197">
         <v>26.495626999999999</v>
       </c>
-      <c r="Z16" s="87">
+      <c r="Z16" s="197">
         <v>61.569000000000003</v>
       </c>
-      <c r="AA16" s="87">
+      <c r="AA16" s="197">
         <v>83.432000000000002</v>
       </c>
-      <c r="AB16" s="111">
+      <c r="AB16" s="198">
         <v>137.136</v>
       </c>
     </row>
     <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="170"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="94" t="s">
         <v>23</v>
@@ -23775,33 +23785,33 @@
         <f>STDEV(R8:R14)</f>
         <v>5.1490086886885864</v>
       </c>
-      <c r="V17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W17" s="25" t="s">
+      <c r="V17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W17" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="36">
+      <c r="X17" s="40">
         <v>38.976999999999997</v>
       </c>
-      <c r="Y17" s="36">
+      <c r="Y17" s="40">
         <v>32.965000000000003</v>
       </c>
-      <c r="Z17" s="55">
+      <c r="Z17" s="199">
         <v>21.265999999999998</v>
       </c>
-      <c r="AA17" s="36">
+      <c r="AA17" s="40">
         <v>47.673000000000002</v>
       </c>
-      <c r="AB17" s="99">
+      <c r="AB17" s="100">
         <v>85.634</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="17" thickBot="1">
       <c r="B18" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="135">
+        <v>67</v>
+      </c>
+      <c r="C18" s="134">
         <v>2</v>
       </c>
       <c r="D18" s="95">
@@ -23826,7 +23836,7 @@
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="20"/>
-      <c r="C19" s="136">
+      <c r="C19" s="135">
         <v>3</v>
       </c>
       <c r="D19" s="58">
@@ -23844,11 +23854,11 @@
       <c r="H19" s="99">
         <v>86.363</v>
       </c>
-      <c r="L19" s="169" t="s">
+      <c r="L19" s="168" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="88"/>
-      <c r="N19" s="180"/>
+      <c r="N19" s="177"/>
       <c r="O19" s="178"/>
       <c r="P19" s="178"/>
       <c r="Q19" s="178"/>
@@ -23856,7 +23866,7 @@
     </row>
     <row r="20" spans="2:28" ht="17" thickBot="1">
       <c r="B20" s="21"/>
-      <c r="C20" s="119">
+      <c r="C20" s="118">
         <v>4</v>
       </c>
       <c r="D20" s="62">
@@ -23874,13 +23884,13 @@
       <c r="H20" s="100">
         <v>83.039000000000001</v>
       </c>
-      <c r="L20" s="170"/>
+      <c r="L20" s="169"/>
       <c r="M20" s="89"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="174"/>
-      <c r="P20" s="174"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="175"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="174"/>
     </row>
     <row r="21" spans="2:28" ht="17" thickBot="1">
       <c r="B21" s="25"/>
@@ -23907,7 +23917,7 @@
         <f>AVERAGE(H18:H20)</f>
         <v>81.62266666666666</v>
       </c>
-      <c r="L21" s="170"/>
+      <c r="L21" s="169"/>
       <c r="M21" s="89" t="s">
         <v>39</v>
       </c>
@@ -23953,7 +23963,7 @@
         <v>5.5848592044324068</v>
       </c>
       <c r="L22" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="69" t="s">
         <v>33</v>
@@ -24021,7 +24031,7 @@
       </c>
     </row>
     <row r="25" spans="2:28">
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="168" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="70"/>
@@ -24047,10 +24057,10 @@
       </c>
     </row>
     <row r="26" spans="2:28">
-      <c r="B26" s="170"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="71"/>
       <c r="D26" s="78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="25" t="s">
@@ -24073,11 +24083,11 @@
       </c>
     </row>
     <row r="27" spans="2:28" ht="17" thickBot="1">
-      <c r="B27" s="170"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="139" t="s">
         <v>49</v>
       </c>
       <c r="L27" s="8"/>
@@ -24104,7 +24114,7 @@
       <c r="B28" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="136" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="81">
@@ -24132,7 +24142,7 @@
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="20"/>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="137" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="82">
@@ -24164,7 +24174,7 @@
     </row>
     <row r="30" spans="2:28" ht="17" thickBot="1">
       <c r="B30" s="21"/>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="138" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="83">
@@ -24207,7 +24217,7 @@
     <row r="32" spans="2:28" ht="17" thickBot="1">
       <c r="B32" s="25"/>
       <c r="C32" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="97">
         <f>MEDIAN(D28:D30)</f>
@@ -24226,7 +24236,7 @@
         <f>STDEV(D28:D30)</f>
         <v>0.16429343667150342</v>
       </c>
-      <c r="L33" s="169" t="s">
+      <c r="L33" s="168" t="s">
         <v>15</v>
       </c>
       <c r="M33" s="73"/>
@@ -24237,42 +24247,42 @@
         <v>21</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="L34" s="170"/>
+      <c r="L34" s="169"/>
       <c r="M34" s="72"/>
       <c r="N34" s="78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="17" thickBot="1">
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="168" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="103"/>
-      <c r="D35" s="180"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="178"/>
       <c r="F35" s="178"/>
       <c r="G35" s="178"/>
       <c r="H35" s="179"/>
-      <c r="L35" s="170"/>
+      <c r="L35" s="169"/>
       <c r="M35" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="N35" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35" s="140" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="170"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="104"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="175"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="174"/>
       <c r="L36" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="142" t="s">
+      <c r="M36" s="141" t="s">
         <v>33</v>
       </c>
       <c r="N36" s="81">
@@ -24280,9 +24290,9 @@
       </c>
     </row>
     <row r="37" spans="2:18" ht="17" thickBot="1">
-      <c r="B37" s="170"/>
+      <c r="B37" s="169"/>
       <c r="C37" s="104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37" s="94" t="s">
         <v>23</v>
@@ -24300,7 +24310,7 @@
         <v>47</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="143" t="s">
+      <c r="M37" s="142" t="s">
         <v>34</v>
       </c>
       <c r="N37" s="82">
@@ -24309,9 +24319,9 @@
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="135">
+        <v>59</v>
+      </c>
+      <c r="C38" s="134">
         <v>1</v>
       </c>
       <c r="D38" s="95">
@@ -24330,7 +24340,7 @@
         <v>132.91499999999999</v>
       </c>
       <c r="L38" s="8"/>
-      <c r="M38" s="143" t="s">
+      <c r="M38" s="142" t="s">
         <v>35</v>
       </c>
       <c r="N38" s="82">
@@ -24339,7 +24349,7 @@
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="20"/>
-      <c r="C39" s="136">
+      <c r="C39" s="135">
         <v>3</v>
       </c>
       <c r="D39" s="58">
@@ -24358,7 +24368,7 @@
         <v>180.43299999999999</v>
       </c>
       <c r="L39" s="8"/>
-      <c r="M39" s="143" t="s">
+      <c r="M39" s="142" t="s">
         <v>36</v>
       </c>
       <c r="N39" s="82">
@@ -24367,7 +24377,7 @@
     </row>
     <row r="40" spans="2:18" ht="17" thickBot="1">
       <c r="B40" s="21"/>
-      <c r="C40" s="119">
+      <c r="C40" s="118">
         <v>4</v>
       </c>
       <c r="D40" s="62">
@@ -24386,7 +24396,7 @@
         <v>155.619</v>
       </c>
       <c r="L40" s="8"/>
-      <c r="M40" s="143" t="s">
+      <c r="M40" s="142" t="s">
         <v>37</v>
       </c>
       <c r="N40" s="82">
@@ -24419,7 +24429,7 @@
         <v>156.32233333333332</v>
       </c>
       <c r="L41" s="8"/>
-      <c r="M41" s="143" t="s">
+      <c r="M41" s="142" t="s">
         <v>38</v>
       </c>
       <c r="N41" s="82">
@@ -24452,7 +24462,7 @@
         <v>23.766806460551901</v>
       </c>
       <c r="L42" s="9"/>
-      <c r="M42" s="120" t="s">
+      <c r="M42" s="119" t="s">
         <v>40</v>
       </c>
       <c r="N42" s="86">
@@ -24470,7 +24480,7 @@
     </row>
     <row r="44" spans="2:18">
       <c r="M44" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N44" s="97">
         <f>MEDIAN(N36:N42)</f>
@@ -24491,35 +24501,35 @@
       </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="169" t="s">
+      <c r="B46" s="168" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="108"/>
-      <c r="D46" s="180"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="178"/>
       <c r="F46" s="178"/>
       <c r="G46" s="178"/>
       <c r="H46" s="179"/>
     </row>
     <row r="47" spans="2:18" ht="17" thickBot="1">
-      <c r="B47" s="170"/>
+      <c r="B47" s="169"/>
       <c r="C47" s="109"/>
-      <c r="D47" s="181" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="174"/>
-      <c r="F47" s="174"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="175"/>
+      <c r="D47" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="173"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="173"/>
+      <c r="H47" s="174"/>
       <c r="L47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="16"/>
     </row>
     <row r="48" spans="2:18" ht="17" thickBot="1">
-      <c r="B48" s="170"/>
+      <c r="B48" s="169"/>
       <c r="C48" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="94" t="s">
         <v>49</v>
@@ -24527,20 +24537,20 @@
       <c r="E48" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="118" t="s">
+      <c r="F48" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="118" t="s">
+      <c r="G48" s="117" t="s">
         <v>52</v>
       </c>
       <c r="H48" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="169" t="s">
+      <c r="L48" s="168" t="s">
         <v>15</v>
       </c>
       <c r="M48" s="103"/>
-      <c r="N48" s="180"/>
+      <c r="N48" s="177"/>
       <c r="O48" s="178"/>
       <c r="P48" s="178"/>
       <c r="Q48" s="178"/>
@@ -24550,7 +24560,7 @@
       <c r="B49" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="135" t="s">
+      <c r="C49" s="134" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="95">
@@ -24568,17 +24578,17 @@
       <c r="H49" s="98">
         <v>263.2</v>
       </c>
-      <c r="L49" s="170"/>
+      <c r="L49" s="169"/>
       <c r="M49" s="104"/>
-      <c r="N49" s="181"/>
-      <c r="O49" s="174"/>
-      <c r="P49" s="174"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="175"/>
+      <c r="N49" s="180"/>
+      <c r="O49" s="173"/>
+      <c r="P49" s="173"/>
+      <c r="Q49" s="173"/>
+      <c r="R49" s="174"/>
     </row>
     <row r="50" spans="2:18" ht="17" thickBot="1">
       <c r="B50" s="20"/>
-      <c r="C50" s="136" t="s">
+      <c r="C50" s="135" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="58">
@@ -24596,7 +24606,7 @@
       <c r="H50" s="99">
         <v>279.2</v>
       </c>
-      <c r="L50" s="170"/>
+      <c r="L50" s="169"/>
       <c r="M50" s="104" t="s">
         <v>39</v>
       </c>
@@ -24606,10 +24616,10 @@
       <c r="O50" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P50" s="118" t="s">
+      <c r="P50" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="Q50" s="118" t="s">
+      <c r="Q50" s="117" t="s">
         <v>52</v>
       </c>
       <c r="R50" s="93" t="s">
@@ -24618,7 +24628,7 @@
     </row>
     <row r="51" spans="2:18" ht="17" thickBot="1">
       <c r="B51" s="21"/>
-      <c r="C51" s="119" t="s">
+      <c r="C51" s="118" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="62">
@@ -24637,7 +24647,7 @@
         <v>353.4</v>
       </c>
       <c r="L51" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M51" s="69" t="s">
         <v>58</v>
@@ -24706,7 +24716,7 @@
     <row r="53" spans="2:18">
       <c r="B53" s="25"/>
       <c r="C53" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="97">
         <f>MEDIAN(D49:D51)</f>
@@ -24912,31 +24922,31 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:18">
-      <c r="L63" s="169" t="s">
+      <c r="L63" s="168" t="s">
         <v>15</v>
       </c>
       <c r="M63" s="108"/>
-      <c r="N63" s="180"/>
+      <c r="N63" s="177"/>
       <c r="O63" s="178"/>
       <c r="P63" s="178"/>
       <c r="Q63" s="178"/>
       <c r="R63" s="179"/>
     </row>
     <row r="64" spans="2:18">
-      <c r="L64" s="170"/>
+      <c r="L64" s="169"/>
       <c r="M64" s="109"/>
-      <c r="N64" s="181" t="s">
-        <v>71</v>
-      </c>
-      <c r="O64" s="174"/>
-      <c r="P64" s="174"/>
-      <c r="Q64" s="174"/>
-      <c r="R64" s="175"/>
+      <c r="N64" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="O64" s="173"/>
+      <c r="P64" s="173"/>
+      <c r="Q64" s="173"/>
+      <c r="R64" s="174"/>
     </row>
     <row r="65" spans="12:18" ht="17" thickBot="1">
-      <c r="L65" s="170"/>
+      <c r="L65" s="169"/>
       <c r="M65" s="109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N65" s="94" t="s">
         <v>49</v>
@@ -24944,10 +24954,10 @@
       <c r="O65" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="P65" s="118" t="s">
+      <c r="P65" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="Q65" s="118" t="s">
+      <c r="Q65" s="117" t="s">
         <v>52</v>
       </c>
       <c r="R65" s="93" t="s">
@@ -24958,7 +24968,7 @@
       <c r="L66" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="142" t="s">
+      <c r="M66" s="141" t="s">
         <v>58</v>
       </c>
       <c r="N66" s="95">
@@ -24979,7 +24989,7 @@
     </row>
     <row r="67" spans="12:18">
       <c r="L67" s="8"/>
-      <c r="M67" s="143" t="s">
+      <c r="M67" s="142" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="58">
@@ -25000,7 +25010,7 @@
     </row>
     <row r="68" spans="12:18">
       <c r="L68" s="8"/>
-      <c r="M68" s="143" t="s">
+      <c r="M68" s="142" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="58">
@@ -25021,7 +25031,7 @@
     </row>
     <row r="69" spans="12:18">
       <c r="L69" s="8"/>
-      <c r="M69" s="143" t="s">
+      <c r="M69" s="142" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="58">
@@ -25042,7 +25052,7 @@
     </row>
     <row r="70" spans="12:18">
       <c r="L70" s="8"/>
-      <c r="M70" s="143" t="s">
+      <c r="M70" s="142" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="58">
@@ -25063,7 +25073,7 @@
     </row>
     <row r="71" spans="12:18">
       <c r="L71" s="8"/>
-      <c r="M71" s="143" t="s">
+      <c r="M71" s="142" t="s">
         <v>38</v>
       </c>
       <c r="N71" s="58">
@@ -25084,7 +25094,7 @@
     </row>
     <row r="72" spans="12:18" ht="17" thickBot="1">
       <c r="L72" s="9"/>
-      <c r="M72" s="120" t="s">
+      <c r="M72" s="119" t="s">
         <v>40</v>
       </c>
       <c r="N72" s="96">
@@ -25130,7 +25140,7 @@
     </row>
     <row r="74" spans="12:18">
       <c r="M74" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N74" s="97">
         <f>MEDIAN(N66:N72)</f>
@@ -25183,12 +25193,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="N63:R63"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="D47:H47"/>
@@ -25202,16 +25216,12 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N64:R64"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25231,21 +25241,21 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="113"/>
+    <col min="6" max="6" width="10.83203125" style="112"/>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="113"/>
+    <col min="10" max="10" width="10.83203125" style="112"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1"/>
     <row r="2" spans="2:8" ht="17" thickBot="1">
       <c r="B2" s="68"/>
-      <c r="C2" s="168" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="157" t="s">
+      <c r="C2" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="158" t="s">
+      <c r="F2" s="157" t="s">
         <v>18</v>
       </c>
     </row>
@@ -25259,7 +25269,7 @@
       <c r="E3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="161">
+      <c r="F3" s="160">
         <v>40</v>
       </c>
     </row>
@@ -25273,7 +25283,7 @@
       <c r="E4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="159">
+      <c r="F4" s="158">
         <v>24</v>
       </c>
       <c r="H4" s="45"/>
@@ -25282,13 +25292,13 @@
       <c r="B5" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="128">
+      <c r="C5" s="127">
         <v>24</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="160">
+        <v>61</v>
+      </c>
+      <c r="F5" s="159">
         <v>112</v>
       </c>
       <c r="H5" s="36"/>
@@ -25298,10 +25308,10 @@
       <c r="C6" s="76"/>
     </row>
     <row r="7" spans="2:8" ht="17" thickBot="1">
-      <c r="E7" s="157" t="s">
+      <c r="E7" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="157" t="s">
         <v>18</v>
       </c>
     </row>
@@ -25309,7 +25319,7 @@
       <c r="E8" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="161">
+      <c r="F8" s="160">
         <v>96</v>
       </c>
     </row>
@@ -25317,7 +25327,7 @@
       <c r="E9" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="161">
         <v>24</v>
       </c>
     </row>
@@ -25325,56 +25335,56 @@
       <c r="E10" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="161">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="E11" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="163">
+        <v>62</v>
+      </c>
+      <c r="F11" s="162">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1">
       <c r="E12" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="160">
+        <v>63</v>
+      </c>
+      <c r="F12" s="159">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="17" thickBot="1"/>
     <row r="14" spans="2:8" ht="17" thickBot="1">
-      <c r="E14" s="166" t="s">
+      <c r="E14" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="167" t="s">
+      <c r="F14" s="166" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="E15" s="164" t="s">
+      <c r="E15" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="165">
+      <c r="F15" s="164">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="E16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="163">
+        <v>65</v>
+      </c>
+      <c r="F16" s="162">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="5:6" ht="17" thickBot="1">
       <c r="E17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="160">
+        <v>64</v>
+      </c>
+      <c r="F17" s="159">
         <v>160</v>
       </c>
     </row>
@@ -25407,71 +25417,71 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="186"/>
-      <c r="I2" s="184" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="I2" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="185"/>
     </row>
     <row r="3" spans="2:11" ht="17" thickBot="1">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="189"/>
-      <c r="I3" s="187" t="s">
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
+      <c r="I3" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="188"/>
-      <c r="K3" s="189"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="188"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
-      <c r="I4" s="182" t="s">
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="185"/>
+      <c r="I4" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="184" t="s">
+      <c r="J4" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="186"/>
+      <c r="K4" s="185"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="183"/>
-      <c r="C5" s="191" t="s">
+      <c r="B5" s="182"/>
+      <c r="C5" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="193"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="191" t="s">
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="192"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="193"/>
+      <c r="K5" s="192"/>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1">
-      <c r="B6" s="190"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
@@ -25487,8 +25497,8 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="190"/>
-      <c r="J6" s="115" t="s">
+      <c r="I6" s="189"/>
+      <c r="J6" s="114" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -25520,7 +25530,7 @@
       <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="116" t="s">
+      <c r="K7" s="115" t="s">
         <v>55</v>
       </c>
     </row>
@@ -25549,7 +25559,7 @@
       <c r="J8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="116" t="s">
+      <c r="K8" s="115" t="s">
         <v>54</v>
       </c>
     </row>
@@ -25578,7 +25588,7 @@
       <c r="J9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="117" t="s">
+      <c r="K9" s="116" t="s">
         <v>56</v>
       </c>
     </row>
@@ -25604,7 +25614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75216B1-824B-AC4B-AE4D-D08E9303B6EF}">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView zoomScale="43" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
@@ -25636,37 +25646,37 @@
   <sheetData>
     <row r="1" spans="2:28" ht="17" thickBot="1"/>
     <row r="2" spans="2:28" ht="17" thickBot="1">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
       <c r="I2" s="54"/>
       <c r="J2" s="27"/>
-      <c r="L2" s="195" t="s">
+      <c r="L2" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
       <c r="S2" s="54"/>
       <c r="T2" s="27"/>
-      <c r="V2" s="195" t="s">
+      <c r="V2" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="16"/>
@@ -25685,10 +25695,10 @@
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="177" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="178"/>
@@ -25698,10 +25708,10 @@
       <c r="H5" s="178"/>
       <c r="I5" s="23"/>
       <c r="J5" s="28"/>
-      <c r="L5" s="169" t="s">
+      <c r="L5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="180" t="s">
+      <c r="M5" s="177" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="178"/>
@@ -25711,10 +25721,10 @@
       <c r="R5" s="178"/>
       <c r="S5" s="23"/>
       <c r="T5" s="28"/>
-      <c r="V5" s="169" t="s">
+      <c r="V5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="180" t="s">
+      <c r="W5" s="177" t="s">
         <v>16</v>
       </c>
       <c r="X5" s="178"/>
@@ -25724,47 +25734,47 @@
       <c r="AB5" s="178"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="170"/>
-      <c r="C6" s="183" t="s">
+      <c r="B6" s="169"/>
+      <c r="C6" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
       <c r="I6" s="23"/>
       <c r="J6" s="28"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="183" t="s">
+      <c r="L6" s="169"/>
+      <c r="M6" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="174" t="s">
+      <c r="N6" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
       <c r="S6" s="23"/>
       <c r="T6" s="28"/>
-      <c r="V6" s="170"/>
-      <c r="W6" s="183" t="s">
+      <c r="V6" s="169"/>
+      <c r="W6" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="174" t="s">
+      <c r="X6" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="174"/>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="174"/>
-      <c r="AB6" s="174"/>
+      <c r="Y6" s="173"/>
+      <c r="Z6" s="173"/>
+      <c r="AA6" s="173"/>
+      <c r="AB6" s="173"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="170"/>
-      <c r="C7" s="194"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="193"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25782,8 +25792,8 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="29"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="194"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="193"/>
       <c r="N7" s="22" t="s">
         <v>22</v>
       </c>
@@ -25801,8 +25811,8 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="29"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="194"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="193"/>
       <c r="X7" s="22" t="s">
         <v>22</v>
       </c>
@@ -26089,10 +26099,10 @@
       </c>
     </row>
     <row r="15" spans="2:28">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="180" t="s">
+      <c r="C15" s="177" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="178"/>
@@ -26100,10 +26110,10 @@
       <c r="F15" s="178"/>
       <c r="G15" s="178"/>
       <c r="H15" s="178"/>
-      <c r="L15" s="169" t="s">
+      <c r="L15" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="180" t="s">
+      <c r="M15" s="177" t="s">
         <v>16</v>
       </c>
       <c r="N15" s="178"/>
@@ -26111,10 +26121,10 @@
       <c r="P15" s="178"/>
       <c r="Q15" s="178"/>
       <c r="R15" s="178"/>
-      <c r="V15" s="169" t="s">
+      <c r="V15" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="180" t="s">
+      <c r="W15" s="177" t="s">
         <v>16</v>
       </c>
       <c r="X15" s="178"/>
@@ -26124,43 +26134,43 @@
       <c r="AB15" s="178"/>
     </row>
     <row r="16" spans="2:28">
-      <c r="B16" s="170"/>
-      <c r="C16" s="183" t="s">
+      <c r="B16" s="169"/>
+      <c r="C16" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="183" t="s">
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="174" t="s">
+      <c r="N16" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="174"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="174"/>
-      <c r="V16" s="170"/>
-      <c r="W16" s="183" t="s">
+      <c r="O16" s="173"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="173"/>
+      <c r="V16" s="169"/>
+      <c r="W16" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="174" t="s">
+      <c r="X16" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="174"/>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="174"/>
-      <c r="AB16" s="174"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
     </row>
     <row r="17" spans="2:28" ht="17" thickBot="1">
-      <c r="B17" s="170"/>
-      <c r="C17" s="194"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="193"/>
       <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
@@ -26176,8 +26186,8 @@
       <c r="H17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="170"/>
-      <c r="M17" s="194"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="193"/>
       <c r="N17" s="32" t="s">
         <v>22</v>
       </c>
@@ -26193,8 +26203,8 @@
       <c r="R17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="170"/>
-      <c r="W17" s="194"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="193"/>
       <c r="X17" s="50" t="s">
         <v>22</v>
       </c>
@@ -26455,17 +26465,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="B15:B17"/>
@@ -26482,6 +26481,17 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:R16"/>
     <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26492,7 +26502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA61C951-3000-4C4C-AAA2-ABA6E1C54342}">
   <dimension ref="B2:AB11"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="69" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
@@ -26565,59 +26575,59 @@
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="178"/>
       <c r="E5" s="178"/>
       <c r="F5" s="178"/>
       <c r="G5" s="179"/>
-      <c r="L5" s="169" t="s">
+      <c r="L5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="180"/>
+      <c r="M5" s="177"/>
       <c r="N5" s="178"/>
       <c r="O5" s="178"/>
       <c r="P5" s="178"/>
       <c r="Q5" s="179"/>
-      <c r="V5" s="169" t="s">
+      <c r="V5" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="180"/>
+      <c r="W5" s="177"/>
       <c r="X5" s="178"/>
       <c r="Y5" s="178"/>
       <c r="Z5" s="178"/>
       <c r="AA5" s="179"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="170"/>
-      <c r="C6" s="181" t="s">
+      <c r="B6" s="169"/>
+      <c r="C6" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="175"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="181" t="s">
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="174"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="175"/>
-      <c r="V6" s="170"/>
-      <c r="W6" s="181" t="s">
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="174"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="174"/>
-      <c r="Y6" s="174"/>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="175"/>
+      <c r="X6" s="173"/>
+      <c r="Y6" s="173"/>
+      <c r="Z6" s="173"/>
+      <c r="AA6" s="174"/>
     </row>
     <row r="7" spans="2:28" ht="17" thickBot="1">
-      <c r="B7" s="170"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="52" t="s">
         <v>22</v>
       </c>
@@ -26633,7 +26643,7 @@
       <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="170"/>
+      <c r="L7" s="169"/>
       <c r="M7" s="57" t="s">
         <v>22</v>
       </c>
@@ -26649,7 +26659,7 @@
       <c r="Q7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="170"/>
+      <c r="V7" s="169"/>
       <c r="W7" s="57" t="s">
         <v>22</v>
       </c>
